--- a/Modelos.xlsx
+++ b/Modelos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="25600" windowHeight="14240" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="New Data" sheetId="13" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="158">
   <si>
     <t>MODELS TRIALS</t>
   </si>
@@ -328,9 +328,6 @@
     <t xml:space="preserve">Ant.  R2 </t>
   </si>
   <si>
-    <t>VGAM</t>
-  </si>
-  <si>
     <t>REGRESSIONS</t>
   </si>
   <si>
@@ -379,12 +376,6 @@
     <t xml:space="preserve">Last R2 </t>
   </si>
   <si>
-    <t>Prom</t>
-  </si>
-  <si>
-    <t>º</t>
-  </si>
-  <si>
     <t>GENRE q</t>
   </si>
   <si>
@@ -545,6 +536,89 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig. R2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig. RMSE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orig. Var </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri Bold"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orign. R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri Bold"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri Bold"/>
+        <family val="2"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri Bold"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri Bold"/>
+        <family val="2"/>
+      </rPr>
+      <t>Orig. R2</t>
+    </r>
+  </si>
+  <si>
+    <t>Orig. RMSE</t>
+  </si>
+  <si>
+    <t>Orig.Var</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri Bold"/>
+        <family val="2"/>
+      </rPr>
+      <t>R2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -557,7 +631,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -697,8 +771,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -800,8 +880,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="76">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1133,15 +1219,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000090"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1163,39 +1240,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000090"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000090"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000090"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1253,17 +1297,6 @@
         <color rgb="FF000090"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000090"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000090"/>
-      </left>
-      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1304,45 +1337,6 @@
       <top style="medium">
         <color rgb="FF000090"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000090"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000090"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000090"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000090"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000090"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000090"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1361,21 +1355,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000090"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000090"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="medium">
         <color rgb="FF000090"/>
@@ -1383,45 +1362,6 @@
       <bottom style="medium">
         <color rgb="FF000090"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000090"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000090"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000090"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000090"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1467,21 +1407,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000090"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000090"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="medium">
@@ -1564,45 +1489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000090"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000090"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000090"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -1707,17 +1593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1731,7 +1606,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="190">
+  <cellStyleXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1922,8 +1797,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="364">
+  <cellXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2087,99 +2000,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="42" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="26" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="4" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="0" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="32" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="8" borderId="6" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="45" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="38" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="39" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="8" borderId="5" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="8" borderId="6" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="37" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="45" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="46" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="48" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="5" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="6" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="42" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="25" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="26" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="58" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="59" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="59" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="61" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="61" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="62" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="42" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="58" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2205,31 +2058,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2238,13 +2082,10 @@
     <xf numFmtId="3" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2260,17 +2101,13 @@
     <xf numFmtId="3" fontId="17" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2282,20 +2119,19 @@
     <xf numFmtId="3" fontId="16" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="11" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="11" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="71" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="11" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="55" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="8" borderId="6" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2317,106 +2153,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="63" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="64" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="47" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="4" borderId="0" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="63" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="9" fillId="9" borderId="43" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="9" borderId="55" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="64" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="67" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="1" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="3" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="9" borderId="74" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="9" borderId="16" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="9" borderId="18" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="4" borderId="62" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="51" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="13" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="5" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="62" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="41" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="41" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="13" fillId="9" borderId="2" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="9" borderId="44" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="9" borderId="49" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="73" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="40" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="35" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="31" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="4" borderId="6" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2438,7 +2202,7 @@
     <xf numFmtId="166" fontId="10" fillId="9" borderId="10" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="40" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="9" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2447,13 +2211,13 @@
     <xf numFmtId="10" fontId="9" fillId="9" borderId="12" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="73" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="40" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="35" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="31" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="4" borderId="10" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2506,28 +2270,15 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="9" borderId="67" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="67" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="9" fillId="9" borderId="51" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="51" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2570,6 +2321,141 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="10" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="4" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="26" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="16" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="10" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="16" borderId="10" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="16" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="26" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="17" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="17" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="9" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="9" borderId="7" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="6" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="9" borderId="9" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="9" borderId="8" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="9" borderId="6" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="2" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="7" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="8" borderId="2" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="8" borderId="6" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="9" borderId="8" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="9" borderId="9" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="9" borderId="7" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2579,58 +2465,58 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="54" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="56" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="52" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="36" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="34" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="40" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="72" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="52" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="53" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="30" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="34" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="42" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="43" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="40" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="32" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="33" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="30" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="56" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="40" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="37" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="41" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="29" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="30" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="35" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="36" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2681,243 +2567,217 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="24" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="34" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="36" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="27" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="47" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="22" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="23" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="21" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="1" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="2" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="3" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="4" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="0" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="48" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="5" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="6" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="9" borderId="49" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="21" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="39" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="26" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="27" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="60" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="75" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="42" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="43" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="40" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="47" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="44" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="28" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="56" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="40" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="30" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="35" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="58" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="37" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="41" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="29" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="23" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="21" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="8" borderId="32" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="8" borderId="2" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="8" borderId="33" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="8" borderId="45" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="8" borderId="0" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="8" borderId="28" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="8" borderId="41" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="8" borderId="6" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="8" borderId="31" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="65" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="42" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="53" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="51" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="54" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="56" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="52" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="60" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="50" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="51" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="30" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="39" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="38" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="72" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="52" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="34" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="40" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="4" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="9" fillId="4" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="26" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="16" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="16" borderId="10" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="16" borderId="10" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="16" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="26" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="17" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="17" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="1" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="2" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="4" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="0" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="8" borderId="5" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="9" borderId="9" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="190">
+  <cellStyles count="228">
     <cellStyle name="Encabezado 3" xfId="93" builtinId="18"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
@@ -3013,6 +2873,25 @@
     <cellStyle name="Hipervínculo" xfId="184" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="186" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="226" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -3107,6 +2986,25 @@
     <cellStyle name="Hipervínculo visitado" xfId="185" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="187" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="227" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3283,12 +3181,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="2092906952"/>
-        <c:axId val="2092909992"/>
+        <c:axId val="2101995768"/>
+        <c:axId val="2102003592"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2092906952"/>
+        <c:axId val="2101995768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3310,7 +3208,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092909992"/>
+        <c:crossAx val="2102003592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3318,7 +3216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2092909992"/>
+        <c:axId val="2102003592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,7 +3226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092906952"/>
+        <c:crossAx val="2101995768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3360,7 +3258,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3507,12 +3404,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="2093344824"/>
-        <c:axId val="2093341768"/>
+        <c:axId val="2102739464"/>
+        <c:axId val="2102742504"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2093344824"/>
+        <c:axId val="2102739464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3534,7 +3431,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093341768"/>
+        <c:crossAx val="2102742504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3542,7 +3439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093341768"/>
+        <c:axId val="2102742504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3552,7 +3449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093344824"/>
+        <c:crossAx val="2102739464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3570,445 +3467,6 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="130"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="30"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2000">
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Multinomial regression'!$F$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Broad</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.025"/>
-                  <c:y val="-0.037037037037037"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0305555555555555"/>
-                  <c:y val="-0.0555555555555555"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="1">
-                    <a:latin typeface="Arial"/>
-                    <a:cs typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Multinomial regression'!$H$3:$I$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>R∧2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>R∧2 Last</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Multinomial regression'!$G$4:$I$4</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.3339</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3627</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="cylinder"/>
-        <c:axId val="2092273800"/>
-        <c:axId val="2092270744"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="2092273800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1500" b="1">
-                <a:latin typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2092270744"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2092270744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092273800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="135"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="35"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Multinomial regression'!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fine</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.025"/>
-                  <c:y val="-0.037037037037037"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.0305555555555555"/>
-                  <c:y val="-0.0555555555555555"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1500" b="1">
-                    <a:latin typeface="Arial"/>
-                    <a:cs typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Multinomial regression'!$H$3:$I$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>R∧2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>R∧2 Last</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Multinomial regression'!$H$5:$I$5</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0000</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.2159</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3439</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="cylinder"/>
-        <c:axId val="2093312712"/>
-        <c:axId val="2093309656"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="2093312712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1500" b="1">
-                <a:latin typeface="Arial"/>
-                <a:cs typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2093309656"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2093309656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="#,##0.0000" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093312712"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4177,12 +3635,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="2093256808"/>
-        <c:axId val="2093253752"/>
+        <c:axId val="2099893656"/>
+        <c:axId val="2099896696"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2093256808"/>
+        <c:axId val="2099893656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4204,7 +3662,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093253752"/>
+        <c:crossAx val="2099896696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4212,7 +3670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093253752"/>
+        <c:axId val="2099896696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4222,7 +3680,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093256808"/>
+        <c:crossAx val="2099893656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4239,7 +3697,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4400,12 +3858,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="2093221352"/>
-        <c:axId val="2093218296"/>
+        <c:axId val="2099928808"/>
+        <c:axId val="2099931848"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2093221352"/>
+        <c:axId val="2099928808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4427,7 +3885,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2093218296"/>
+        <c:crossAx val="2099931848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4435,7 +3893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2093218296"/>
+        <c:axId val="2099931848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4445,7 +3903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093221352"/>
+        <c:crossAx val="2099928808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4532,73 +3990,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>16933</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>42332</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>711199</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Gráfico 9"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>118532</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>203198</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>143935</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Gráfico 10"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4991,7 +4382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -5017,7 +4408,7 @@
     <col min="19" max="19" width="9.6640625" style="66" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.5" style="66" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" style="66" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" style="349" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" style="186" customWidth="1"/>
     <col min="23" max="23" width="7.33203125" style="66" customWidth="1"/>
     <col min="24" max="24" width="8.33203125" style="66" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="8.33203125" style="66" bestFit="1" customWidth="1"/>
@@ -5027,425 +4418,425 @@
   <sheetData>
     <row r="1" spans="2:29" ht="16" thickBot="1"/>
     <row r="2" spans="2:29" ht="16" thickBot="1">
-      <c r="B2" s="248" t="s">
+      <c r="B2" s="235" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="236"/>
+      <c r="Q2" s="236"/>
+      <c r="R2" s="236"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="236"/>
+      <c r="U2" s="236"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
+      <c r="X2" s="236"/>
+      <c r="Y2" s="236"/>
+      <c r="Z2" s="237"/>
+    </row>
+    <row r="3" spans="2:29" ht="16" thickBot="1">
+      <c r="B3" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="195" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="188" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="249"/>
-      <c r="V2" s="249"/>
-      <c r="W2" s="249"/>
-      <c r="X2" s="249"/>
-      <c r="Y2" s="249"/>
-      <c r="Z2" s="250"/>
-    </row>
-    <row r="3" spans="2:29" ht="16" thickBot="1">
-      <c r="B3" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="143" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="358" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="351" t="s">
+      <c r="L3" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="195" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" s="188" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" s="87" t="s">
+      <c r="O3" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="358" t="s">
-        <v>133</v>
-      </c>
-      <c r="N3" s="351" t="s">
-        <v>132</v>
-      </c>
-      <c r="O3" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="86" t="s">
-        <v>75</v>
-      </c>
-      <c r="S3" s="87" t="s">
+      <c r="T3" s="195" t="s">
+        <v>131</v>
+      </c>
+      <c r="U3" s="188" t="s">
+        <v>135</v>
+      </c>
+      <c r="V3" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z3" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="358" t="s">
-        <v>134</v>
-      </c>
-      <c r="U3" s="351" t="s">
-        <v>138</v>
-      </c>
-      <c r="V3" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z3" s="87" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="4" spans="2:29" ht="35" customHeight="1" thickBot="1">
-      <c r="B4" s="251" t="s">
+      <c r="B4" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="254"/>
-      <c r="D4" s="258" t="s">
+      <c r="C4" s="241"/>
+      <c r="D4" s="245" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="190" t="s">
+      <c r="E4" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="260" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="359" t="s">
-        <v>142</v>
-      </c>
-      <c r="H4" s="353">
+      <c r="F4" s="247" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="196" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="190">
         <v>0.47</v>
       </c>
-      <c r="I4" s="194">
+      <c r="I4" s="135">
         <v>0.438</v>
       </c>
-      <c r="J4" s="206">
+      <c r="J4" s="147">
         <v>0.40500000000000003</v>
       </c>
-      <c r="K4" s="214">
+      <c r="K4" s="155">
         <v>0.36270000000000002</v>
       </c>
-      <c r="L4" s="224">
+      <c r="L4" s="165">
         <f>(I4-K4)/K4</f>
         <v>0.20760959470636883</v>
       </c>
-      <c r="M4" s="362" t="s">
-        <v>143</v>
-      </c>
-      <c r="N4" s="357" t="s">
-        <v>124</v>
-      </c>
-      <c r="O4" s="347" t="s">
-        <v>124</v>
-      </c>
-      <c r="P4" s="215">
+      <c r="M4" s="199" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" s="194" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="184" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="156">
         <v>0.31019999999999998</v>
       </c>
-      <c r="Q4" s="215">
+      <c r="Q4" s="156">
         <v>0.3165</v>
       </c>
-      <c r="R4" s="198">
+      <c r="R4" s="139">
         <v>0.32540000000000002</v>
       </c>
-      <c r="S4" s="201">
+      <c r="S4" s="142">
         <f>(R4-P4)/R4</f>
         <v>4.6711739397664556E-2</v>
       </c>
-      <c r="T4" s="363" t="s">
-        <v>144</v>
-      </c>
-      <c r="U4" s="352" t="s">
-        <v>125</v>
-      </c>
-      <c r="V4" s="350" t="s">
-        <v>125</v>
-      </c>
-      <c r="W4" s="216">
+      <c r="T4" s="200" t="s">
+        <v>141</v>
+      </c>
+      <c r="U4" s="189" t="s">
+        <v>122</v>
+      </c>
+      <c r="V4" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="W4" s="157">
         <v>9.6699999999999994E-2</v>
       </c>
-      <c r="X4" s="217">
+      <c r="X4" s="158">
         <v>0.10009999999999999</v>
       </c>
-      <c r="Y4" s="198">
+      <c r="Y4" s="139">
         <v>0.10539999999999999</v>
       </c>
-      <c r="Z4" s="202">
+      <c r="Z4" s="143">
         <f>(Y4-W4)/Y4</f>
         <v>8.2542694497153693E-2</v>
       </c>
     </row>
     <row r="5" spans="2:29" ht="16" thickBot="1">
-      <c r="B5" s="252"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="259"/>
-      <c r="E5" s="191" t="s">
+      <c r="B5" s="239"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="261"/>
-      <c r="G5" s="360" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="354">
+      <c r="F5" s="248"/>
+      <c r="G5" s="197" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="191">
         <v>0.45100000000000001</v>
       </c>
-      <c r="I5" s="206">
+      <c r="I5" s="147">
         <v>0.42299999999999999</v>
       </c>
-      <c r="J5" s="206">
+      <c r="J5" s="147">
         <v>0.315</v>
       </c>
-      <c r="K5" s="213">
+      <c r="K5" s="154">
         <v>0.34389999999999998</v>
       </c>
-      <c r="L5" s="225">
+      <c r="L5" s="166">
         <f>(I5-K5)/K5</f>
         <v>0.23000872346612389</v>
       </c>
-      <c r="M5" s="362" t="s">
-        <v>130</v>
-      </c>
-      <c r="N5" s="357" t="s">
-        <v>130</v>
-      </c>
-      <c r="O5" s="348" t="s">
+      <c r="M5" s="199" t="s">
         <v>127</v>
       </c>
-      <c r="P5" s="210">
+      <c r="N5" s="194" t="s">
+        <v>127</v>
+      </c>
+      <c r="O5" s="185" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="151">
         <v>0.22700000000000001</v>
       </c>
-      <c r="Q5" s="207">
+      <c r="Q5" s="148">
         <v>0.24879999999999999</v>
       </c>
-      <c r="R5" s="217">
+      <c r="R5" s="158">
         <v>0.2412</v>
       </c>
-      <c r="S5" s="201">
+      <c r="S5" s="142">
         <f t="shared" ref="S5:S7" si="0">(R5-P5)/R5</f>
         <v>5.8872305140961818E-2</v>
       </c>
-      <c r="T5" s="363" t="s">
-        <v>145</v>
-      </c>
-      <c r="U5" s="352" t="s">
-        <v>131</v>
-      </c>
-      <c r="V5" s="350" t="s">
-        <v>126</v>
-      </c>
-      <c r="W5" s="210">
+      <c r="T5" s="200" t="s">
+        <v>142</v>
+      </c>
+      <c r="U5" s="189" t="s">
+        <v>128</v>
+      </c>
+      <c r="V5" s="187" t="s">
+        <v>123</v>
+      </c>
+      <c r="W5" s="151">
         <v>5.357E-2</v>
       </c>
-      <c r="X5" s="207">
+      <c r="X5" s="148">
         <v>6.3799999999999996E-2</v>
       </c>
-      <c r="Y5" s="213">
+      <c r="Y5" s="154">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="Z5" s="202">
+      <c r="Z5" s="143">
         <f t="shared" ref="Z5:Z7" si="1">(Y5-W5)/Y5</f>
         <v>5.8523725834797882E-2</v>
       </c>
-      <c r="AB5" s="220">
+      <c r="AB5" s="161">
         <f>(R5-P5)/R5</f>
         <v>5.8872305140961818E-2</v>
       </c>
     </row>
     <row r="6" spans="2:29" ht="19" customHeight="1" thickBot="1">
-      <c r="B6" s="252"/>
-      <c r="C6" s="256"/>
-      <c r="D6" s="262" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="192" t="s">
+      <c r="B6" s="239"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="249" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="264" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="361" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="355" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" s="194">
+      <c r="F6" s="251" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="192" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" s="135">
         <v>0.91600000000000004</v>
       </c>
-      <c r="J6" s="206">
+      <c r="J6" s="147">
         <v>0.91600000000000004</v>
       </c>
-      <c r="K6" s="214">
+      <c r="K6" s="155">
         <v>0.91559999999999997</v>
       </c>
-      <c r="L6" s="224">
+      <c r="L6" s="165">
         <f>(I6-K6)/K6</f>
         <v>4.3687199650509716E-4</v>
       </c>
-      <c r="M6" s="362" t="s">
-        <v>146</v>
-      </c>
-      <c r="N6" s="357" t="s">
-        <v>136</v>
-      </c>
-      <c r="O6" s="347"/>
-      <c r="P6" s="208">
+      <c r="M6" s="199" t="s">
+        <v>143</v>
+      </c>
+      <c r="N6" s="194" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" s="184"/>
+      <c r="P6" s="149">
         <v>0.13750000000000001</v>
       </c>
-      <c r="Q6" s="207">
+      <c r="Q6" s="148">
         <v>0.13750000000000001</v>
       </c>
-      <c r="R6" s="197">
+      <c r="R6" s="138">
         <v>0.1376</v>
       </c>
-      <c r="S6" s="201">
+      <c r="S6" s="142">
         <f t="shared" si="0"/>
         <v>7.267441860464316E-4</v>
       </c>
-      <c r="T6" s="363" t="s">
-        <v>147</v>
-      </c>
-      <c r="U6" s="352" t="s">
-        <v>137</v>
-      </c>
-      <c r="V6" s="350"/>
-      <c r="W6" s="199">
+      <c r="T6" s="200" t="s">
+        <v>144</v>
+      </c>
+      <c r="U6" s="189" t="s">
+        <v>134</v>
+      </c>
+      <c r="V6" s="187"/>
+      <c r="W6" s="140">
         <v>1.78E-2</v>
       </c>
-      <c r="X6" s="208">
+      <c r="X6" s="149">
         <v>1.77E-2</v>
       </c>
-      <c r="Y6" s="209">
+      <c r="Y6" s="150">
         <v>1.7850000000000001E-2</v>
       </c>
-      <c r="Z6" s="202">
+      <c r="Z6" s="143">
         <f t="shared" si="1"/>
         <v>2.8011204481793515E-3</v>
       </c>
     </row>
     <row r="7" spans="2:29" ht="19" customHeight="1" thickBot="1">
-      <c r="B7" s="253"/>
-      <c r="C7" s="257"/>
-      <c r="D7" s="263"/>
-      <c r="E7" s="191" t="s">
+      <c r="B7" s="240"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="250"/>
+      <c r="E7" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="265"/>
-      <c r="G7" s="360" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7" s="356" t="s">
-        <v>139</v>
-      </c>
-      <c r="I7" s="206">
+      <c r="F7" s="252"/>
+      <c r="G7" s="197" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="193" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="147">
         <v>0.89100000000000001</v>
       </c>
-      <c r="J7" s="206">
+      <c r="J7" s="147">
         <v>0.89300000000000002</v>
       </c>
-      <c r="K7" s="214">
+      <c r="K7" s="155">
         <v>0.9</v>
       </c>
-      <c r="L7" s="224">
+      <c r="L7" s="165">
         <f>(I7-K7)/K7</f>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="M7" s="362" t="s">
-        <v>149</v>
-      </c>
-      <c r="N7" s="357" t="s">
-        <v>140</v>
-      </c>
-      <c r="O7" s="347"/>
-      <c r="P7" s="210">
+      <c r="M7" s="199" t="s">
+        <v>146</v>
+      </c>
+      <c r="N7" s="194" t="s">
+        <v>137</v>
+      </c>
+      <c r="O7" s="184"/>
+      <c r="P7" s="151">
         <v>0.09</v>
       </c>
-      <c r="Q7" s="210">
+      <c r="Q7" s="151">
         <v>9.3399999999999997E-2</v>
       </c>
-      <c r="R7" s="218">
+      <c r="R7" s="159">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="S7" s="201">
+      <c r="S7" s="142">
         <f t="shared" si="0"/>
         <v>2.3861171366594439E-2</v>
       </c>
-      <c r="T7" s="363" t="s">
-        <v>150</v>
-      </c>
-      <c r="U7" s="352" t="s">
-        <v>141</v>
-      </c>
-      <c r="V7" s="350"/>
-      <c r="W7" s="210">
+      <c r="T7" s="200" t="s">
+        <v>147</v>
+      </c>
+      <c r="U7" s="189" t="s">
+        <v>138</v>
+      </c>
+      <c r="V7" s="187"/>
+      <c r="W7" s="151">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="X7" s="207">
+      <c r="X7" s="148">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Y7" s="219">
+      <c r="Y7" s="160">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="Z7" s="202">
+      <c r="Z7" s="143">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:29">
-      <c r="AB8" s="241">
+      <c r="AB8" s="177">
         <f>AVERAGE(S4:S5)</f>
         <v>5.2792022269313191E-2</v>
       </c>
       <c r="AC8" s="66" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:29">
-      <c r="Z9" s="220">
+      <c r="Z9" s="161">
         <f>(K5/I5)</f>
         <v>0.81300236406619386</v>
       </c>
-      <c r="AB9" s="241">
+      <c r="AB9" s="177">
         <f>AVERAGE(Z4:Z5)</f>
         <v>7.0533210165975788E-2</v>
       </c>
       <c r="AC9" s="66" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:29">
@@ -5455,20 +4846,20 @@
       <c r="AA13" s="66">
         <v>0.34389999999999998</v>
       </c>
-      <c r="AB13" s="222"/>
+      <c r="AB13" s="163"/>
     </row>
     <row r="14" spans="2:29">
-      <c r="AB14" s="212"/>
+      <c r="AB14" s="153"/>
     </row>
     <row r="15" spans="2:29">
-      <c r="AB15" s="223"/>
+      <c r="AB15" s="164"/>
     </row>
     <row r="17" spans="26:28">
-      <c r="Z17" s="221">
+      <c r="Z17" s="162">
         <f>((Z13/AA13)*100%-100%)</f>
         <v>0.23000872346612389</v>
       </c>
-      <c r="AB17" s="220">
+      <c r="AB17" s="161">
         <f>(Z13-AA13)/AA13</f>
         <v>0.23000872346612389</v>
       </c>
@@ -5478,7 +4869,7 @@
         <f>I5/K5</f>
         <v>1.2300087234661239</v>
       </c>
-      <c r="AA21" s="212"/>
+      <c r="AA21" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5504,445 +4895,1162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="10" width="10.83203125" style="112"/>
-    <col min="11" max="25" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="25" width="10.83203125" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10" ht="16" thickBot="1">
-      <c r="B2" s="266" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="16" thickBot="1">
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+    </row>
+    <row r="2" spans="1:25" ht="16" thickBot="1">
+      <c r="B2" s="253" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-    </row>
-    <row r="3" spans="2:10" ht="16" thickBot="1">
-      <c r="B3" s="116" t="s">
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="255"/>
+    </row>
+    <row r="3" spans="1:25" ht="16" thickBot="1">
+      <c r="B3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D3" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-    </row>
-    <row r="4" spans="2:10" ht="36">
-      <c r="B4" s="119">
+    </row>
+    <row r="4" spans="1:25" ht="36">
+      <c r="B4" s="94">
         <v>1</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="96">
+        <v>36342</v>
+      </c>
+      <c r="E4" s="97">
+        <v>36376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="B5" s="98">
+        <v>2</v>
+      </c>
+      <c r="C5" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="121">
-        <v>36342</v>
-      </c>
-      <c r="E4" s="122">
-        <v>36376</v>
-      </c>
-      <c r="F4" s="123"/>
-      <c r="G4" s="115"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="124">
-        <v>2</v>
-      </c>
-      <c r="C5" s="125" t="s">
+      <c r="D5" s="100">
+        <v>37203</v>
+      </c>
+      <c r="E5" s="101">
+        <v>37217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="B6" s="98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="100">
+        <v>44532</v>
+      </c>
+      <c r="E6" s="101">
+        <v>44540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="B7" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="100">
+        <v>40483</v>
+      </c>
+      <c r="E7" s="101">
+        <v>40491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" s="88" customFormat="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="102">
+        <v>38477</v>
+      </c>
+      <c r="E8" s="103">
+        <v>38485</v>
+      </c>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+    </row>
+    <row r="9" spans="1:25" s="88" customFormat="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="102">
+        <v>43346</v>
+      </c>
+      <c r="E9" s="103">
+        <v>43354</v>
+      </c>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+    </row>
+    <row r="10" spans="1:25" s="88" customFormat="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="102">
+        <v>40693</v>
+      </c>
+      <c r="E10" s="103">
+        <v>40701</v>
+      </c>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="90"/>
+      <c r="S10" s="90"/>
+      <c r="T10" s="90"/>
+      <c r="U10" s="90"/>
+      <c r="V10" s="90"/>
+      <c r="W10" s="90"/>
+      <c r="X10" s="90"/>
+      <c r="Y10" s="90"/>
+    </row>
+    <row r="11" spans="1:25" s="88" customFormat="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="102">
+        <v>38416</v>
+      </c>
+      <c r="E11" s="103">
+        <v>38424</v>
+      </c>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+    </row>
+    <row r="12" spans="1:25" s="88" customFormat="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="102">
+        <v>43534</v>
+      </c>
+      <c r="E12" s="103">
+        <v>43542</v>
+      </c>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+    </row>
+    <row r="13" spans="1:25" s="88" customFormat="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="102">
+        <v>38049</v>
+      </c>
+      <c r="E13" s="103">
+        <v>38057</v>
+      </c>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="90"/>
+      <c r="S13" s="90"/>
+      <c r="T13" s="90"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="90"/>
+      <c r="X13" s="90"/>
+      <c r="Y13" s="90"/>
+    </row>
+    <row r="14" spans="1:25" s="88" customFormat="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="102">
+        <v>39426</v>
+      </c>
+      <c r="E14" s="103">
+        <v>39434</v>
+      </c>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
+      <c r="T14" s="90"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="90"/>
+      <c r="X14" s="90"/>
+      <c r="Y14" s="90"/>
+    </row>
+    <row r="15" spans="1:25" s="88" customFormat="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="102">
+        <v>38031</v>
+      </c>
+      <c r="E15" s="103">
+        <v>38039</v>
+      </c>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
+      <c r="Y15" s="90"/>
+    </row>
+    <row r="16" spans="1:25" s="89" customFormat="1">
+      <c r="A16" s="202"/>
+      <c r="B16" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="102">
+        <v>38384</v>
+      </c>
+      <c r="E16" s="103">
+        <v>38394</v>
+      </c>
+      <c r="F16" s="201"/>
+      <c r="G16" s="201"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="201"/>
+      <c r="O16" s="201"/>
+      <c r="P16" s="201"/>
+      <c r="Q16" s="201"/>
+      <c r="R16" s="201"/>
+      <c r="S16" s="201"/>
+      <c r="T16" s="201"/>
+      <c r="U16" s="201"/>
+      <c r="V16" s="201"/>
+      <c r="W16" s="201"/>
+      <c r="X16" s="201"/>
+      <c r="Y16" s="201"/>
+    </row>
+    <row r="17" spans="1:25" s="88" customFormat="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="102">
+        <v>40424</v>
+      </c>
+      <c r="E17" s="103">
+        <v>40434</v>
+      </c>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+    </row>
+    <row r="18" spans="1:25" s="88" customFormat="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="102">
+        <v>44536</v>
+      </c>
+      <c r="E18" s="103">
+        <v>44542</v>
+      </c>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="90"/>
+      <c r="S18" s="90"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="90"/>
+      <c r="W18" s="90"/>
+      <c r="X18" s="90"/>
+      <c r="Y18" s="90"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="B19" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="102">
+        <v>44910</v>
+      </c>
+      <c r="E19" s="103">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="B20" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="102">
+        <v>43536</v>
+      </c>
+      <c r="E20" s="103">
+        <v>47685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="16" thickBot="1">
+      <c r="B21" s="106">
+        <v>5</v>
+      </c>
+      <c r="C21" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="126">
-        <v>37203</v>
-      </c>
-      <c r="E5" s="127">
-        <v>37217</v>
-      </c>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="124" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="125" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="126">
-        <v>44532</v>
-      </c>
-      <c r="E6" s="127">
-        <v>44540</v>
-      </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="124" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="125" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="126">
-        <v>40483</v>
-      </c>
-      <c r="E7" s="127">
-        <v>40491</v>
-      </c>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-    </row>
-    <row r="8" spans="2:10" s="110" customFormat="1">
-      <c r="B8" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="125" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="128">
-        <v>38477</v>
-      </c>
-      <c r="E8" s="129">
-        <v>38485</v>
-      </c>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-    </row>
-    <row r="9" spans="2:10" s="110" customFormat="1">
-      <c r="B9" s="124" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="125" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="128">
-        <v>43346</v>
-      </c>
-      <c r="E9" s="129">
-        <v>43354</v>
-      </c>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-    </row>
-    <row r="10" spans="2:10" s="110" customFormat="1">
-      <c r="B10" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="125" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="128">
-        <v>40693</v>
-      </c>
-      <c r="E10" s="129">
-        <v>40701</v>
-      </c>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-    </row>
-    <row r="11" spans="2:10" s="110" customFormat="1">
-      <c r="B11" s="124" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="125" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="128">
-        <v>38416</v>
-      </c>
-      <c r="E11" s="129">
-        <v>38424</v>
-      </c>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-    </row>
-    <row r="12" spans="2:10" s="110" customFormat="1">
-      <c r="B12" s="124" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="125" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="128">
-        <v>43534</v>
-      </c>
-      <c r="E12" s="129">
-        <v>43542</v>
-      </c>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-    </row>
-    <row r="13" spans="2:10" s="110" customFormat="1">
-      <c r="B13" s="124" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="125" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="128">
-        <v>38049</v>
-      </c>
-      <c r="E13" s="129">
-        <v>38057</v>
-      </c>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-    </row>
-    <row r="14" spans="2:10" s="110" customFormat="1">
-      <c r="B14" s="124" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="125" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="128">
-        <v>39426</v>
-      </c>
-      <c r="E14" s="129">
-        <v>39434</v>
-      </c>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-    </row>
-    <row r="15" spans="2:10" s="110" customFormat="1">
-      <c r="B15" s="124" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="125" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="128">
-        <v>38031</v>
-      </c>
-      <c r="E15" s="129">
-        <v>38039</v>
-      </c>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-    </row>
-    <row r="16" spans="2:10" s="111" customFormat="1">
-      <c r="B16" s="124" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="131" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="128">
-        <v>38384</v>
-      </c>
-      <c r="E16" s="129">
-        <v>38394</v>
-      </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-    </row>
-    <row r="17" spans="1:10" s="110" customFormat="1">
-      <c r="B17" s="124" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="131" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="128">
-        <v>40424</v>
-      </c>
-      <c r="E17" s="129">
-        <v>40434</v>
-      </c>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-    </row>
-    <row r="18" spans="1:10" s="110" customFormat="1">
-      <c r="B18" s="124" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="133" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="128">
-        <v>44536</v>
-      </c>
-      <c r="E18" s="129">
-        <v>44542</v>
-      </c>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="110"/>
-      <c r="B19" s="124" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="133" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="128">
-        <v>44910</v>
-      </c>
-      <c r="E19" s="129">
-        <v>44916</v>
-      </c>
-      <c r="F19" s="130"/>
-      <c r="G19" s="115"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="110"/>
-      <c r="B20" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="131" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="128">
-        <v>43536</v>
-      </c>
-      <c r="E20" s="129">
-        <v>47685</v>
-      </c>
-      <c r="F20" s="130"/>
-      <c r="G20" s="115"/>
-    </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1">
-      <c r="A21" s="110"/>
-      <c r="B21" s="134">
-        <v>5</v>
-      </c>
-      <c r="C21" s="135" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="136">
+      <c r="D21" s="108">
         <v>36401</v>
       </c>
-      <c r="E21" s="137">
+      <c r="E21" s="109">
         <v>36423</v>
       </c>
-      <c r="F21" s="130"/>
-      <c r="G21" s="115"/>
-    </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
-      <c r="A22" s="110"/>
-      <c r="B22" s="269" t="s">
+    </row>
+    <row r="22" spans="1:25" ht="16" thickBot="1">
+      <c r="B22" s="256" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="257"/>
+      <c r="D22" s="257"/>
+      <c r="E22" s="258"/>
+    </row>
+    <row r="23" spans="1:25" ht="16" thickBot="1">
+      <c r="B23" s="110"/>
+      <c r="C23" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="270"/>
-      <c r="D22" s="270"/>
-      <c r="E22" s="271"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="115"/>
-    </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
-      <c r="A23" s="110"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="139" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="140">
+      <c r="D23" s="112">
         <v>36837</v>
       </c>
-      <c r="E23" s="141">
+      <c r="E23" s="113">
         <v>36855</v>
       </c>
-      <c r="F23" s="130"/>
-      <c r="G23" s="115"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" s="142"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" s="142"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="B28" s="142"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="B29" s="142"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="B24" s="203"/>
+      <c r="C24" s="203"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="203"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="B25" s="203"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="203"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="B26" s="203"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="B27" s="203"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="203"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="B28" s="203"/>
+      <c r="C28" s="203"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="203"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="B29" s="203"/>
+      <c r="C29" s="203"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="203"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6059,28 +6167,28 @@
       </c>
     </row>
     <row r="4" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B4" s="279" t="s">
+      <c r="B4" s="266" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="279" t="s">
+      <c r="C4" s="266" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="272" t="s">
+      <c r="D4" s="259" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="272" t="s">
+      <c r="E4" s="259" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="279" t="s">
+      <c r="F4" s="266" t="s">
         <v>60</v>
       </c>
-      <c r="G4" s="274" t="s">
+      <c r="G4" s="261" t="s">
         <v>51</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="279" t="s">
+      <c r="I4" s="266" t="s">
         <v>63</v>
       </c>
       <c r="J4" s="25"/>
@@ -6109,16 +6217,16 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B5" s="272"/>
-      <c r="C5" s="272"/>
-      <c r="D5" s="272"/>
-      <c r="E5" s="272"/>
-      <c r="F5" s="272"/>
-      <c r="G5" s="275"/>
+      <c r="B5" s="259"/>
+      <c r="C5" s="259"/>
+      <c r="D5" s="259"/>
+      <c r="E5" s="259"/>
+      <c r="F5" s="259"/>
+      <c r="G5" s="262"/>
       <c r="H5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="273"/>
+      <c r="I5" s="260"/>
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
       <c r="L5" s="14"/>
@@ -6145,18 +6253,18 @@
       <c r="S5" s="10"/>
     </row>
     <row r="6" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B6" s="272"/>
-      <c r="C6" s="272"/>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272"/>
-      <c r="G6" s="276" t="s">
+      <c r="B6" s="259"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="259"/>
+      <c r="F6" s="259"/>
+      <c r="G6" s="263" t="s">
         <v>52</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="279" t="s">
+      <c r="I6" s="266" t="s">
         <v>67</v>
       </c>
       <c r="J6" s="23"/>
@@ -6185,16 +6293,16 @@
       <c r="S6" s="10"/>
     </row>
     <row r="7" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B7" s="272"/>
-      <c r="C7" s="272"/>
-      <c r="D7" s="273"/>
-      <c r="E7" s="273"/>
-      <c r="F7" s="272"/>
-      <c r="G7" s="275"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="259"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="259"/>
+      <c r="G7" s="262"/>
       <c r="H7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="273"/>
+      <c r="I7" s="260"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="5"/>
@@ -6221,22 +6329,22 @@
       <c r="S7" s="11"/>
     </row>
     <row r="8" spans="2:19" ht="19" customHeight="1">
-      <c r="B8" s="272"/>
-      <c r="C8" s="272"/>
-      <c r="D8" s="272" t="s">
+      <c r="B8" s="259"/>
+      <c r="C8" s="259"/>
+      <c r="D8" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="272" t="s">
+      <c r="E8" s="259" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="272"/>
-      <c r="G8" s="274" t="s">
+      <c r="F8" s="259"/>
+      <c r="G8" s="261" t="s">
         <v>51</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="283" t="s">
+      <c r="I8" s="270" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="26">
@@ -6263,16 +6371,16 @@
       <c r="S8" s="9"/>
     </row>
     <row r="9" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B9" s="272"/>
-      <c r="C9" s="272"/>
-      <c r="D9" s="272"/>
-      <c r="E9" s="272"/>
-      <c r="F9" s="272"/>
-      <c r="G9" s="275"/>
+      <c r="B9" s="259"/>
+      <c r="C9" s="259"/>
+      <c r="D9" s="259"/>
+      <c r="E9" s="259"/>
+      <c r="F9" s="259"/>
+      <c r="G9" s="262"/>
       <c r="H9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="284"/>
+      <c r="I9" s="271"/>
       <c r="J9" s="32">
         <v>0.34300000000000003</v>
       </c>
@@ -6297,18 +6405,18 @@
       <c r="S9" s="10"/>
     </row>
     <row r="10" spans="2:19" ht="19" customHeight="1">
-      <c r="B10" s="272"/>
-      <c r="C10" s="272"/>
-      <c r="D10" s="272"/>
-      <c r="E10" s="272"/>
-      <c r="F10" s="272"/>
-      <c r="G10" s="276" t="s">
+      <c r="B10" s="259"/>
+      <c r="C10" s="259"/>
+      <c r="D10" s="259"/>
+      <c r="E10" s="259"/>
+      <c r="F10" s="259"/>
+      <c r="G10" s="263" t="s">
         <v>52</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="282" t="s">
+      <c r="I10" s="269" t="s">
         <v>67</v>
       </c>
       <c r="J10" s="32">
@@ -6335,16 +6443,16 @@
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B11" s="272"/>
-      <c r="C11" s="273"/>
-      <c r="D11" s="273"/>
-      <c r="E11" s="273"/>
-      <c r="F11" s="272"/>
-      <c r="G11" s="275"/>
+      <c r="B11" s="259"/>
+      <c r="C11" s="260"/>
+      <c r="D11" s="260"/>
+      <c r="E11" s="260"/>
+      <c r="F11" s="259"/>
+      <c r="G11" s="262"/>
       <c r="H11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="273"/>
+      <c r="I11" s="260"/>
       <c r="J11" s="28">
         <v>0.90600000000000003</v>
       </c>
@@ -6369,22 +6477,22 @@
       <c r="S11" s="11"/>
     </row>
     <row r="12" spans="2:19" ht="19" customHeight="1">
-      <c r="B12" s="272"/>
-      <c r="C12" s="276" t="s">
+      <c r="B12" s="259"/>
+      <c r="C12" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="272"/>
-      <c r="E12" s="272" t="s">
+      <c r="D12" s="259"/>
+      <c r="E12" s="259" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="272"/>
-      <c r="G12" s="274" t="s">
+      <c r="F12" s="259"/>
+      <c r="G12" s="261" t="s">
         <v>51</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="280" t="s">
+      <c r="I12" s="267" t="s">
         <v>68</v>
       </c>
       <c r="J12" s="16"/>
@@ -6408,16 +6516,16 @@
       <c r="S12" s="9"/>
     </row>
     <row r="13" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B13" s="272"/>
-      <c r="C13" s="276"/>
-      <c r="D13" s="272"/>
-      <c r="E13" s="272"/>
-      <c r="F13" s="272"/>
-      <c r="G13" s="275"/>
+      <c r="B13" s="259"/>
+      <c r="C13" s="263"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="259"/>
+      <c r="G13" s="262"/>
       <c r="H13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="281"/>
+      <c r="I13" s="268"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="8"/>
@@ -6436,18 +6544,18 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="2:19" ht="19" customHeight="1">
-      <c r="B14" s="272"/>
-      <c r="C14" s="276"/>
-      <c r="D14" s="272"/>
-      <c r="E14" s="272"/>
-      <c r="F14" s="272"/>
-      <c r="G14" s="276" t="s">
+      <c r="B14" s="259"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="259"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="263" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="282" t="s">
+      <c r="I14" s="269" t="s">
         <v>67</v>
       </c>
       <c r="J14" s="12"/>
@@ -6470,16 +6578,16 @@
       <c r="S14" s="10"/>
     </row>
     <row r="15" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B15" s="272"/>
-      <c r="C15" s="275"/>
-      <c r="D15" s="273"/>
-      <c r="E15" s="273"/>
-      <c r="F15" s="272"/>
-      <c r="G15" s="275"/>
+      <c r="B15" s="259"/>
+      <c r="C15" s="262"/>
+      <c r="D15" s="260"/>
+      <c r="E15" s="260"/>
+      <c r="F15" s="259"/>
+      <c r="G15" s="262"/>
       <c r="H15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="273"/>
+      <c r="I15" s="260"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="5"/>
@@ -6498,14 +6606,14 @@
       <c r="S15" s="11"/>
     </row>
     <row r="16" spans="2:19" ht="19" customHeight="1">
-      <c r="B16" s="272"/>
-      <c r="C16" s="276" t="s">
+      <c r="B16" s="259"/>
+      <c r="C16" s="263" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="272"/>
-      <c r="E16" s="272"/>
-      <c r="F16" s="272"/>
-      <c r="G16" s="274" t="s">
+      <c r="D16" s="259"/>
+      <c r="E16" s="259"/>
+      <c r="F16" s="259"/>
+      <c r="G16" s="261" t="s">
         <v>51</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -6537,12 +6645,12 @@
       <c r="S16" s="9"/>
     </row>
     <row r="17" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B17" s="272"/>
-      <c r="C17" s="276"/>
-      <c r="D17" s="272"/>
-      <c r="E17" s="272"/>
-      <c r="F17" s="272"/>
-      <c r="G17" s="275"/>
+      <c r="B17" s="259"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="259"/>
+      <c r="G17" s="262"/>
       <c r="H17" s="8" t="s">
         <v>41</v>
       </c>
@@ -6565,12 +6673,12 @@
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="2:19" ht="19" customHeight="1">
-      <c r="B18" s="272"/>
-      <c r="C18" s="276"/>
-      <c r="D18" s="272"/>
-      <c r="E18" s="272"/>
-      <c r="F18" s="272"/>
-      <c r="G18" s="276" t="s">
+      <c r="B18" s="259"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="259"/>
+      <c r="F18" s="259"/>
+      <c r="G18" s="263" t="s">
         <v>52</v>
       </c>
       <c r="H18" s="8" t="s">
@@ -6597,12 +6705,12 @@
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B19" s="272"/>
-      <c r="C19" s="275"/>
-      <c r="D19" s="273"/>
-      <c r="E19" s="273"/>
-      <c r="F19" s="272"/>
-      <c r="G19" s="275"/>
+      <c r="B19" s="259"/>
+      <c r="C19" s="262"/>
+      <c r="D19" s="260"/>
+      <c r="E19" s="260"/>
+      <c r="F19" s="259"/>
+      <c r="G19" s="262"/>
       <c r="H19" s="5" t="s">
         <v>41</v>
       </c>
@@ -6625,18 +6733,18 @@
       <c r="S19" s="11"/>
     </row>
     <row r="20" spans="2:19" ht="19" customHeight="1">
-      <c r="B20" s="272"/>
-      <c r="C20" s="276" t="s">
+      <c r="B20" s="259"/>
+      <c r="C20" s="263" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="272" t="s">
+      <c r="D20" s="259" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="272" t="s">
+      <c r="E20" s="259" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="272"/>
-      <c r="G20" s="274" t="s">
+      <c r="F20" s="259"/>
+      <c r="G20" s="261" t="s">
         <v>51</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -6666,12 +6774,12 @@
       <c r="S20" s="9"/>
     </row>
     <row r="21" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B21" s="272"/>
-      <c r="C21" s="276"/>
-      <c r="D21" s="272"/>
-      <c r="E21" s="272"/>
-      <c r="F21" s="272"/>
-      <c r="G21" s="275"/>
+      <c r="B21" s="259"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="259"/>
+      <c r="G21" s="262"/>
       <c r="H21" s="8" t="s">
         <v>41</v>
       </c>
@@ -6692,12 +6800,12 @@
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="2:19" ht="19" customHeight="1">
-      <c r="B22" s="272"/>
-      <c r="C22" s="276"/>
-      <c r="D22" s="272"/>
-      <c r="E22" s="272"/>
-      <c r="F22" s="272"/>
-      <c r="G22" s="276" t="s">
+      <c r="B22" s="259"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="259"/>
+      <c r="G22" s="263" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -6722,12 +6830,12 @@
       <c r="S22" s="10"/>
     </row>
     <row r="23" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B23" s="273"/>
-      <c r="C23" s="275"/>
-      <c r="D23" s="273"/>
-      <c r="E23" s="273"/>
-      <c r="F23" s="273"/>
-      <c r="G23" s="275"/>
+      <c r="B23" s="260"/>
+      <c r="C23" s="262"/>
+      <c r="D23" s="260"/>
+      <c r="E23" s="260"/>
+      <c r="F23" s="260"/>
+      <c r="G23" s="262"/>
       <c r="H23" s="5" t="s">
         <v>41</v>
       </c>
@@ -6748,20 +6856,20 @@
       <c r="S23" s="11"/>
     </row>
     <row r="24" spans="2:19" ht="19" customHeight="1">
-      <c r="B24" s="276" t="s">
+      <c r="B24" s="263" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="276" t="s">
+      <c r="C24" s="263" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="272"/>
-      <c r="E24" s="272" t="s">
+      <c r="D24" s="259"/>
+      <c r="E24" s="259" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="277" t="s">
+      <c r="F24" s="264" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="274" t="s">
+      <c r="G24" s="261" t="s">
         <v>51</v>
       </c>
       <c r="H24" s="7" t="s">
@@ -6795,12 +6903,12 @@
       <c r="S24" s="9"/>
     </row>
     <row r="25" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B25" s="276"/>
-      <c r="C25" s="276"/>
-      <c r="D25" s="272"/>
-      <c r="E25" s="272"/>
-      <c r="F25" s="277"/>
-      <c r="G25" s="275"/>
+      <c r="B25" s="263"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="259"/>
+      <c r="F25" s="264"/>
+      <c r="G25" s="262"/>
       <c r="H25" s="8" t="s">
         <v>41</v>
       </c>
@@ -6827,12 +6935,12 @@
       <c r="S25" s="10"/>
     </row>
     <row r="26" spans="2:19" ht="19" customHeight="1">
-      <c r="B26" s="276"/>
-      <c r="C26" s="276"/>
-      <c r="D26" s="272"/>
-      <c r="E26" s="272"/>
-      <c r="F26" s="277"/>
-      <c r="G26" s="276" t="s">
+      <c r="B26" s="263"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="264"/>
+      <c r="G26" s="263" t="s">
         <v>52</v>
       </c>
       <c r="H26" s="8" t="s">
@@ -6861,12 +6969,12 @@
       <c r="S26" s="10"/>
     </row>
     <row r="27" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B27" s="275"/>
-      <c r="C27" s="275"/>
-      <c r="D27" s="273"/>
-      <c r="E27" s="273"/>
-      <c r="F27" s="278"/>
-      <c r="G27" s="275"/>
+      <c r="B27" s="262"/>
+      <c r="C27" s="262"/>
+      <c r="D27" s="260"/>
+      <c r="E27" s="260"/>
+      <c r="F27" s="265"/>
+      <c r="G27" s="262"/>
       <c r="H27" s="5" t="s">
         <v>41</v>
       </c>
@@ -6946,10 +7054,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V32"/>
+  <dimension ref="B2:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6971,393 +7079,392 @@
     <col min="16" max="16384" width="10.83203125" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
     <row r="2" spans="2:15" ht="16" thickBot="1">
-      <c r="B2" s="248" t="s">
+      <c r="B2" s="272" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="250"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="272"/>
+      <c r="J2" s="272"/>
+      <c r="K2" s="272"/>
+      <c r="L2" s="272"/>
+      <c r="M2" s="272"/>
+      <c r="N2" s="272"/>
+      <c r="O2" s="272"/>
     </row>
     <row r="3" spans="2:15" ht="16" thickBot="1">
-      <c r="B3" s="164" t="s">
+      <c r="B3" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="166" t="s">
+      <c r="E3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="165" t="s">
+      <c r="F3" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="164" t="s">
+      <c r="G3" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="167" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="165" t="s">
+      <c r="H3" s="126" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="164" t="s">
+      <c r="J3" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="165" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="166" t="s">
+      <c r="K3" s="126" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="164" t="s">
+      <c r="M3" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="167" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" s="167" t="s">
+      <c r="N3" s="126" t="s">
+        <v>151</v>
+      </c>
+      <c r="O3" s="127" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="19" customHeight="1" thickBot="1">
-      <c r="B4" s="293" t="s">
+      <c r="B4" s="282" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="289"/>
-      <c r="D4" s="296" t="s">
+      <c r="C4" s="277"/>
+      <c r="D4" s="285" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="168" t="s">
+      <c r="E4" s="221" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="285" t="s">
+      <c r="F4" s="273" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="169">
+      <c r="G4" s="222">
         <v>0.36299999999999999</v>
       </c>
-      <c r="H4" s="170">
+      <c r="H4" s="222">
         <v>0.36270000000000002</v>
       </c>
-      <c r="I4" s="171">
+      <c r="I4" s="223">
         <f>(G4-H4)/H4</f>
         <v>8.2712985938783272E-4</v>
       </c>
-      <c r="J4" s="172">
+      <c r="J4" s="224">
         <v>0.32540000000000002</v>
       </c>
-      <c r="K4" s="76">
+      <c r="K4" s="225">
         <v>0.32540000000000002</v>
       </c>
-      <c r="L4" s="173">
+      <c r="L4" s="223">
         <f>(J4-K4)/K4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="172">
+      <c r="M4" s="224">
         <v>0.10539999999999999</v>
       </c>
-      <c r="N4" s="174">
+      <c r="N4" s="225">
         <v>0.10539999999999999</v>
       </c>
-      <c r="O4" s="175">
+      <c r="O4" s="223">
         <f>(M4-N4)/N4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="19" customHeight="1" thickBot="1">
-      <c r="B5" s="252"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="295"/>
-      <c r="E5" s="176" t="s">
+    <row r="5" spans="2:15" ht="16" thickBot="1">
+      <c r="B5" s="239"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="286"/>
-      <c r="G5" s="147">
+      <c r="F5" s="274"/>
+      <c r="G5" s="134">
         <v>0.34300000000000003</v>
       </c>
-      <c r="H5" s="177">
+      <c r="H5" s="134">
         <v>0.34389999999999998</v>
       </c>
-      <c r="I5" s="171">
+      <c r="I5" s="204">
         <f t="shared" ref="I5:I7" si="0">(G5-H5)/H5</f>
         <v>-2.6170398371618388E-3</v>
       </c>
-      <c r="J5" s="178">
+      <c r="J5" s="119">
         <v>0.2833</v>
       </c>
-      <c r="K5" s="179">
+      <c r="K5" s="128">
         <v>0.2412</v>
       </c>
-      <c r="L5" s="173">
+      <c r="L5" s="204">
         <f t="shared" ref="L5:L11" si="1">(J5-K5)/K5</f>
         <v>0.17454394693200662</v>
       </c>
-      <c r="M5" s="178">
-        <v>0.1067</v>
-      </c>
-      <c r="N5" s="177">
+      <c r="M5" s="119">
         <v>1.78E-2</v>
       </c>
-      <c r="O5" s="175">
+      <c r="N5" s="134">
+        <v>1.78E-2</v>
+      </c>
+      <c r="O5" s="204">
         <f t="shared" ref="O5:O11" si="2">(M5-N5)/N5</f>
-        <v>4.9943820224719104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="19" customHeight="1" thickBot="1">
-      <c r="B6" s="252"/>
-      <c r="C6" s="256"/>
-      <c r="D6" s="297" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="180" t="s">
+      <c r="B6" s="239"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="287" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="221" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="287" t="s">
+      <c r="F6" s="275" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="222">
         <v>0.91600000000000004</v>
       </c>
-      <c r="H6" s="90">
+      <c r="H6" s="222">
         <v>0.91559999999999997</v>
       </c>
-      <c r="I6" s="171">
+      <c r="I6" s="223">
         <f t="shared" si="0"/>
         <v>4.3687199650509716E-4</v>
       </c>
-      <c r="J6" s="181">
+      <c r="J6" s="224">
         <v>0.13750000000000001</v>
       </c>
-      <c r="K6" s="73">
+      <c r="K6" s="224">
         <v>0.1376</v>
       </c>
-      <c r="L6" s="173">
+      <c r="L6" s="223">
         <f t="shared" si="1"/>
         <v>-7.267441860464316E-4</v>
       </c>
-      <c r="M6" s="181">
+      <c r="M6" s="224">
         <v>1.77E-2</v>
       </c>
-      <c r="N6" s="91">
+      <c r="N6" s="225">
         <v>1.7850000000000001E-2</v>
       </c>
-      <c r="O6" s="175">
+      <c r="O6" s="223">
         <f t="shared" si="2"/>
         <v>-8.4033613445378616E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="19" customHeight="1" thickBot="1">
-      <c r="B7" s="253"/>
-      <c r="C7" s="257"/>
-      <c r="D7" s="298"/>
-      <c r="E7" s="176" t="s">
+    <row r="7" spans="2:15" ht="16" thickBot="1">
+      <c r="B7" s="240"/>
+      <c r="C7" s="278"/>
+      <c r="D7" s="286"/>
+      <c r="E7" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="288"/>
-      <c r="G7" s="147">
+      <c r="F7" s="276"/>
+      <c r="G7" s="134">
         <v>0.90600000000000003</v>
       </c>
-      <c r="H7" s="177">
+      <c r="H7" s="134">
         <v>0.9</v>
       </c>
-      <c r="I7" s="171">
+      <c r="I7" s="204">
         <f t="shared" si="0"/>
         <v>6.6666666666666723E-3</v>
       </c>
-      <c r="J7" s="182">
+      <c r="J7" s="120">
         <v>0.09</v>
       </c>
-      <c r="K7" s="148">
+      <c r="K7" s="119">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="L7" s="173">
+      <c r="L7" s="204">
         <f t="shared" si="1"/>
         <v>-2.3861171366594439E-2</v>
       </c>
-      <c r="M7" s="178">
+      <c r="M7" s="119">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="N7" s="183">
+      <c r="N7" s="128">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="O7" s="175">
+      <c r="O7" s="204">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="16" customHeight="1" thickBot="1">
-      <c r="B8" s="300" t="s">
+      <c r="B8" s="289" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="303" t="s">
+      <c r="C8" s="292" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="294" t="s">
+      <c r="D8" s="283" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="168" t="s">
+      <c r="E8" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="285" t="s">
+      <c r="F8" s="295" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="306" t="s">
+      <c r="G8" s="297" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="307"/>
-      <c r="I8" s="308"/>
-      <c r="J8" s="75">
+      <c r="H8" s="298"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="214">
         <v>0.32579999999999998</v>
       </c>
-      <c r="K8" s="76">
+      <c r="K8" s="208">
         <v>0.32540000000000002</v>
       </c>
-      <c r="L8" s="173">
+      <c r="L8" s="206">
         <f t="shared" si="1"/>
         <v>1.2292562999384018E-3</v>
       </c>
-      <c r="M8" s="172">
+      <c r="M8" s="207">
         <v>0.10539999999999999</v>
       </c>
-      <c r="N8" s="174">
+      <c r="N8" s="208">
         <v>0.10539999999999999</v>
       </c>
-      <c r="O8" s="175">
+      <c r="O8" s="206">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="16" thickBot="1">
-      <c r="B9" s="301"/>
-      <c r="C9" s="304"/>
-      <c r="D9" s="295"/>
-      <c r="E9" s="176" t="s">
+      <c r="B9" s="290"/>
+      <c r="C9" s="293"/>
+      <c r="D9" s="284"/>
+      <c r="E9" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="286"/>
-      <c r="G9" s="309"/>
-      <c r="H9" s="310"/>
-      <c r="I9" s="311"/>
-      <c r="J9" s="184">
+      <c r="F9" s="296"/>
+      <c r="G9" s="300"/>
+      <c r="H9" s="301"/>
+      <c r="I9" s="302"/>
+      <c r="J9" s="215">
         <v>0.24079999999999999</v>
       </c>
-      <c r="K9" s="179">
+      <c r="K9" s="213">
         <v>0.2412</v>
       </c>
-      <c r="L9" s="173">
+      <c r="L9" s="211">
         <f t="shared" si="1"/>
         <v>-1.6583747927031984E-3</v>
       </c>
-      <c r="M9" s="178">
+      <c r="M9" s="212">
         <v>1.77E-2</v>
       </c>
-      <c r="N9" s="177">
+      <c r="N9" s="210">
         <v>1.78E-2</v>
       </c>
-      <c r="O9" s="175">
+      <c r="O9" s="211">
         <f t="shared" si="2"/>
         <v>-5.6179775280898537E-3</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="16" thickBot="1">
-      <c r="B10" s="301"/>
-      <c r="C10" s="304"/>
-      <c r="D10" s="299" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="180" t="s">
+      <c r="B10" s="290"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="288" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="287" t="s">
+      <c r="F10" s="306" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="309"/>
-      <c r="H10" s="310"/>
-      <c r="I10" s="311"/>
-      <c r="J10" s="79">
+      <c r="G10" s="300"/>
+      <c r="H10" s="301"/>
+      <c r="I10" s="302"/>
+      <c r="J10" s="217">
         <v>0.13750000000000001</v>
       </c>
-      <c r="K10" s="73">
+      <c r="K10" s="217">
         <v>0.1376</v>
       </c>
-      <c r="L10" s="173">
+      <c r="L10" s="218">
         <f t="shared" si="1"/>
         <v>-7.267441860464316E-4</v>
       </c>
-      <c r="M10" s="181">
+      <c r="M10" s="217">
         <v>1.7749999999999998E-2</v>
       </c>
-      <c r="N10" s="91">
+      <c r="N10" s="219">
         <v>1.7850000000000001E-2</v>
       </c>
-      <c r="O10" s="175">
+      <c r="O10" s="218">
         <f t="shared" si="2"/>
         <v>-5.6022408963587031E-3</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="16" thickBot="1">
-      <c r="B11" s="302"/>
-      <c r="C11" s="305"/>
-      <c r="D11" s="295"/>
-      <c r="E11" s="176" t="s">
+      <c r="B11" s="291"/>
+      <c r="C11" s="294"/>
+      <c r="D11" s="284"/>
+      <c r="E11" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="288"/>
-      <c r="G11" s="312"/>
-      <c r="H11" s="313"/>
-      <c r="I11" s="314"/>
-      <c r="J11" s="185">
+      <c r="F11" s="307"/>
+      <c r="G11" s="303"/>
+      <c r="H11" s="304"/>
+      <c r="I11" s="305"/>
+      <c r="J11" s="220">
         <v>0.09</v>
       </c>
-      <c r="K11" s="148">
+      <c r="K11" s="212">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="L11" s="173">
+      <c r="L11" s="211">
         <f t="shared" si="1"/>
         <v>-2.3861171366594439E-2</v>
       </c>
-      <c r="M11" s="178">
+      <c r="M11" s="212">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="N11" s="183">
+      <c r="N11" s="213">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="O11" s="175">
+      <c r="O11" s="211">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="9:22" ht="16" thickBot="1"/>
     <row r="32" spans="9:22">
-      <c r="I32" s="290"/>
-      <c r="J32" s="291"/>
-      <c r="K32" s="291"/>
-      <c r="L32" s="291"/>
-      <c r="M32" s="291"/>
-      <c r="N32" s="291"/>
-      <c r="O32" s="291"/>
-      <c r="P32" s="291"/>
-      <c r="Q32" s="291"/>
-      <c r="R32" s="291"/>
-      <c r="S32" s="291"/>
-      <c r="T32" s="291"/>
-      <c r="U32" s="291"/>
-      <c r="V32" s="292"/>
+      <c r="I32" s="279"/>
+      <c r="J32" s="280"/>
+      <c r="K32" s="280"/>
+      <c r="L32" s="280"/>
+      <c r="M32" s="280"/>
+      <c r="N32" s="280"/>
+      <c r="O32" s="280"/>
+      <c r="P32" s="280"/>
+      <c r="Q32" s="280"/>
+      <c r="R32" s="280"/>
+      <c r="S32" s="280"/>
+      <c r="T32" s="280"/>
+      <c r="U32" s="280"/>
+      <c r="V32" s="281"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -7389,420 +7496,329 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S11"/>
+  <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="16" thickBot="1"/>
-    <row r="2" spans="2:19" ht="16" thickBot="1">
-      <c r="B2" s="320" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="321"/>
-      <c r="H2" s="321"/>
-      <c r="I2" s="321"/>
-      <c r="J2" s="321"/>
-      <c r="K2" s="321"/>
-      <c r="L2" s="321"/>
-      <c r="M2" s="322"/>
-    </row>
-    <row r="3" spans="2:19" ht="16" thickBot="1">
-      <c r="B3" s="94" t="s">
+    <row r="2" spans="2:12" ht="16" thickBot="1">
+      <c r="B2" s="313" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
+      <c r="L2" s="313"/>
+    </row>
+    <row r="3" spans="2:12" ht="16" thickBot="1">
+      <c r="B3" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="96" t="s">
+      <c r="C3" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="D3" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="109" t="s">
+      <c r="E3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="96" t="s">
+      <c r="F3" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="G3" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="96" t="s">
+      <c r="H3" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="97" t="s">
+      <c r="I3" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="96" t="s">
+      <c r="J3" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="96" t="s">
+      <c r="K3" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="97" t="s">
+      <c r="L3" s="127" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B4" s="336" t="s">
+    <row r="4" spans="2:12" ht="19" customHeight="1" thickBot="1">
+      <c r="B4" s="322" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="330" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="318" t="s">
+      <c r="C4" s="308"/>
+      <c r="D4" s="311" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="152" t="s">
+      <c r="E4" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="323" t="s">
+      <c r="F4" s="314" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="186">
+      <c r="G4" s="129">
         <v>0.372</v>
       </c>
-      <c r="I4" s="187">
+      <c r="H4" s="130">
         <v>0.32540000000000002</v>
       </c>
-      <c r="J4" s="188">
-        <f>(I4-H4)/I4</f>
-        <v>-0.14320835894283948</v>
-      </c>
-      <c r="K4" s="98">
-        <v>0.27201999999999998</v>
-      </c>
-      <c r="L4" s="99">
+      <c r="I4" s="233">
+        <f>(H4-G4)/G4</f>
+        <v>-0.125268817204301</v>
+      </c>
+      <c r="J4" s="226">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="K4" s="79">
         <v>0.10539999999999999</v>
       </c>
-      <c r="M4" s="189">
-        <f>(K4-L4)/L4</f>
-        <v>1.5808349146110057</v>
-      </c>
-      <c r="N4" s="227" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="227" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" s="227" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="227" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="227" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" s="114" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B5" s="334"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="316"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="150" t="s">
+      <c r="L4" s="233">
+        <f>(J4-K4)/K4</f>
+        <v>-0.97058823529411764</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="19" customHeight="1" thickBot="1">
+      <c r="B5" s="320"/>
+      <c r="C5" s="309"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="324"/>
-      <c r="H5" s="211">
-        <v>0.372</v>
-      </c>
-      <c r="I5" s="156">
+      <c r="F5" s="315"/>
+      <c r="G5" s="152">
+        <v>0.24160000000000001</v>
+      </c>
+      <c r="H5" s="123">
         <v>0.2412</v>
       </c>
-      <c r="J5" s="188">
-        <f t="shared" ref="J5:J11" si="0">(I5-H5)/I5</f>
-        <v>-0.54228855721393032</v>
-      </c>
-      <c r="K5" s="103">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="L5" s="104">
+      <c r="I5" s="232">
+        <f t="shared" ref="I5:I11" si="0">(H5-G5)/G5</f>
+        <v>-1.655629139072895E-3</v>
+      </c>
+      <c r="J5" s="227">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K5" s="84">
         <v>1.77E-2</v>
       </c>
-      <c r="M5" s="189">
-        <f t="shared" ref="M5:M11" si="1">(K5-L5)/L5</f>
-        <v>0.80790960451977401</v>
-      </c>
-      <c r="N5" s="228">
-        <f>SUM(H4:H7)</f>
-        <v>1.0351000000000001</v>
-      </c>
-      <c r="O5" s="227">
-        <f>SUM(I4:I7)</f>
-        <v>0.7964</v>
-      </c>
-      <c r="P5" s="230">
-        <f>(N5-O5)/O5</f>
-        <v>0.2997237569060775</v>
-      </c>
-      <c r="Q5" s="227">
-        <f>SUM(K4:K11)</f>
-        <v>0.37222000000000005</v>
-      </c>
-      <c r="R5" s="232">
-        <f>SUM(L4:L11)</f>
-        <v>0.2954</v>
-      </c>
-      <c r="S5" s="230">
-        <f>(Q5-R5)/R5</f>
-        <v>0.26005416384563323</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B6" s="334"/>
-      <c r="C6" s="331"/>
-      <c r="D6" s="316"/>
-      <c r="E6" s="325" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="153" t="s">
+      <c r="L5" s="232">
+        <f t="shared" ref="L5:L11" si="1">(J5-K5)/K5</f>
+        <v>-0.152542372881356</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="19" customHeight="1" thickBot="1">
+      <c r="B6" s="320"/>
+      <c r="C6" s="309"/>
+      <c r="D6" s="311" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="327" t="s">
+      <c r="F6" s="316" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="100">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="I6" s="100">
+      <c r="G6" s="226">
+        <v>0.29970000000000002</v>
+      </c>
+      <c r="H6" s="78">
         <v>0.1376</v>
       </c>
-      <c r="J6" s="188">
+      <c r="I6" s="233">
         <f t="shared" si="0"/>
-        <v>-0.41715116279069775</v>
-      </c>
-      <c r="K6" s="100">
+        <v>-0.54087420754087423</v>
+      </c>
+      <c r="J6" s="78">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="K6" s="79">
+        <v>1.77E-2</v>
+      </c>
+      <c r="L6" s="233">
+        <f t="shared" si="1"/>
+        <v>-0.16384180790960451</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="19" customHeight="1" thickBot="1">
+      <c r="B7" s="323"/>
+      <c r="C7" s="309"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="317"/>
+      <c r="G7" s="152">
+        <v>9.6100000000000005E-2</v>
+      </c>
+      <c r="H7" s="122">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="I7" s="232">
+        <f t="shared" si="0"/>
+        <v>-4.0582726326742979E-2</v>
+      </c>
+      <c r="J7" s="83">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="K7" s="85">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="L7" s="232">
+        <f t="shared" si="1"/>
+        <v>1.1449275362318843</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="19" customHeight="1" thickBot="1">
+      <c r="B8" s="319" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="309"/>
+      <c r="D8" s="311" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="229" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="86"/>
+      <c r="G8" s="116">
+        <v>0.3715</v>
+      </c>
+      <c r="H8" s="79">
+        <v>0.32540000000000002</v>
+      </c>
+      <c r="I8" s="233">
+        <f t="shared" si="0"/>
+        <v>-0.12409152086137275</v>
+      </c>
+      <c r="J8" s="78">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="K8" s="79">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="L8" s="233">
+        <f t="shared" si="1"/>
+        <v>-0.99146110056925996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="19" customHeight="1" thickBot="1">
+      <c r="B9" s="320"/>
+      <c r="C9" s="309"/>
+      <c r="D9" s="312"/>
+      <c r="E9" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="87"/>
+      <c r="G9" s="117">
+        <v>0.24149999999999999</v>
+      </c>
+      <c r="H9" s="85">
+        <v>0.2412</v>
+      </c>
+      <c r="I9" s="232">
+        <f t="shared" si="0"/>
+        <v>-1.2422360248446986E-3</v>
+      </c>
+      <c r="J9" s="227">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="K9" s="84">
+        <v>1.77E-2</v>
+      </c>
+      <c r="L9" s="232">
+        <f t="shared" si="1"/>
+        <v>-0.96610169491525422</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="19" customHeight="1" thickBot="1">
+      <c r="B10" s="320"/>
+      <c r="C10" s="309"/>
+      <c r="D10" s="318" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="230" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="234"/>
+      <c r="G10" s="82">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="H10" s="80">
+        <v>0.1376</v>
+      </c>
+      <c r="I10" s="231">
+        <f t="shared" si="0"/>
+        <v>-0.53355932203389833</v>
+      </c>
+      <c r="J10" s="80">
         <v>2.8E-3</v>
       </c>
-      <c r="L6" s="101">
+      <c r="K10" s="81">
         <v>1.77E-2</v>
       </c>
-      <c r="M6" s="189">
+      <c r="L10" s="231">
         <f t="shared" si="1"/>
         <v>-0.84180790960451979</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B7" s="337"/>
-      <c r="C7" s="331"/>
-      <c r="D7" s="316"/>
-      <c r="E7" s="326"/>
-      <c r="F7" s="151" t="s">
+    <row r="11" spans="2:12" ht="19" customHeight="1" thickBot="1">
+      <c r="B11" s="321"/>
+      <c r="C11" s="310"/>
+      <c r="D11" s="312"/>
+      <c r="E11" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="328"/>
-      <c r="H7" s="157">
-        <v>9.6100000000000005E-2</v>
-      </c>
-      <c r="I7" s="158">
+      <c r="F11" s="87"/>
+      <c r="G11" s="152">
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="H11" s="122">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="J7" s="188">
+      <c r="I11" s="232">
         <f t="shared" si="0"/>
-        <v>-4.2299349240780916E-2</v>
-      </c>
-      <c r="K7" s="100">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="L7" s="101">
+        <v>-3.1512605042016834E-2</v>
+      </c>
+      <c r="J11" s="83">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K11" s="85">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="M7" s="189">
-        <f t="shared" si="1"/>
-        <v>-0.81159420289855078</v>
-      </c>
-      <c r="N7" s="226">
-        <f>(N5-O5)</f>
-        <v>0.23870000000000013</v>
-      </c>
-      <c r="Q7" s="231">
-        <f>Q5-R5</f>
-        <v>7.6820000000000055E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B8" s="333" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="331"/>
-      <c r="D8" s="316"/>
-      <c r="E8" s="329" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="154" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="145">
-        <v>0.371</v>
-      </c>
-      <c r="I8" s="99">
-        <v>0.32540000000000002</v>
-      </c>
-      <c r="J8" s="188">
-        <f t="shared" si="0"/>
-        <v>-0.14013521819299316</v>
-      </c>
-      <c r="K8" s="98">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="L8" s="99">
-        <v>0.10539999999999999</v>
-      </c>
-      <c r="M8" s="189">
-        <f t="shared" si="1"/>
-        <v>-0.99146110056925996</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B9" s="334"/>
-      <c r="C9" s="331"/>
-      <c r="D9" s="316"/>
-      <c r="E9" s="326"/>
-      <c r="F9" s="151" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="146">
-        <v>0.26550000000000001</v>
-      </c>
-      <c r="I9" s="105">
-        <v>0.2412</v>
-      </c>
-      <c r="J9" s="188">
-        <f t="shared" si="0"/>
-        <v>-0.10074626865671649</v>
-      </c>
-      <c r="K9" s="103">
-        <v>0.06</v>
-      </c>
-      <c r="L9" s="104">
-        <v>1.77E-2</v>
-      </c>
-      <c r="M9" s="189">
-        <f t="shared" si="1"/>
-        <v>2.3898305084745761</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B10" s="334"/>
-      <c r="C10" s="331"/>
-      <c r="D10" s="316"/>
-      <c r="E10" s="329" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="154" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="102">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="I10" s="100">
-        <v>0.1376</v>
-      </c>
-      <c r="J10" s="188">
-        <f t="shared" si="0"/>
-        <v>-1.1438953488372092</v>
-      </c>
-      <c r="K10" s="100">
-        <v>2.8E-3</v>
-      </c>
-      <c r="L10" s="101">
-        <v>1.77E-2</v>
-      </c>
-      <c r="M10" s="189">
-        <f t="shared" si="1"/>
-        <v>-0.84180790960451979</v>
-      </c>
-      <c r="N10" s="226">
-        <f>SUM(H8:H11)</f>
-        <v>1.0266999999999999</v>
-      </c>
-      <c r="O10">
-        <f>SUM(I8:I11)</f>
-        <v>0.7964</v>
-      </c>
-      <c r="P10">
-        <f>(N10-O10)/O10</f>
-        <v>0.28917629331993966</v>
-      </c>
-      <c r="Q10">
-        <f>SUM(K8:K11)</f>
-        <v>6.409999999999999E-2</v>
-      </c>
-      <c r="R10">
-        <f>(L8:L11)</f>
-        <v>1.77E-2</v>
-      </c>
-      <c r="S10">
-        <f>(Q10-R10)/R10</f>
-        <v>2.6214689265536717</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="19" customHeight="1" thickBot="1">
-      <c r="B11" s="335"/>
-      <c r="C11" s="332"/>
-      <c r="D11" s="317"/>
-      <c r="E11" s="319"/>
-      <c r="F11" s="150" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="211">
-        <v>9.5200000000000007E-2</v>
-      </c>
-      <c r="I11" s="155">
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="J11" s="188">
-        <f t="shared" si="0"/>
-        <v>-3.253796095444688E-2</v>
-      </c>
-      <c r="K11" s="103">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="L11" s="105">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="M11" s="189">
+      <c r="L11" s="232">
         <f t="shared" si="1"/>
         <v>-0.94202898550724634</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
+  <mergeCells count="10">
     <mergeCell ref="C4:C11"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B4:B7"/>
   </mergeCells>
@@ -7818,310 +7834,365 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W10"/>
+  <dimension ref="B1:V10"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="23.5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="29" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="29" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="16" thickBot="1"/>
-    <row r="2" spans="2:23" ht="16" thickBot="1">
-      <c r="B2" s="248" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="250"/>
-    </row>
-    <row r="3" spans="2:23" ht="16" thickBot="1">
-      <c r="B3" s="84" t="s">
+    <row r="1" spans="2:22" ht="16" thickBot="1"/>
+    <row r="2" spans="2:22" ht="16" thickBot="1">
+      <c r="B2" s="330" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="331"/>
+      <c r="D2" s="331"/>
+      <c r="E2" s="331"/>
+      <c r="F2" s="331"/>
+      <c r="G2" s="331"/>
+      <c r="H2" s="331"/>
+      <c r="I2" s="331"/>
+      <c r="J2" s="331"/>
+      <c r="K2" s="331"/>
+      <c r="L2" s="331"/>
+      <c r="M2" s="331"/>
+      <c r="N2" s="331"/>
+      <c r="O2" s="332"/>
+      <c r="Q2" s="330" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="331"/>
+      <c r="S2" s="331"/>
+      <c r="T2" s="331"/>
+      <c r="U2" s="331"/>
+      <c r="V2" s="332"/>
+    </row>
+    <row r="3" spans="2:22" ht="16" thickBot="1">
+      <c r="B3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="D3" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="E3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="F3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="87" t="s">
+      <c r="G3" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="86" t="s">
+      <c r="J3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="87" t="s">
+      <c r="K3" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="127" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="86" t="s">
+      <c r="M3" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="87" t="s">
+      <c r="N3" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" s="77" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="2:23" ht="19" customHeight="1" thickBot="1">
-      <c r="B4" s="251" t="s">
+      <c r="Q3" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="U3" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="V3" s="77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="19" customHeight="1" thickBot="1">
+      <c r="B4" s="238" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="338" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="279" t="s">
+      <c r="C4" s="266" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="341" t="s">
+      <c r="D4" s="334" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="159" t="s">
+      <c r="E4" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="67">
-        <v>0.33389999999999997</v>
-      </c>
-      <c r="I4" s="68">
+      <c r="F4" s="335"/>
+      <c r="G4" s="336">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="H4" s="337">
         <v>0.36270000000000002</v>
       </c>
-      <c r="J4" s="160">
-        <f>(H4-I4)*I4%</f>
-        <v>-1.0445760000000017E-4</v>
-      </c>
-      <c r="K4" s="69">
-        <v>0.64949999999999997</v>
-      </c>
-      <c r="L4" s="70">
+      <c r="I4" s="206">
+        <f>(G4-H4)*H4</f>
+        <v>-1.1134890000000003E-2</v>
+      </c>
+      <c r="J4" s="214">
+        <v>0.65080000000000005</v>
+      </c>
+      <c r="K4" s="208">
         <v>0.32540000000000002</v>
       </c>
-      <c r="M4" s="161">
-        <f>(K4-L4)*L4%</f>
-        <v>1.0546213999999999E-3</v>
-      </c>
-      <c r="N4" s="69">
-        <v>0.42220000000000002</v>
-      </c>
-      <c r="O4" s="89">
+      <c r="L4" s="206">
+        <f>(J4-K4)/K4</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="207">
+        <v>0.4239</v>
+      </c>
+      <c r="N4" s="208">
         <v>0.10539999999999999</v>
       </c>
-      <c r="P4" s="161">
-        <f>(N4-O4)*O4%</f>
-        <v>3.3390720000000005E-4</v>
-      </c>
-      <c r="R4" s="231">
-        <f>SUM(H4:H7)</f>
-        <v>2.3550999999999997</v>
-      </c>
-      <c r="S4" s="231">
-        <f>SUM(I4:I7)</f>
-        <v>2.5223999999999998</v>
-      </c>
-      <c r="T4">
-        <f>(R4-S4)/S4</f>
-        <v>-6.6325721535045998E-2</v>
-      </c>
-      <c r="U4">
-        <f>SUM(K4:K7)</f>
-        <v>36.7605</v>
-      </c>
-      <c r="V4" t="s">
-        <v>97</v>
-      </c>
-      <c r="W4" t="e">
-        <f>(U4-V4)/V4</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" ht="19" customHeight="1" thickBot="1">
-      <c r="B5" s="252"/>
-      <c r="C5" s="339"/>
-      <c r="D5" s="272"/>
-      <c r="E5" s="342"/>
-      <c r="F5" s="162" t="s">
+      <c r="O4" s="206">
+        <f>(M4-N4)/N4</f>
+        <v>3.021821631878558</v>
+      </c>
+      <c r="Q4" s="238" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="334" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="205" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="336">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="U4" s="337">
+        <v>0.36270000000000002</v>
+      </c>
+      <c r="V4" s="206">
+        <f>(T4-U4)*U4</f>
+        <v>-1.1134890000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="19" customHeight="1" thickBot="1">
+      <c r="B5" s="239"/>
+      <c r="C5" s="259"/>
+      <c r="D5" s="325"/>
+      <c r="E5" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="71">
-        <v>0.21590000000000001</v>
-      </c>
-      <c r="I5" s="72">
+      <c r="F5" s="11"/>
+      <c r="G5" s="71">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="H5" s="68">
         <v>0.34389999999999998</v>
       </c>
-      <c r="J5" s="160">
-        <f t="shared" ref="J5:J7" si="0">(H5-I5)*I5%</f>
-        <v>-4.4019199999999989E-4</v>
-      </c>
-      <c r="K5" s="73">
-        <v>26.566700000000001</v>
-      </c>
-      <c r="L5" s="74">
+      <c r="I5" s="211">
+        <f>(G5-H5)*H5</f>
+        <v>4.0580200000000111E-3</v>
+      </c>
+      <c r="J5" s="341">
+        <v>0.2409</v>
+      </c>
+      <c r="K5" s="333">
         <v>0.2412</v>
       </c>
-      <c r="M5" s="161">
-        <f t="shared" ref="M5:M7" si="1">(K5-L5)*L5%</f>
-        <v>6.3497106000000011E-2</v>
-      </c>
-      <c r="N5" s="73">
-        <v>706.43640000000005</v>
-      </c>
-      <c r="O5" s="90">
+      <c r="L5" s="211">
+        <f t="shared" ref="L5:L7" si="0">(J5-K5)/K5</f>
+        <v>-1.2437810945273413E-3</v>
+      </c>
+      <c r="M5" s="67">
+        <v>5.8109999999999999</v>
+      </c>
+      <c r="N5" s="68">
         <v>1.77E-2</v>
       </c>
-      <c r="P5" s="161">
-        <f t="shared" ref="P5:P7" si="2">(N5-O5)*O5%</f>
-        <v>0.1250361099</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" ht="19" customHeight="1" thickBot="1">
-      <c r="B6" s="252"/>
-      <c r="C6" s="339"/>
-      <c r="D6" s="272"/>
-      <c r="E6" s="299" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="163" t="s">
+      <c r="O5" s="342">
+        <f>(M5-N5)/N5</f>
+        <v>327.30508474576271</v>
+      </c>
+      <c r="Q5" s="239"/>
+      <c r="R5" s="325"/>
+      <c r="S5" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="71">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="U5" s="68">
+        <v>0.34389999999999998</v>
+      </c>
+      <c r="V5" s="211">
+        <f>(T5-U5)*U5</f>
+        <v>4.0580200000000111E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="19" customHeight="1" thickBot="1">
+      <c r="B6" s="239"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="324" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="71">
-        <v>0.89349999999999996</v>
-      </c>
-      <c r="I6" s="72">
+      <c r="F6" s="338"/>
+      <c r="G6" s="339">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="H6" s="340">
         <v>0.91559999999999997</v>
       </c>
-      <c r="J6" s="160">
+      <c r="I6" s="218">
+        <f>(G6-H6)*H6</f>
+        <v>-3.0397920000000005E-2</v>
+      </c>
+      <c r="J6" s="217">
+        <v>0.27229999999999999</v>
+      </c>
+      <c r="K6" s="217">
+        <v>0.1376</v>
+      </c>
+      <c r="L6" s="218">
         <f t="shared" si="0"/>
-        <v>-2.0234760000000006E-4</v>
-      </c>
-      <c r="K6" s="73">
-        <v>0.27229999999999999</v>
-      </c>
-      <c r="L6" s="73">
-        <v>0.1376</v>
-      </c>
-      <c r="M6" s="161">
-        <f t="shared" si="1"/>
-        <v>1.853472E-4</v>
-      </c>
-      <c r="N6" s="73">
-        <v>7.4200000000000002E-2</v>
-      </c>
-      <c r="O6" s="91">
+        <v>0.97892441860465107</v>
+      </c>
+      <c r="M6" s="217">
+        <v>7.46E-2</v>
+      </c>
+      <c r="N6" s="219">
         <v>1.7749999999999998E-2</v>
       </c>
-      <c r="P6" s="161">
-        <f t="shared" si="2"/>
-        <v>1.0019874999999999E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" ht="19" customHeight="1" thickBot="1">
-      <c r="B7" s="253"/>
-      <c r="C7" s="340"/>
-      <c r="D7" s="273"/>
-      <c r="E7" s="295"/>
-      <c r="F7" s="162" t="s">
+      <c r="O6" s="218">
+        <f>(M6-N6)/N6</f>
+        <v>3.2028169014084509</v>
+      </c>
+      <c r="Q6" s="239"/>
+      <c r="R6" s="324" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6" s="216" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="339">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="U6" s="340">
+        <v>0.91559999999999997</v>
+      </c>
+      <c r="V6" s="218">
+        <f>(T6-U6)*U6</f>
+        <v>-3.0397920000000005E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="19" customHeight="1" thickBot="1">
+      <c r="B7" s="240"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="325"/>
+      <c r="E7" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="82">
-        <v>0.91180000000000005</v>
-      </c>
-      <c r="I7" s="78">
+      <c r="F7" s="11"/>
+      <c r="G7" s="71">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="H7" s="68">
         <v>0.9002</v>
       </c>
-      <c r="J7" s="160">
+      <c r="I7" s="211">
+        <f>(G7-H7)*H7</f>
+        <v>1.0082239999999989E-2</v>
+      </c>
+      <c r="J7" s="72">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="K7" s="67">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="L7" s="211">
         <f t="shared" si="0"/>
-        <v>1.0442320000000049E-4</v>
-      </c>
-      <c r="K7" s="83">
-        <v>9.2720000000000002</v>
-      </c>
-      <c r="L7" s="77">
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="M7" s="161">
-        <f t="shared" si="1"/>
-        <v>8.4637756000000008E-3</v>
-      </c>
-      <c r="N7" s="144">
-        <v>86.020099999999999</v>
-      </c>
-      <c r="O7" s="92">
+        <v>-3.1453362255965289E-2</v>
+      </c>
+      <c r="M7" s="115">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="N7" s="333">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="P7" s="161">
-        <f t="shared" si="2"/>
-        <v>5.9349107999999992E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23">
-      <c r="H8" s="231">
-        <f>SUM(H4:H7)</f>
-        <v>2.3550999999999997</v>
-      </c>
-      <c r="I8" s="231">
-        <f>SUM(I4:I7)</f>
-        <v>2.5223999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23">
-      <c r="H10" s="229">
-        <f>(H8-I8)/I8</f>
-        <v>-6.6325721535045998E-2</v>
-      </c>
+      <c r="O7" s="342">
+        <f>(M7-N7)/N7</f>
+        <v>114.81159420289856</v>
+      </c>
+      <c r="Q7" s="240"/>
+      <c r="R7" s="325"/>
+      <c r="S7" s="124" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="71">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="U7" s="68">
+        <v>0.9002</v>
+      </c>
+      <c r="V7" s="211">
+        <f>(T7-U7)*U7</f>
+        <v>1.0082239999999989E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="G10" s="167"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B2:P2"/>
+  <mergeCells count="9">
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="Q4:Q7"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="B2:O2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8163,305 +8234,305 @@
   <sheetData>
     <row r="1" spans="2:21" ht="16" thickBot="1"/>
     <row r="2" spans="2:21" ht="16" thickBot="1">
-      <c r="B2" s="248" t="s">
+      <c r="B2" s="235" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="236"/>
+      <c r="Q2" s="236"/>
+      <c r="R2" s="237"/>
+    </row>
+    <row r="3" spans="2:21" ht="16" thickBot="1">
+      <c r="B3" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="250"/>
-    </row>
-    <row r="3" spans="2:21" ht="16" thickBot="1">
-      <c r="B3" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="143" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="86" t="s">
+      <c r="M3" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="87" t="s">
+      <c r="N3" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="86" t="s">
+      <c r="O3" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="86" t="s">
+      <c r="P3" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="86" t="s">
+      <c r="Q3" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="R3" s="87" t="s">
+      <c r="R3" s="75" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="35" customHeight="1" thickBot="1">
-      <c r="B4" s="251" t="s">
+      <c r="B4" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="254"/>
-      <c r="D4" s="258" t="s">
+      <c r="C4" s="241"/>
+      <c r="D4" s="245" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="190" t="s">
+      <c r="E4" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="260" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="194">
+      <c r="F4" s="247" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="135">
         <v>0.438</v>
       </c>
-      <c r="H4" s="242">
+      <c r="H4" s="178">
         <v>0.40500000000000003</v>
       </c>
-      <c r="I4" s="214">
+      <c r="I4" s="155">
         <v>0.36270000000000002</v>
       </c>
-      <c r="J4" s="224">
+      <c r="J4" s="165">
         <f>(G4-I4)/I4</f>
         <v>0.20760959470636883</v>
       </c>
-      <c r="K4" s="243">
+      <c r="K4" s="179">
         <v>0.31019999999999998</v>
       </c>
-      <c r="L4" s="215">
+      <c r="L4" s="156">
         <v>0.3165</v>
       </c>
-      <c r="M4" s="198">
+      <c r="M4" s="139">
         <v>0.32540000000000002</v>
       </c>
-      <c r="N4" s="201">
+      <c r="N4" s="142">
         <f>(M4-K4)/M4</f>
         <v>4.6711739397664556E-2</v>
       </c>
-      <c r="O4" s="244">
+      <c r="O4" s="180">
         <v>9.6699999999999994E-2</v>
       </c>
-      <c r="P4" s="217">
+      <c r="P4" s="158">
         <v>0.10009999999999999</v>
       </c>
-      <c r="Q4" s="198">
+      <c r="Q4" s="139">
         <v>0.10539999999999999</v>
       </c>
-      <c r="R4" s="202">
+      <c r="R4" s="143">
         <f>(Q4-O4)/Q4</f>
         <v>8.2542694497153693E-2</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="16" thickBot="1">
-      <c r="B5" s="252"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="259"/>
-      <c r="E5" s="191" t="s">
+      <c r="B5" s="239"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="261"/>
-      <c r="G5" s="206">
+      <c r="F5" s="248"/>
+      <c r="G5" s="147">
         <v>0.42299999999999999</v>
       </c>
-      <c r="H5" s="206">
+      <c r="H5" s="147">
         <v>0.315</v>
       </c>
-      <c r="I5" s="213">
+      <c r="I5" s="154">
         <v>0.34389999999999998</v>
       </c>
-      <c r="J5" s="225">
+      <c r="J5" s="166">
         <f t="shared" ref="J5:J7" si="0">(G5-I5)/I5</f>
         <v>0.23000872346612389</v>
       </c>
-      <c r="K5" s="210">
+      <c r="K5" s="151">
         <v>0.22700000000000001</v>
       </c>
-      <c r="L5" s="207">
+      <c r="L5" s="148">
         <v>0.24879999999999999</v>
       </c>
-      <c r="M5" s="217">
+      <c r="M5" s="158">
         <v>0.2412</v>
       </c>
-      <c r="N5" s="201">
+      <c r="N5" s="142">
         <f t="shared" ref="N5:N7" si="1">(M5-K5)/M5</f>
         <v>5.8872305140961818E-2</v>
       </c>
-      <c r="O5" s="210">
+      <c r="O5" s="151">
         <v>5.357E-2</v>
       </c>
-      <c r="P5" s="207">
+      <c r="P5" s="148">
         <v>6.3799999999999996E-2</v>
       </c>
-      <c r="Q5" s="213">
+      <c r="Q5" s="154">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="R5" s="202">
+      <c r="R5" s="143">
         <f t="shared" ref="R5:R7" si="2">(Q5-O5)/Q5</f>
         <v>5.8523725834797882E-2</v>
       </c>
-      <c r="T5" s="220">
+      <c r="T5" s="161">
         <f>(M5-K5)/M5</f>
         <v>5.8872305140961818E-2</v>
       </c>
     </row>
     <row r="6" spans="2:21" ht="19" customHeight="1" thickBot="1">
-      <c r="B6" s="252"/>
-      <c r="C6" s="256"/>
-      <c r="D6" s="262" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="192" t="s">
+      <c r="B6" s="239"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="249" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="264" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="194">
+      <c r="F6" s="251" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="135">
         <v>0.91600000000000004</v>
       </c>
-      <c r="H6" s="206">
+      <c r="H6" s="147">
         <v>0.91600000000000004</v>
       </c>
-      <c r="I6" s="214">
+      <c r="I6" s="155">
         <v>0.91559999999999997</v>
       </c>
-      <c r="J6" s="224">
+      <c r="J6" s="165">
         <f t="shared" si="0"/>
         <v>4.3687199650509716E-4</v>
       </c>
-      <c r="K6" s="208">
+      <c r="K6" s="149">
         <v>0.13750000000000001</v>
       </c>
-      <c r="L6" s="207">
+      <c r="L6" s="148">
         <v>0.13750000000000001</v>
       </c>
-      <c r="M6" s="197">
+      <c r="M6" s="138">
         <v>0.1376</v>
       </c>
-      <c r="N6" s="201">
+      <c r="N6" s="142">
         <f t="shared" si="1"/>
         <v>7.267441860464316E-4</v>
       </c>
-      <c r="O6" s="199">
+      <c r="O6" s="140">
         <v>1.78E-2</v>
       </c>
-      <c r="P6" s="208">
+      <c r="P6" s="149">
         <v>1.77E-2</v>
       </c>
-      <c r="Q6" s="209">
+      <c r="Q6" s="150">
         <v>1.7850000000000001E-2</v>
       </c>
-      <c r="R6" s="202">
+      <c r="R6" s="143">
         <f t="shared" si="2"/>
         <v>2.8011204481793515E-3</v>
       </c>
     </row>
     <row r="7" spans="2:21" ht="19" customHeight="1" thickBot="1">
-      <c r="B7" s="253"/>
-      <c r="C7" s="257"/>
-      <c r="D7" s="263"/>
-      <c r="E7" s="191" t="s">
+      <c r="B7" s="240"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="250"/>
+      <c r="E7" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="265"/>
-      <c r="G7" s="206">
+      <c r="F7" s="252"/>
+      <c r="G7" s="147">
         <v>0.89100000000000001</v>
       </c>
-      <c r="H7" s="206">
+      <c r="H7" s="147">
         <v>0.89300000000000002</v>
       </c>
-      <c r="I7" s="214">
+      <c r="I7" s="155">
         <v>0.9</v>
       </c>
-      <c r="J7" s="224">
+      <c r="J7" s="165">
         <f t="shared" si="0"/>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="K7" s="210">
+      <c r="K7" s="151">
         <v>0.09</v>
       </c>
-      <c r="L7" s="210">
+      <c r="L7" s="151">
         <v>9.3399999999999997E-2</v>
       </c>
-      <c r="M7" s="218">
+      <c r="M7" s="159">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="N7" s="201">
+      <c r="N7" s="142">
         <f t="shared" si="1"/>
         <v>2.3861171366594439E-2</v>
       </c>
-      <c r="O7" s="210">
+      <c r="O7" s="151">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="P7" s="207">
+      <c r="P7" s="148">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Q7" s="219">
+      <c r="Q7" s="160">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="R7" s="202">
+      <c r="R7" s="143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:21">
-      <c r="T8" s="241">
+      <c r="T8" s="177">
         <f>AVERAGE(N4:N5)</f>
         <v>5.2792022269313191E-2</v>
       </c>
       <c r="U8" s="66" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:21">
-      <c r="R9" s="220">
+      <c r="R9" s="161">
         <f>(I5/G5)</f>
         <v>0.81300236406619386</v>
       </c>
-      <c r="T9" s="241">
+      <c r="T9" s="177">
         <f>AVERAGE(R4:R5)</f>
         <v>7.0533210165975788E-2</v>
       </c>
       <c r="U9" s="66" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:21">
@@ -8471,20 +8542,20 @@
       <c r="S13" s="66">
         <v>0.34389999999999998</v>
       </c>
-      <c r="T13" s="222"/>
+      <c r="T13" s="163"/>
     </row>
     <row r="14" spans="2:21">
-      <c r="T14" s="212"/>
+      <c r="T14" s="153"/>
     </row>
     <row r="15" spans="2:21">
-      <c r="T15" s="223"/>
+      <c r="T15" s="164"/>
     </row>
     <row r="17" spans="18:20">
-      <c r="R17" s="221">
+      <c r="R17" s="162">
         <f>((R13/S13)*100%-100%)</f>
         <v>0.23000872346612389</v>
       </c>
-      <c r="T17" s="220">
+      <c r="T17" s="161">
         <f>(R13-S13)/S13</f>
         <v>0.23000872346612389</v>
       </c>
@@ -8494,7 +8565,7 @@
         <f>G5/I5</f>
         <v>1.2300087234661239</v>
       </c>
-      <c r="S21" s="212"/>
+      <c r="S21" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8546,229 +8617,229 @@
   <sheetData>
     <row r="1" spans="2:15" ht="16" thickBot="1"/>
     <row r="2" spans="2:15" ht="16" thickBot="1">
-      <c r="B2" s="248" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="250"/>
+      <c r="B2" s="235" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="237"/>
     </row>
     <row r="3" spans="2:15" ht="16" thickBot="1">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="143" t="s">
+      <c r="E3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="87" t="s">
+      <c r="I3" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="86" t="s">
+      <c r="J3" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="86" t="s">
+      <c r="K3" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="87" t="s">
+      <c r="L3" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="86" t="s">
+      <c r="M3" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="86" t="s">
+      <c r="N3" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="87" t="s">
+      <c r="O3" s="75" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="16" thickBot="1">
-      <c r="B4" s="251" t="s">
+      <c r="B4" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="254"/>
-      <c r="D4" s="343" t="s">
+      <c r="C4" s="241"/>
+      <c r="D4" s="326" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="203" t="s">
+      <c r="E4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="260" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="242">
+      <c r="F4" s="247" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="178">
         <v>0.40500000000000003</v>
       </c>
-      <c r="H4" s="195">
+      <c r="H4" s="136">
         <v>0.36270000000000002</v>
       </c>
-      <c r="I4" s="201">
+      <c r="I4" s="142">
         <f>(G4-H4)/H4</f>
         <v>0.11662531017369727</v>
       </c>
-      <c r="J4" s="244">
+      <c r="J4" s="180">
         <v>0.3165</v>
       </c>
-      <c r="K4" s="198">
+      <c r="K4" s="139">
         <v>0.32540000000000002</v>
       </c>
-      <c r="L4" s="201">
+      <c r="L4" s="142">
         <f>(J4-K4)/K4</f>
         <v>-2.7350952673632509E-2</v>
       </c>
-      <c r="M4" s="247">
+      <c r="M4" s="183">
         <v>0.10009999999999999</v>
       </c>
-      <c r="N4" s="198">
+      <c r="N4" s="139">
         <v>0.10539999999999999</v>
       </c>
-      <c r="O4" s="202">
+      <c r="O4" s="143">
         <f>(M4-N4)/N4</f>
         <v>-5.0284629981024662E-2</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="16" thickBot="1">
-      <c r="B5" s="252"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="344"/>
-      <c r="E5" s="204" t="s">
+      <c r="B5" s="239"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="327"/>
+      <c r="E5" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="261"/>
-      <c r="G5" s="245">
+      <c r="F5" s="248"/>
+      <c r="G5" s="181">
         <v>0.315</v>
       </c>
-      <c r="H5" s="193">
+      <c r="H5" s="134">
         <v>0.34389999999999998</v>
       </c>
-      <c r="I5" s="201">
+      <c r="I5" s="142">
         <f t="shared" ref="I5:I7" si="0">(G5-H5)/H5</f>
         <v>-8.4036056993311958E-2</v>
       </c>
-      <c r="J5" s="246">
+      <c r="J5" s="182">
         <v>0.24879999999999999</v>
       </c>
-      <c r="K5" s="179">
+      <c r="K5" s="128">
         <v>0.2412</v>
       </c>
-      <c r="L5" s="201">
+      <c r="L5" s="142">
         <f t="shared" ref="L5:L7" si="1">(J5-K5)/K5</f>
         <v>3.1509121061359849E-2</v>
       </c>
-      <c r="M5" s="246">
+      <c r="M5" s="182">
         <v>6.3799999999999996E-2</v>
       </c>
-      <c r="N5" s="193">
+      <c r="N5" s="134">
         <v>1.78E-2</v>
       </c>
-      <c r="O5" s="202">
+      <c r="O5" s="143">
         <f t="shared" ref="O5:O7" si="2">(M5-N5)/N5</f>
         <v>2.5842696629213484</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="19" customHeight="1" thickBot="1">
-      <c r="B6" s="252"/>
-      <c r="C6" s="256"/>
-      <c r="D6" s="345" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="205" t="s">
+      <c r="B6" s="239"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="328" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="264" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="194">
+      <c r="F6" s="251" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="135">
         <v>0.91600000000000004</v>
       </c>
-      <c r="H6" s="195">
+      <c r="H6" s="136">
         <v>0.91559999999999997</v>
       </c>
-      <c r="I6" s="201">
+      <c r="I6" s="142">
         <f t="shared" si="0"/>
         <v>4.3687199650509716E-4</v>
       </c>
-      <c r="J6" s="196">
+      <c r="J6" s="137">
         <v>0.13750000000000001</v>
       </c>
-      <c r="K6" s="197">
+      <c r="K6" s="138">
         <v>0.1376</v>
       </c>
-      <c r="L6" s="201">
+      <c r="L6" s="142">
         <f t="shared" si="1"/>
         <v>-7.267441860464316E-4</v>
       </c>
-      <c r="M6" s="196">
+      <c r="M6" s="137">
         <v>1.77E-2</v>
       </c>
-      <c r="N6" s="198">
+      <c r="N6" s="139">
         <v>1.7850000000000001E-2</v>
       </c>
-      <c r="O6" s="202">
+      <c r="O6" s="143">
         <f t="shared" si="2"/>
         <v>-8.4033613445378616E-3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="19" customHeight="1" thickBot="1">
-      <c r="B7" s="253"/>
-      <c r="C7" s="257"/>
-      <c r="D7" s="346"/>
-      <c r="E7" s="200" t="s">
+      <c r="B7" s="240"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="329"/>
+      <c r="E7" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="265"/>
-      <c r="G7" s="147">
+      <c r="F7" s="252"/>
+      <c r="G7" s="118">
         <v>0.89300000000000002</v>
       </c>
-      <c r="H7" s="193">
+      <c r="H7" s="134">
         <v>0.9</v>
       </c>
-      <c r="I7" s="201">
+      <c r="I7" s="142">
         <f t="shared" si="0"/>
         <v>-7.7777777777777845E-3</v>
       </c>
-      <c r="J7" s="149">
+      <c r="J7" s="120">
         <v>9.3399999999999997E-2</v>
       </c>
-      <c r="K7" s="148">
+      <c r="K7" s="119">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="L7" s="201">
+      <c r="L7" s="142">
         <f t="shared" si="1"/>
         <v>1.3015184381778663E-2</v>
       </c>
-      <c r="M7" s="148">
+      <c r="M7" s="119">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="N7" s="179">
+      <c r="N7" s="128">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="O7" s="202">
+      <c r="O7" s="143">
         <f t="shared" si="2"/>
         <v>8.6956521739130418E-2</v>
       </c>
@@ -8807,102 +8878,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="169" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="169" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="169" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="170" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="233" t="s">
+      <c r="B2" s="170" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="170">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="233" t="s">
+      <c r="B3" s="174" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="171">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="175" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="234" t="s">
+      <c r="B4" s="175" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="171">
+        <v>59.3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22">
+      <c r="A5" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="234" t="s">
+      <c r="B5" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="234">
-        <v>65.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="238" t="s">
+      <c r="C5" s="171">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="238" t="s">
+      <c r="B6" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="235">
-        <v>63.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="239" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="239" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="235">
-        <v>59.3</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C6" s="171">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="175" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="175" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="171">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22">
-      <c r="A5" s="238" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="238" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="235">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="239" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="239" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="235">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="239" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="239" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="235">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="F7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="239" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="239" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="236">
+      <c r="B8" s="175" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="172">
         <v>37.5</v>
       </c>
       <c r="E8">
@@ -8910,193 +8981,193 @@
         <v>17.5</v>
       </c>
       <c r="F8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" customHeight="1">
+      <c r="A9" s="175" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="175" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="171">
+        <v>28.2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="22">
+      <c r="A10" s="175" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="175" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="171">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="174" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="174" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="171">
+        <v>17.5</v>
+      </c>
+      <c r="F11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" customHeight="1">
-      <c r="A9" s="239" t="s">
+    <row r="12" spans="1:6" ht="22">
+      <c r="A12" s="174" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="174" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="171">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="175" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="175" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="171">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" customHeight="1">
+      <c r="A14" s="174" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="174" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="171">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" customHeight="1">
+      <c r="A15" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="239" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="235">
-        <v>28.2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="22">
-      <c r="A10" s="239" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="239" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="235">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B15" s="175" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="171">
+        <v>12.9</v>
+      </c>
+      <c r="F15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="238" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="238" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="174" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="174" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="171">
+        <v>12.4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="175" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="175" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="171">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="174" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="174" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="171">
+        <v>8.9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="175" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="175" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="171">
+        <v>8.6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="22">
+      <c r="A20" s="174" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="235">
-        <v>17.5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="22">
-      <c r="A12" s="238" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="238" t="s">
+      <c r="C20" s="171">
+        <v>6.4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="175" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="175" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="171">
+        <v>4.8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="23" thickBot="1">
+      <c r="A22" s="176" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="235">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="239" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="239" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="235">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" customHeight="1">
-      <c r="A14" s="238" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="238" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="235">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" customHeight="1">
-      <c r="A15" s="239" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="239" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="235">
-        <v>12.9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="238" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="238" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="235">
-        <v>12.4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="239" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="239" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="235">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="238" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="238" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="235">
-        <v>8.9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="239" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="239" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="235">
-        <v>8.6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="22">
-      <c r="A20" s="238" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="238" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="235">
-        <v>6.4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="239" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="239" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="235">
-        <v>4.8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="23" thickBot="1">
-      <c r="A22" s="240" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="240" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="237">
+      <c r="B22" s="176" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="173">
         <v>4.7</v>
       </c>
     </row>

--- a/Modelos.xlsx
+++ b/Modelos.xlsx
@@ -12,15 +12,15 @@
     <sheet name="OLR" sheetId="4" r:id="rId3"/>
     <sheet name="Truncated models" sheetId="5" r:id="rId4"/>
     <sheet name="Multinomial regression" sheetId="6" r:id="rId5"/>
-    <sheet name="Cluster - Distances" sheetId="8" r:id="rId6"/>
-    <sheet name="Cluster" sheetId="10" r:id="rId7"/>
-    <sheet name="Comparison" sheetId="14" r:id="rId8"/>
-    <sheet name="Output Features" sheetId="15" r:id="rId9"/>
-    <sheet name="Judge Features" sheetId="16" r:id="rId10"/>
-    <sheet name="Models" sheetId="17" r:id="rId11"/>
-    <sheet name="Genres" sheetId="18" r:id="rId12"/>
-    <sheet name="Genre Distance" sheetId="19" r:id="rId13"/>
-    <sheet name="Distances" sheetId="20" r:id="rId14"/>
+    <sheet name="Cluster" sheetId="10" r:id="rId6"/>
+    <sheet name="Comparison" sheetId="14" r:id="rId7"/>
+    <sheet name="Output Features" sheetId="15" r:id="rId8"/>
+    <sheet name="Judge Features" sheetId="16" r:id="rId9"/>
+    <sheet name="Models" sheetId="17" r:id="rId10"/>
+    <sheet name="Genres" sheetId="18" r:id="rId11"/>
+    <sheet name="Genre Distance" sheetId="19" r:id="rId12"/>
+    <sheet name="Distances" sheetId="20" r:id="rId13"/>
+    <sheet name="Similarity" sheetId="21" r:id="rId14"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="181">
   <si>
     <t>MODELS TRIALS</t>
   </si>
@@ -1031,6 +1031,12 @@
   <si>
     <t>Distance Similarity</t>
   </si>
+  <si>
+    <t>ARTIST SIMILARITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2 no Genre Clustering </t>
+  </si>
 </sst>
 </file>
 
@@ -1042,7 +1048,7 @@
     <numFmt numFmtId="166" formatCode="0.0000%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1197,8 +1203,13 @@
       <color rgb="FF434343"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1243,12 +1254,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,7 +1306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -2147,8 +2152,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="348">
+  <cellStyleXfs count="356">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2497,8 +2530,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="348">
+  <cellXfs count="369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -2761,15 +2802,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="10" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="9" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="9" borderId="10" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="3" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2780,43 +2812,43 @@
     <xf numFmtId="10" fontId="6" fillId="3" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="24" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="9" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="10" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="10" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="9" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="24" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="10" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="6" fillId="10" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="10" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="10" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="10" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="11" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="11" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2939,11 +2971,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="14" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="13" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2953,50 +2985,50 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="14" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="13" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3007,11 +3039,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3028,63 +3060,63 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="16" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="16" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="16" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="69" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="15" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="15" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="15" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="69" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="65" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="63" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="66" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="16" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="16" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="65" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="63" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="66" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="15" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="15" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="21" fillId="17" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="16" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="17" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="16" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="16" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="16" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="16" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="15" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="15" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="15" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="21" fillId="17" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="16" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="21" fillId="16" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="14" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="15" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="13" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3093,16 +3125,16 @@
     <xf numFmtId="165" fontId="7" fillId="3" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="14" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="13" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="14" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="13" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="14" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="13" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3123,13 +3155,13 @@
     <xf numFmtId="3" fontId="5" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3138,6 +3170,21 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3210,7 +3257,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3333,110 +3380,163 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="56" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="64" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="62" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="61" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="69" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="70" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="72" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="32" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="65" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="65" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="67" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="63" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="63" xfId="93" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="68" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="71" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="67" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="34" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="68" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="3" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="72" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="40" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="56" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="61" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="62" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="64" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="30" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="57" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="57" xfId="93" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="72" xfId="93" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="348">
+  <cellStyles count="356">
     <cellStyle name="Encabezado 3" xfId="93" builtinId="18"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
@@ -3611,6 +3711,10 @@
     <cellStyle name="Hipervínculo" xfId="342" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="344" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="354" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -3784,6 +3888,10 @@
     <cellStyle name="Hipervínculo visitado" xfId="343" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="345" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="355" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3951,12 +4059,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="2075202312"/>
-        <c:axId val="2075199208"/>
+        <c:axId val="2144919240"/>
+        <c:axId val="2144922520"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2075202312"/>
+        <c:axId val="2144919240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3978,7 +4086,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075199208"/>
+        <c:crossAx val="2144922520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3986,7 +4094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075199208"/>
+        <c:axId val="2144922520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3996,7 +4104,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2075202312"/>
+        <c:crossAx val="2144919240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4028,6 +4136,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4165,12 +4274,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="cylinder"/>
-        <c:axId val="2074175112"/>
-        <c:axId val="2074172056"/>
+        <c:axId val="2145011816"/>
+        <c:axId val="2145014856"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="2074175112"/>
+        <c:axId val="2145011816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4192,7 +4301,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2074172056"/>
+        <c:crossAx val="2145014856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4200,7 +4309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2074172056"/>
+        <c:axId val="2145014856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4210,7 +4319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074175112"/>
+        <c:crossAx val="2145011816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4646,7 +4755,7 @@
     <col min="19" max="19" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.5" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" style="3" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" style="105" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" style="102" customWidth="1"/>
     <col min="23" max="23" width="7.33203125" style="3" customWidth="1"/>
     <col min="24" max="24" width="8.33203125" style="3" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
@@ -4656,33 +4765,33 @@
   <sheetData>
     <row r="1" spans="2:29" ht="16" thickBot="1"/>
     <row r="2" spans="2:29" ht="16" thickBot="1">
-      <c r="B2" s="249" t="s">
+      <c r="B2" s="251" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="250"/>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="250"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="250"/>
-      <c r="Q2" s="250"/>
-      <c r="R2" s="250"/>
-      <c r="S2" s="250"/>
-      <c r="T2" s="250"/>
-      <c r="U2" s="250"/>
-      <c r="V2" s="250"/>
-      <c r="W2" s="250"/>
-      <c r="X2" s="250"/>
-      <c r="Y2" s="250"/>
-      <c r="Z2" s="251"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="252"/>
+      <c r="R2" s="252"/>
+      <c r="S2" s="252"/>
+      <c r="T2" s="252"/>
+      <c r="U2" s="252"/>
+      <c r="V2" s="252"/>
+      <c r="W2" s="252"/>
+      <c r="X2" s="252"/>
+      <c r="Y2" s="252"/>
+      <c r="Z2" s="253"/>
     </row>
     <row r="3" spans="2:29" ht="16" thickBot="1">
       <c r="B3" s="7" t="s">
@@ -4700,10 +4809,10 @@
       <c r="F3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="G3" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="107" t="s">
+      <c r="H3" s="104" t="s">
         <v>80</v>
       </c>
       <c r="I3" s="10" t="s">
@@ -4718,10 +4827,10 @@
       <c r="L3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="114" t="s">
+      <c r="M3" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="107" t="s">
+      <c r="N3" s="104" t="s">
         <v>83</v>
       </c>
       <c r="O3" s="11" t="s">
@@ -4739,10 +4848,10 @@
       <c r="S3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="T3" s="114" t="s">
+      <c r="T3" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="107" t="s">
+      <c r="U3" s="104" t="s">
         <v>89</v>
       </c>
       <c r="V3" s="11" t="s">
@@ -4762,23 +4871,23 @@
       </c>
     </row>
     <row r="4" spans="2:29" ht="35" customHeight="1" thickBot="1">
-      <c r="B4" s="252" t="s">
+      <c r="B4" s="254" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="255"/>
-      <c r="D4" s="259" t="s">
+      <c r="C4" s="257"/>
+      <c r="D4" s="261" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="261" t="s">
+      <c r="F4" s="263" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="112" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="109">
+      <c r="H4" s="106">
         <v>0.47</v>
       </c>
       <c r="I4" s="71">
@@ -4794,13 +4903,13 @@
         <f>(I4-K4)/K4</f>
         <v>0.20760959470636883</v>
       </c>
-      <c r="M4" s="118" t="s">
+      <c r="M4" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="N4" s="113" t="s">
+      <c r="N4" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="100" t="s">
         <v>75</v>
       </c>
       <c r="P4" s="86">
@@ -4816,13 +4925,13 @@
         <f>(R4-P4)/R4</f>
         <v>4.6711739397664556E-2</v>
       </c>
-      <c r="T4" s="119" t="s">
+      <c r="T4" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="U4" s="108" t="s">
+      <c r="U4" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="V4" s="106" t="s">
+      <c r="V4" s="103" t="s">
         <v>76</v>
       </c>
       <c r="W4" s="87">
@@ -4840,17 +4949,17 @@
       </c>
     </row>
     <row r="5" spans="2:29" ht="16" thickBot="1">
-      <c r="B5" s="253"/>
-      <c r="C5" s="256"/>
-      <c r="D5" s="260"/>
+      <c r="B5" s="255"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="262"/>
       <c r="E5" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="262"/>
-      <c r="G5" s="116" t="s">
+      <c r="F5" s="264"/>
+      <c r="G5" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="110">
+      <c r="H5" s="107">
         <v>0.45100000000000001</v>
       </c>
       <c r="I5" s="77">
@@ -4866,13 +4975,13 @@
         <f>(I5-K5)/K5</f>
         <v>0.23000872346612389</v>
       </c>
-      <c r="M5" s="118" t="s">
+      <c r="M5" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="113" t="s">
+      <c r="N5" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="O5" s="104" t="s">
+      <c r="O5" s="101" t="s">
         <v>78</v>
       </c>
       <c r="P5" s="81">
@@ -4888,13 +4997,13 @@
         <f t="shared" ref="S5:S7" si="0">(R5-P5)/R5</f>
         <v>5.8872305140961818E-2</v>
       </c>
-      <c r="T5" s="119" t="s">
+      <c r="T5" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="U5" s="108" t="s">
+      <c r="U5" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="V5" s="106" t="s">
+      <c r="V5" s="103" t="s">
         <v>77</v>
       </c>
       <c r="W5" s="81">
@@ -4916,21 +5025,21 @@
       </c>
     </row>
     <row r="6" spans="2:29" ht="19" customHeight="1" thickBot="1">
-      <c r="B6" s="253"/>
-      <c r="C6" s="257"/>
-      <c r="D6" s="263" t="s">
+      <c r="B6" s="255"/>
+      <c r="C6" s="259"/>
+      <c r="D6" s="265" t="s">
         <v>70</v>
       </c>
       <c r="E6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="265" t="s">
+      <c r="F6" s="267" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="117" t="s">
+      <c r="G6" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="H6" s="111" t="s">
+      <c r="H6" s="108" t="s">
         <v>86</v>
       </c>
       <c r="I6" s="71">
@@ -4946,13 +5055,13 @@
         <f>(I6-K6)/K6</f>
         <v>4.3687199650509716E-4</v>
       </c>
-      <c r="M6" s="118" t="s">
+      <c r="M6" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="N6" s="113" t="s">
+      <c r="N6" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="103"/>
+      <c r="O6" s="100"/>
       <c r="P6" s="79">
         <v>0.13750000000000001</v>
       </c>
@@ -4966,13 +5075,13 @@
         <f t="shared" si="0"/>
         <v>7.267441860464316E-4</v>
       </c>
-      <c r="T6" s="119" t="s">
+      <c r="T6" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="U6" s="108" t="s">
+      <c r="U6" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="V6" s="106"/>
+      <c r="V6" s="103"/>
       <c r="W6" s="74">
         <v>1.78E-2</v>
       </c>
@@ -4988,17 +5097,17 @@
       </c>
     </row>
     <row r="7" spans="2:29" ht="19" customHeight="1" thickBot="1">
-      <c r="B7" s="254"/>
-      <c r="C7" s="258"/>
-      <c r="D7" s="264"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="266"/>
       <c r="E7" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="266"/>
-      <c r="G7" s="116" t="s">
+      <c r="F7" s="268"/>
+      <c r="G7" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="112" t="s">
+      <c r="H7" s="109" t="s">
         <v>90</v>
       </c>
       <c r="I7" s="77">
@@ -5014,13 +5123,13 @@
         <f>(I7-K7)/K7</f>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="115" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="113" t="s">
+      <c r="N7" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="O7" s="103"/>
+      <c r="O7" s="100"/>
       <c r="P7" s="81">
         <v>0.09</v>
       </c>
@@ -5034,13 +5143,13 @@
         <f t="shared" si="0"/>
         <v>2.3861171366594439E-2</v>
       </c>
-      <c r="T7" s="119" t="s">
+      <c r="T7" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="U7" s="108" t="s">
+      <c r="U7" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="V7" s="106"/>
+      <c r="V7" s="103"/>
       <c r="W7" s="81">
         <v>6.8999999999999999E-3</v>
       </c>
@@ -5133,134 +5242,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F5:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="6:8">
-      <c r="F5" s="191" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="190" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="6:8">
-      <c r="F6" s="193"/>
-      <c r="G6" s="199"/>
-    </row>
-    <row r="7" spans="6:8">
-      <c r="F7" s="188" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="182" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="6:8">
-      <c r="F8" s="188"/>
-      <c r="G8" s="182"/>
-    </row>
-    <row r="9" spans="6:8">
-      <c r="F9" s="188" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="182" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="6:8">
-      <c r="F10" s="188"/>
-      <c r="G10" s="195"/>
-    </row>
-    <row r="11" spans="6:8">
-      <c r="F11" s="188" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="195" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11" s="178"/>
-    </row>
-    <row r="12" spans="6:8">
-      <c r="F12" s="188"/>
-      <c r="G12" s="195" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" s="178"/>
-    </row>
-    <row r="13" spans="6:8">
-      <c r="F13" s="198"/>
-      <c r="G13" s="196"/>
-    </row>
-    <row r="14" spans="6:8">
-      <c r="F14" s="188" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="182" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="6:8">
-      <c r="F15" s="188"/>
-      <c r="G15" s="182"/>
-    </row>
-    <row r="16" spans="6:8">
-      <c r="F16" s="188" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="182" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7">
-      <c r="F17" s="188"/>
-      <c r="G17" s="196"/>
-    </row>
-    <row r="18" spans="6:7">
-      <c r="F18" s="188" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="182" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7">
-      <c r="F19" s="188"/>
-      <c r="G19" s="182"/>
-    </row>
-    <row r="20" spans="6:7">
-      <c r="F20" s="192" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="197" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7">
-      <c r="F21" s="194"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G8:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5276,50 +5257,50 @@
   </cols>
   <sheetData>
     <row r="8" spans="7:10">
-      <c r="G8" s="189" t="s">
+      <c r="G8" s="186" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="179" t="s">
+      <c r="H8" s="176" t="s">
         <v>129</v>
       </c>
-      <c r="I8" s="179" t="s">
+      <c r="I8" s="176" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="190" t="s">
+      <c r="J8" s="187" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:10">
-      <c r="G9" s="200"/>
-      <c r="H9" s="205"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="205"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="202"/>
     </row>
     <row r="10" spans="7:10">
-      <c r="G10" s="187" t="s">
+      <c r="G10" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="201" t="s">
+      <c r="H10" s="198" t="s">
         <v>147</v>
       </c>
-      <c r="I10" s="178" t="s">
+      <c r="I10" s="175" t="s">
         <v>153</v>
       </c>
-      <c r="J10" s="201" t="s">
+      <c r="J10" s="198" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:10">
-      <c r="G11" s="186" t="s">
+      <c r="G11" s="183" t="s">
         <v>148</v>
       </c>
-      <c r="H11" s="202" t="s">
+      <c r="H11" s="199" t="s">
         <v>149</v>
       </c>
-      <c r="I11" s="203" t="s">
+      <c r="I11" s="200" t="s">
         <v>155</v>
       </c>
-      <c r="J11" s="202" t="s">
+      <c r="J11" s="199" t="s">
         <v>150</v>
       </c>
     </row>
@@ -5334,7 +5315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G7:H21"/>
   <sheetViews>
@@ -5349,70 +5330,70 @@
   </cols>
   <sheetData>
     <row r="7" spans="7:8">
-      <c r="G7" s="183" t="s">
+      <c r="G7" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="184" t="s">
+      <c r="H7" s="181" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="8" spans="7:8">
-      <c r="G8" s="207"/>
-      <c r="H8" s="207"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
     </row>
     <row r="9" spans="7:8">
-      <c r="G9" s="207" t="s">
+      <c r="G9" s="204" t="s">
         <v>158</v>
       </c>
-      <c r="H9" s="207" t="s">
+      <c r="H9" s="204" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" spans="7:8">
-      <c r="G10" s="207"/>
-      <c r="H10" s="207"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
     </row>
     <row r="11" spans="7:8">
-      <c r="G11" s="207" t="s">
+      <c r="G11" s="204" t="s">
         <v>162</v>
       </c>
-      <c r="H11" s="207" t="s">
+      <c r="H11" s="204" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="12" spans="7:8">
-      <c r="G12" s="207"/>
-      <c r="H12" s="207"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="204"/>
     </row>
     <row r="13" spans="7:8">
-      <c r="G13" s="207" t="s">
+      <c r="G13" s="204" t="s">
         <v>159</v>
       </c>
-      <c r="H13" s="207" t="s">
+      <c r="H13" s="204" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="14" spans="7:8">
-      <c r="G14" s="207"/>
-      <c r="H14" s="207"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="204"/>
     </row>
     <row r="15" spans="7:8">
-      <c r="G15" s="207" t="s">
+      <c r="G15" s="204" t="s">
         <v>160</v>
       </c>
-      <c r="H15" s="207" t="s">
+      <c r="H15" s="204" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="7:8">
-      <c r="G16" s="207"/>
-      <c r="H16" s="207"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
     </row>
     <row r="17" spans="7:8">
-      <c r="G17" s="208" t="s">
+      <c r="G17" s="205" t="s">
         <v>161</v>
       </c>
-      <c r="H17" s="208" t="s">
+      <c r="H17" s="205" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5429,6 +5410,249 @@
     <row r="21" spans="7:8">
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E9:K28"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" style="203" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="5:11">
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="245"/>
+      <c r="J9" s="191"/>
+      <c r="K9" s="191"/>
+    </row>
+    <row r="10" spans="5:11" ht="25" customHeight="1">
+      <c r="G10" s="242" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" s="241" t="s">
+        <v>177</v>
+      </c>
+      <c r="I10" s="243" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11">
+      <c r="G11" s="237" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" s="235" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="239">
+        <v>62918558</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11">
+      <c r="G12" s="237" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="235" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="239">
+        <v>61092754</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11">
+      <c r="G13" s="237" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="235" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="239">
+        <v>58618590</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11">
+      <c r="G14" s="237" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="235" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" s="239">
+        <v>56681323</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11">
+      <c r="G15" s="237" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="235" t="s">
+        <v>175</v>
+      </c>
+      <c r="I15" s="239">
+        <v>48745062</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11">
+      <c r="G16" s="237" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="235" t="s">
+        <v>171</v>
+      </c>
+      <c r="I16" s="239">
+        <v>37284444</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9">
+      <c r="G17" s="237" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" s="235" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" s="239">
+        <v>37084195</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9">
+      <c r="G18" s="237" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="235" t="s">
+        <v>172</v>
+      </c>
+      <c r="I18" s="239">
+        <v>36849624</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9">
+      <c r="G19" s="237" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="235" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" s="239">
+        <v>36288136</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9">
+      <c r="G20" s="237" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" s="235" t="s">
+        <v>174</v>
+      </c>
+      <c r="I20" s="239">
+        <v>28107477</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9">
+      <c r="G21" s="237" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="235" t="s">
+        <v>172</v>
+      </c>
+      <c r="I21" s="239">
+        <v>23881159</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9">
+      <c r="G22" s="237" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" s="235" t="s">
+        <v>175</v>
+      </c>
+      <c r="I22" s="239">
+        <v>19956399</v>
+      </c>
+    </row>
+    <row r="23" spans="7:9">
+      <c r="G23" s="237" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="235" t="s">
+        <v>174</v>
+      </c>
+      <c r="I23" s="239">
+        <v>17156250</v>
+      </c>
+    </row>
+    <row r="24" spans="7:9">
+      <c r="G24" s="237" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="235" t="s">
+        <v>171</v>
+      </c>
+      <c r="I24" s="239">
+        <v>16740586</v>
+      </c>
+    </row>
+    <row r="25" spans="7:9">
+      <c r="G25" s="237" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" s="235" t="s">
+        <v>171</v>
+      </c>
+      <c r="I25" s="239">
+        <v>15982301</v>
+      </c>
+    </row>
+    <row r="26" spans="7:9">
+      <c r="G26" s="237" t="s">
+        <v>171</v>
+      </c>
+      <c r="H26" s="235" t="s">
+        <v>173</v>
+      </c>
+      <c r="I26" s="239">
+        <v>15919753</v>
+      </c>
+    </row>
+    <row r="27" spans="7:9">
+      <c r="G27" s="237" t="s">
+        <v>175</v>
+      </c>
+      <c r="H27" s="235" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="239">
+        <v>13430993</v>
+      </c>
+    </row>
+    <row r="28" spans="7:9">
+      <c r="G28" s="238" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="236" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="240">
+        <v>13000000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5443,253 +5667,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E9:K28"/>
-  <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="206" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="9" spans="5:11">
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="247"/>
-      <c r="H9" s="247"/>
-      <c r="I9" s="248"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="194"/>
-    </row>
-    <row r="10" spans="5:11" ht="25" customHeight="1">
-      <c r="G10" s="245" t="s">
-        <v>176</v>
-      </c>
-      <c r="H10" s="244" t="s">
-        <v>177</v>
-      </c>
-      <c r="I10" s="246" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="5:11">
-      <c r="G11" s="240" t="s">
-        <v>171</v>
-      </c>
-      <c r="H11" s="238" t="s">
-        <v>171</v>
-      </c>
-      <c r="I11" s="242">
-        <v>62918558</v>
-      </c>
-    </row>
-    <row r="12" spans="5:11">
-      <c r="G12" s="240" t="s">
-        <v>172</v>
-      </c>
-      <c r="H12" s="238" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12" s="242">
-        <v>61092754</v>
-      </c>
-    </row>
-    <row r="13" spans="5:11">
-      <c r="G13" s="240" t="s">
-        <v>173</v>
-      </c>
-      <c r="H13" s="238" t="s">
-        <v>173</v>
-      </c>
-      <c r="I13" s="242">
-        <v>58618590</v>
-      </c>
-    </row>
-    <row r="14" spans="5:11">
-      <c r="G14" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" s="238" t="s">
-        <v>174</v>
-      </c>
-      <c r="I14" s="242">
-        <v>56681323</v>
-      </c>
-    </row>
-    <row r="15" spans="5:11">
-      <c r="G15" s="240" t="s">
-        <v>175</v>
-      </c>
-      <c r="H15" s="238" t="s">
-        <v>175</v>
-      </c>
-      <c r="I15" s="242">
-        <v>48745062</v>
-      </c>
-    </row>
-    <row r="16" spans="5:11">
-      <c r="G16" s="240" t="s">
-        <v>175</v>
-      </c>
-      <c r="H16" s="238" t="s">
-        <v>171</v>
-      </c>
-      <c r="I16" s="242">
-        <v>37284444</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9">
-      <c r="G17" s="240" t="s">
-        <v>172</v>
-      </c>
-      <c r="H17" s="238" t="s">
-        <v>175</v>
-      </c>
-      <c r="I17" s="242">
-        <v>37084195</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9">
-      <c r="G18" s="240" t="s">
-        <v>175</v>
-      </c>
-      <c r="H18" s="238" t="s">
-        <v>172</v>
-      </c>
-      <c r="I18" s="242">
-        <v>36849624</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9">
-      <c r="G19" s="240" t="s">
-        <v>171</v>
-      </c>
-      <c r="H19" s="238" t="s">
-        <v>175</v>
-      </c>
-      <c r="I19" s="242">
-        <v>36288136</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9">
-      <c r="G20" s="240" t="s">
-        <v>172</v>
-      </c>
-      <c r="H20" s="238" t="s">
-        <v>174</v>
-      </c>
-      <c r="I20" s="242">
-        <v>28107477</v>
-      </c>
-    </row>
-    <row r="21" spans="7:9">
-      <c r="G21" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="H21" s="238" t="s">
-        <v>172</v>
-      </c>
-      <c r="I21" s="242">
-        <v>23881159</v>
-      </c>
-    </row>
-    <row r="22" spans="7:9">
-      <c r="G22" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="H22" s="238" t="s">
-        <v>175</v>
-      </c>
-      <c r="I22" s="242">
-        <v>19956399</v>
-      </c>
-    </row>
-    <row r="23" spans="7:9">
-      <c r="G23" s="240" t="s">
-        <v>171</v>
-      </c>
-      <c r="H23" s="238" t="s">
-        <v>174</v>
-      </c>
-      <c r="I23" s="242">
-        <v>17156250</v>
-      </c>
-    </row>
-    <row r="24" spans="7:9">
-      <c r="G24" s="240" t="s">
-        <v>173</v>
-      </c>
-      <c r="H24" s="238" t="s">
-        <v>171</v>
-      </c>
-      <c r="I24" s="242">
-        <v>16740586</v>
-      </c>
-    </row>
-    <row r="25" spans="7:9">
-      <c r="G25" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="H25" s="238" t="s">
-        <v>171</v>
-      </c>
-      <c r="I25" s="242">
-        <v>15982301</v>
-      </c>
-    </row>
-    <row r="26" spans="7:9">
-      <c r="G26" s="240" t="s">
-        <v>171</v>
-      </c>
-      <c r="H26" s="238" t="s">
-        <v>173</v>
-      </c>
-      <c r="I26" s="242">
-        <v>15919753</v>
-      </c>
-    </row>
-    <row r="27" spans="7:9">
-      <c r="G27" s="240" t="s">
-        <v>175</v>
-      </c>
-      <c r="H27" s="238" t="s">
-        <v>174</v>
-      </c>
-      <c r="I27" s="242">
-        <v>13430993</v>
-      </c>
-    </row>
-    <row r="28" spans="7:9">
-      <c r="G28" s="241" t="s">
-        <v>172</v>
-      </c>
-      <c r="H28" s="239" t="s">
-        <v>171</v>
-      </c>
-      <c r="I28" s="243">
-        <v>13000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5702,23 +5683,23 @@
     <col min="6" max="6" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="43" width="10.83203125" style="178"/>
+    <col min="9" max="43" width="10.83203125" style="175"/>
     <col min="44" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="16" thickBot="1">
-      <c r="A1" s="105"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
+      <c r="A1" s="102"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
@@ -5752,20 +5733,20 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:43" ht="16" thickBot="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="314" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="316" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="314"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -5799,32 +5780,32 @@
       <c r="AQ2" s="3"/>
     </row>
     <row r="3" spans="1:43" ht="16" thickBot="1">
-      <c r="A3" s="105"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="346" t="s">
+      <c r="C3" s="249" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="346" t="s">
+      <c r="D3" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="346" t="s">
+      <c r="E3" s="249" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="346" t="s">
+      <c r="F3" s="249" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="346" t="s">
+      <c r="G3" s="249" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="347" t="s">
+      <c r="H3" s="250" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -5858,31 +5839,31 @@
       <c r="AQ3" s="3"/>
     </row>
     <row r="4" spans="1:43" ht="16" thickBot="1">
-      <c r="A4" s="105"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="339"/>
-      <c r="C4" s="345" t="s">
+      <c r="C4" s="344" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="171" t="s">
+      <c r="D4" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="342">
+      <c r="E4" s="246">
         <v>0.46700000000000003</v>
       </c>
-      <c r="F4" s="343">
+      <c r="F4" s="247">
         <v>0.434</v>
       </c>
-      <c r="G4" s="173">
+      <c r="G4" s="170">
         <v>0.36199999999999999</v>
       </c>
-      <c r="H4" s="344">
+      <c r="H4" s="248">
         <f>(E4-G4)/G4</f>
         <v>0.29005524861878462</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -5916,29 +5897,29 @@
       <c r="AQ4" s="3"/>
     </row>
     <row r="5" spans="1:43" ht="16" thickBot="1">
-      <c r="A5" s="105"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="340"/>
-      <c r="C5" s="345"/>
-      <c r="D5" s="171" t="s">
+      <c r="C5" s="344"/>
+      <c r="D5" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="236">
+      <c r="E5" s="233">
         <v>0.44900000000000001</v>
       </c>
-      <c r="F5" s="232">
+      <c r="F5" s="229">
         <v>0.42099999999999999</v>
       </c>
-      <c r="G5" s="173">
+      <c r="G5" s="170">
         <v>0.34300000000000003</v>
       </c>
-      <c r="H5" s="344">
+      <c r="H5" s="248">
         <f>(E5-G5)/G5</f>
         <v>0.30903790087463551</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -5972,31 +5953,31 @@
       <c r="AQ5" s="3"/>
     </row>
     <row r="6" spans="1:43" ht="16" thickBot="1">
-      <c r="A6" s="105"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="340"/>
-      <c r="C6" s="345" t="s">
+      <c r="C6" s="344" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="171" t="s">
+      <c r="D6" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="236">
+      <c r="E6" s="233">
         <v>0.91500000000000004</v>
       </c>
-      <c r="F6" s="232">
+      <c r="F6" s="229">
         <v>0.91500000000000004</v>
       </c>
-      <c r="G6" s="173">
+      <c r="G6" s="170">
         <v>0.91559999999999997</v>
       </c>
-      <c r="H6" s="344">
+      <c r="H6" s="248">
         <f>(E6-G6)/G6</f>
         <v>-6.5530799475746384E-4</v>
       </c>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -6030,29 +6011,29 @@
       <c r="AQ6" s="3"/>
     </row>
     <row r="7" spans="1:43" ht="16" thickBot="1">
-      <c r="A7" s="105"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="341"/>
-      <c r="C7" s="345"/>
-      <c r="D7" s="171" t="s">
+      <c r="C7" s="344"/>
+      <c r="D7" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="236">
+      <c r="E7" s="233">
         <v>0.90500000000000003</v>
       </c>
-      <c r="F7" s="232">
+      <c r="F7" s="229">
         <v>0.90500000000000003</v>
       </c>
-      <c r="G7" s="173">
+      <c r="G7" s="170">
         <v>0.9</v>
       </c>
-      <c r="H7" s="344">
+      <c r="H7" s="248">
         <f>(E7-G7)/G7</f>
         <v>5.5555555555555601E-3</v>
       </c>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -6086,18 +6067,18 @@
       <c r="AQ7" s="3"/>
     </row>
     <row r="8" spans="1:43">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -6131,20 +6112,20 @@
       <c r="AQ8" s="3"/>
     </row>
     <row r="9" spans="1:43">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="314" t="s">
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="316" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="314"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
+      <c r="F9" s="316"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -6178,30 +6159,30 @@
       <c r="AQ9" s="3"/>
     </row>
     <row r="10" spans="1:43">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="346" t="s">
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="249" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="346" t="s">
+      <c r="D10" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="346" t="s">
+      <c r="E10" s="249" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="346" t="s">
+      <c r="F10" s="249" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="346" t="s">
+      <c r="G10" s="249" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="346" t="s">
+      <c r="H10" s="249" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -6235,31 +6216,31 @@
       <c r="AQ10" s="3"/>
     </row>
     <row r="11" spans="1:43">
-      <c r="A11" s="105"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="345" t="s">
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="344" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="171" t="s">
+      <c r="D11" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="236">
+      <c r="E11" s="233">
         <v>0.30299999999999999</v>
       </c>
-      <c r="F11" s="232">
+      <c r="F11" s="229">
         <v>0.311</v>
       </c>
-      <c r="G11" s="172">
+      <c r="G11" s="169">
         <v>0.32540000000000002</v>
       </c>
-      <c r="H11" s="344">
+      <c r="H11" s="248">
         <f>(E11-G11)/G11</f>
         <v>-6.8838352796558172E-2</v>
       </c>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -6293,29 +6274,29 @@
       <c r="AQ11" s="3"/>
     </row>
     <row r="12" spans="1:43">
-      <c r="A12" s="105"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="345"/>
-      <c r="D12" s="171" t="s">
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="344"/>
+      <c r="D12" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="236">
+      <c r="E12" s="233">
         <v>0.221</v>
       </c>
-      <c r="F12" s="232">
+      <c r="F12" s="229">
         <v>0.22700000000000001</v>
       </c>
-      <c r="G12" s="172">
+      <c r="G12" s="169">
         <v>0.2412</v>
       </c>
-      <c r="H12" s="344">
+      <c r="H12" s="248">
         <f>(E12-G12)/G12</f>
         <v>-8.3747927031509101E-2</v>
       </c>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -6349,31 +6330,31 @@
       <c r="AQ12" s="3"/>
     </row>
     <row r="13" spans="1:43">
-      <c r="A13" s="105"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="345" t="s">
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="344" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="171" t="s">
+      <c r="D13" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="236">
+      <c r="E13" s="233">
         <v>0.13700000000000001</v>
       </c>
-      <c r="F13" s="232">
+      <c r="F13" s="229">
         <v>0.13700000000000001</v>
       </c>
-      <c r="G13" s="176">
+      <c r="G13" s="173">
         <v>0.1376</v>
       </c>
-      <c r="H13" s="344">
+      <c r="H13" s="248">
         <f>(E13-G13)/G13</f>
         <v>-4.3604651162789934E-3</v>
       </c>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -6407,29 +6388,29 @@
       <c r="AQ13" s="3"/>
     </row>
     <row r="14" spans="1:43">
-      <c r="A14" s="105"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="345"/>
-      <c r="D14" s="171" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="344"/>
+      <c r="D14" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="236">
+      <c r="E14" s="233">
         <v>0.09</v>
       </c>
-      <c r="F14" s="232">
+      <c r="F14" s="229">
         <v>0.09</v>
       </c>
-      <c r="G14" s="176">
+      <c r="G14" s="173">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="H14" s="344">
+      <c r="H14" s="248">
         <f>(E14-G14)/G14</f>
         <v>-2.3861171366594439E-2</v>
       </c>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -6463,18 +6444,18 @@
       <c r="AQ14" s="3"/>
     </row>
     <row r="15" spans="1:43">
-      <c r="A15" s="105"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -6508,20 +6489,20 @@
       <c r="AQ15" s="3"/>
     </row>
     <row r="16" spans="1:43">
-      <c r="A16" s="105"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="314" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="316" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="314"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
+      <c r="F16" s="316"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -6555,30 +6536,30 @@
       <c r="AQ16" s="3"/>
     </row>
     <row r="17" spans="1:43">
-      <c r="A17" s="105"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="346" t="s">
+      <c r="A17" s="102"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="249" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="346" t="s">
+      <c r="D17" s="249" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="346" t="s">
+      <c r="E17" s="249" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="346" t="s">
+      <c r="F17" s="249" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="346" t="s">
+      <c r="G17" s="249" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="346" t="s">
+      <c r="H17" s="249" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -6612,31 +6593,31 @@
       <c r="AQ17" s="3"/>
     </row>
     <row r="18" spans="1:43">
-      <c r="A18" s="105"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="345" t="s">
+      <c r="A18" s="102"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="344" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="171" t="s">
+      <c r="D18" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="236">
+      <c r="E18" s="233">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="F18" s="173">
+      <c r="F18" s="170">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G18" s="172">
+      <c r="G18" s="169">
         <v>0.10539999999999999</v>
       </c>
-      <c r="H18" s="344">
+      <c r="H18" s="248">
         <f>(E18-G18)/G18</f>
         <v>-0.13662239089184058</v>
       </c>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -6670,29 +6651,29 @@
       <c r="AQ18" s="3"/>
     </row>
     <row r="19" spans="1:43">
-      <c r="A19" s="105"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="345"/>
-      <c r="D19" s="171" t="s">
+      <c r="A19" s="102"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="344"/>
+      <c r="D19" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="236">
+      <c r="E19" s="233">
         <v>0.05</v>
       </c>
-      <c r="F19" s="173">
+      <c r="F19" s="170">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="G19" s="173">
+      <c r="G19" s="170">
         <v>5.6300000000000003E-2</v>
       </c>
-      <c r="H19" s="344">
+      <c r="H19" s="248">
         <f>(E19-G19)/G19</f>
         <v>-0.11190053285968028</v>
       </c>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -6726,31 +6707,31 @@
       <c r="AQ19" s="3"/>
     </row>
     <row r="20" spans="1:43">
-      <c r="A20" s="105"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="345" t="s">
+      <c r="A20" s="102"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="344" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="171" t="s">
+      <c r="D20" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="236">
+      <c r="E20" s="233">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F20" s="173">
+      <c r="F20" s="170">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="169">
         <v>1.78E-2</v>
       </c>
-      <c r="H20" s="344">
+      <c r="H20" s="248">
         <f>(E20-G20)/G20</f>
         <v>-4.4943820224719024E-2</v>
       </c>
-      <c r="I20" s="105"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -6784,29 +6765,29 @@
       <c r="AQ20" s="3"/>
     </row>
     <row r="21" spans="1:43">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="345"/>
-      <c r="D21" s="171" t="s">
+      <c r="A21" s="102"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="344"/>
+      <c r="D21" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="236">
+      <c r="E21" s="233">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F21" s="173">
+      <c r="F21" s="170">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G21" s="172">
+      <c r="G21" s="169">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="H21" s="344">
+      <c r="H21" s="248">
         <f>(E21-G21)/G21</f>
         <v>1.4492753623188444E-2</v>
       </c>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -6840,18 +6821,18 @@
       <c r="AQ21" s="3"/>
     </row>
     <row r="22" spans="1:43">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -6885,18 +6866,18 @@
       <c r="AQ22" s="3"/>
     </row>
     <row r="23" spans="1:43">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -6930,18 +6911,18 @@
       <c r="AQ23" s="3"/>
     </row>
     <row r="24" spans="1:43">
-      <c r="A24" s="105"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -6975,18 +6956,18 @@
       <c r="AQ24" s="3"/>
     </row>
     <row r="25" spans="1:43">
-      <c r="A25" s="105"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -7020,18 +7001,18 @@
       <c r="AQ25" s="3"/>
     </row>
     <row r="26" spans="1:43">
-      <c r="A26" s="105"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -7065,18 +7046,18 @@
       <c r="AQ26" s="3"/>
     </row>
     <row r="27" spans="1:43">
-      <c r="A27" s="105"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -7110,18 +7091,18 @@
       <c r="AQ27" s="3"/>
     </row>
     <row r="28" spans="1:43">
-      <c r="A28" s="105"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -7155,18 +7136,18 @@
       <c r="AQ28" s="3"/>
     </row>
     <row r="29" spans="1:43">
-      <c r="A29" s="105"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -7200,18 +7181,18 @@
       <c r="AQ29" s="3"/>
     </row>
     <row r="30" spans="1:43">
-      <c r="A30" s="105"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -7245,18 +7226,18 @@
       <c r="AQ30" s="3"/>
     </row>
     <row r="31" spans="1:43">
-      <c r="A31" s="105"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -7290,18 +7271,18 @@
       <c r="AQ31" s="3"/>
     </row>
     <row r="32" spans="1:43">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -7335,18 +7316,18 @@
       <c r="AQ32" s="3"/>
     </row>
     <row r="33" spans="1:43">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -7380,18 +7361,18 @@
       <c r="AQ33" s="3"/>
     </row>
     <row r="34" spans="1:43">
-      <c r="A34" s="105"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -7425,18 +7406,18 @@
       <c r="AQ34" s="3"/>
     </row>
     <row r="35" spans="1:43">
-      <c r="A35" s="105"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="102"/>
+      <c r="L35" s="102"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -7470,18 +7451,18 @@
       <c r="AQ35" s="3"/>
     </row>
     <row r="36" spans="1:43">
-      <c r="A36" s="105"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -7515,18 +7496,18 @@
       <c r="AQ36" s="3"/>
     </row>
     <row r="37" spans="1:43">
-      <c r="A37" s="105"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -7560,18 +7541,18 @@
       <c r="AQ37" s="3"/>
     </row>
     <row r="38" spans="1:43">
-      <c r="A38" s="105"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="102"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -7605,18 +7586,18 @@
       <c r="AQ38" s="3"/>
     </row>
     <row r="39" spans="1:43">
-      <c r="A39" s="105"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -7650,18 +7631,18 @@
       <c r="AQ39" s="3"/>
     </row>
     <row r="40" spans="1:43">
-      <c r="A40" s="105"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -7695,18 +7676,18 @@
       <c r="AQ40" s="3"/>
     </row>
     <row r="41" spans="1:43">
-      <c r="A41" s="105"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="102"/>
+      <c r="L41" s="102"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -7740,18 +7721,18 @@
       <c r="AQ41" s="3"/>
     </row>
     <row r="42" spans="1:43">
-      <c r="A42" s="105"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="102"/>
+      <c r="L42" s="102"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -7785,18 +7766,18 @@
       <c r="AQ42" s="3"/>
     </row>
     <row r="43" spans="1:43">
-      <c r="A43" s="105"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="102"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -7830,18 +7811,18 @@
       <c r="AQ43" s="3"/>
     </row>
     <row r="44" spans="1:43">
-      <c r="A44" s="105"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="102"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -7875,18 +7856,18 @@
       <c r="AQ44" s="3"/>
     </row>
     <row r="45" spans="1:43">
-      <c r="A45" s="105"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="102"/>
+      <c r="L45" s="102"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -7920,18 +7901,18 @@
       <c r="AQ45" s="3"/>
     </row>
     <row r="46" spans="1:43">
-      <c r="A46" s="105"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="105"/>
-      <c r="L46" s="105"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="102"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -7965,18 +7946,18 @@
       <c r="AQ46" s="3"/>
     </row>
     <row r="47" spans="1:43">
-      <c r="A47" s="105"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="102"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -8010,18 +7991,18 @@
       <c r="AQ47" s="3"/>
     </row>
     <row r="48" spans="1:43">
-      <c r="A48" s="105"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
+      <c r="A48" s="102"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="102"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -8055,18 +8036,18 @@
       <c r="AQ48" s="3"/>
     </row>
     <row r="49" spans="1:43">
-      <c r="A49" s="105"/>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="105"/>
-      <c r="K49" s="105"/>
-      <c r="L49" s="105"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="102"/>
+      <c r="L49" s="102"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -8100,18 +8081,18 @@
       <c r="AQ49" s="3"/>
     </row>
     <row r="50" spans="1:43">
-      <c r="A50" s="105"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105"/>
-      <c r="L50" s="105"/>
+      <c r="A50" s="102"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="102"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -8145,18 +8126,18 @@
       <c r="AQ50" s="3"/>
     </row>
     <row r="51" spans="1:43">
-      <c r="A51" s="105"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="105"/>
-      <c r="K51" s="105"/>
-      <c r="L51" s="105"/>
+      <c r="A51" s="102"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="102"/>
+      <c r="K51" s="102"/>
+      <c r="L51" s="102"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -8190,18 +8171,18 @@
       <c r="AQ51" s="3"/>
     </row>
     <row r="52" spans="1:43">
-      <c r="A52" s="105"/>
-      <c r="B52" s="105"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="105"/>
-      <c r="K52" s="105"/>
-      <c r="L52" s="105"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="102"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -8236,19 +8217,283 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="23.5" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="16" thickBot="1">
+      <c r="B2" s="345" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="345"/>
+      <c r="I2" s="345"/>
+      <c r="J2" s="345"/>
+      <c r="K2" s="345"/>
+      <c r="L2" s="345"/>
+      <c r="M2" s="345"/>
+      <c r="N2" s="345"/>
+    </row>
+    <row r="3" spans="2:14" ht="16" thickBot="1">
+      <c r="B3" s="346" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="347" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="348" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="349" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="348" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="350" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="348" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="348" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="350" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" s="348" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="348" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="350" t="s">
+        <v>124</v>
+      </c>
+      <c r="N3" s="348" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="19" customHeight="1" thickBot="1">
+      <c r="B4" s="351"/>
+      <c r="C4" s="352" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="353" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="354" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="363">
+        <v>0.435</v>
+      </c>
+      <c r="G4" s="367">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="H4" s="364">
+        <f>(F4-G4)/G4</f>
+        <v>-6.8522483940042886E-2</v>
+      </c>
+      <c r="I4" s="365">
+        <v>0.311</v>
+      </c>
+      <c r="J4" s="368">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="K4" s="364">
+        <f>(I4-J4)/J4</f>
+        <v>2.6402640264026427E-2</v>
+      </c>
+      <c r="L4" s="365">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="M4" s="368">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="N4" s="364">
+        <f>(L4-M4)/M4</f>
+        <v>6.3736263736263732E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="16" thickBot="1">
+      <c r="B5" s="355"/>
+      <c r="C5" s="356"/>
+      <c r="D5" s="357" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="358"/>
+      <c r="F5" s="363">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="G5" s="368">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="H5" s="364">
+        <f t="shared" ref="H5:H7" si="0">(F5-G5)/G5</f>
+        <v>-5.7906458797327441E-2</v>
+      </c>
+      <c r="I5" s="365">
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="J5" s="368">
+        <v>0.221</v>
+      </c>
+      <c r="K5" s="364">
+        <f t="shared" ref="K5:K7" si="1">(I5-J5)/J5</f>
+        <v>2.8054298642533986E-2</v>
+      </c>
+      <c r="L5" s="365">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="M5" s="368">
+        <v>0.05</v>
+      </c>
+      <c r="N5" s="364">
+        <f t="shared" ref="N5:N7" si="2">(L5-M5)/M5</f>
+        <v>6.9999999999999923E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="19" customHeight="1" thickBot="1">
+      <c r="B6" s="355"/>
+      <c r="C6" s="359" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="353" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="360" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="363">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="G6" s="368">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="H6" s="364">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="365">
+        <v>0.13789999999999999</v>
+      </c>
+      <c r="J6" s="368">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="K6" s="364">
+        <f t="shared" si="1"/>
+        <v>6.5693430656933146E-3</v>
+      </c>
+      <c r="L6" s="365">
+        <v>1.78E-2</v>
+      </c>
+      <c r="M6" s="368">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N6" s="364">
+        <f t="shared" si="2"/>
+        <v>4.7058823529411681E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="16" thickBot="1">
+      <c r="B7" s="361"/>
+      <c r="C7" s="356"/>
+      <c r="D7" s="357" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="362"/>
+      <c r="F7" s="363">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="G7" s="368">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="H7" s="364">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="366">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="J7" s="368">
+        <v>0.09</v>
+      </c>
+      <c r="K7" s="364">
+        <f t="shared" si="1"/>
+        <v>2.222222222222286E-3</v>
+      </c>
+      <c r="L7" s="366">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M7" s="368">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N7" s="364">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8298,12 +8543,12 @@
       <c r="Y1" s="27"/>
     </row>
     <row r="2" spans="1:25" ht="16" thickBot="1">
-      <c r="B2" s="267" t="s">
+      <c r="B2" s="269" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="269"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="271"/>
     </row>
     <row r="3" spans="1:25" ht="16" thickBot="1">
       <c r="B3" s="28" t="s">
@@ -8656,7 +8901,7 @@
       <c r="Y15" s="27"/>
     </row>
     <row r="16" spans="1:25" s="26" customFormat="1">
-      <c r="A16" s="121"/>
+      <c r="A16" s="118"/>
       <c r="B16" s="35" t="s">
         <v>28</v>
       </c>
@@ -8669,26 +8914,26 @@
       <c r="E16" s="40">
         <v>38394</v>
       </c>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="120"/>
-      <c r="T16" s="120"/>
-      <c r="U16" s="120"/>
-      <c r="V16" s="120"/>
-      <c r="W16" s="120"/>
-      <c r="X16" s="120"/>
-      <c r="Y16" s="120"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="117"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="117"/>
     </row>
     <row r="17" spans="1:25" s="25" customFormat="1">
       <c r="A17" s="1"/>
@@ -8803,12 +9048,12 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="16" thickBot="1">
-      <c r="B22" s="270" t="s">
+      <c r="B22" s="272" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="271"/>
-      <c r="D22" s="271"/>
-      <c r="E22" s="272"/>
+      <c r="C22" s="273"/>
+      <c r="D22" s="273"/>
+      <c r="E22" s="274"/>
     </row>
     <row r="23" spans="1:25" ht="16" thickBot="1">
       <c r="B23" s="47"/>
@@ -8823,40 +9068,40 @@
       </c>
     </row>
     <row r="24" spans="1:25">
-      <c r="B24" s="122"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
     </row>
     <row r="25" spans="1:25">
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="122"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
     </row>
     <row r="26" spans="1:25">
-      <c r="B26" s="122"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
     </row>
     <row r="27" spans="1:25">
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="122"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
     </row>
     <row r="28" spans="1:25">
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
     </row>
     <row r="29" spans="1:25">
-      <c r="B29" s="122"/>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
     </row>
     <row r="30" spans="1:25">
       <c r="B30" s="1"/>
@@ -9436,7 +9681,7 @@
   <dimension ref="B2:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9459,22 +9704,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="16" thickBot="1">
-      <c r="B2" s="273" t="s">
+      <c r="B2" s="275" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="273"/>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="275"/>
+      <c r="K2" s="275"/>
+      <c r="L2" s="275"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
     </row>
     <row r="3" spans="2:15" ht="16" thickBot="1">
       <c r="B3" s="61" t="s">
@@ -9521,65 +9766,65 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="19" customHeight="1" thickBot="1">
-      <c r="B4" s="283" t="s">
+      <c r="B4" s="285" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="278"/>
-      <c r="D4" s="286" t="s">
+      <c r="C4" s="280"/>
+      <c r="D4" s="288" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="140" t="s">
+      <c r="E4" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="274" t="s">
+      <c r="F4" s="276" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="141">
+      <c r="G4" s="138">
         <v>0.36299999999999999</v>
       </c>
-      <c r="H4" s="141">
+      <c r="H4" s="138">
         <v>0.36270000000000002</v>
       </c>
-      <c r="I4" s="142">
+      <c r="I4" s="139">
         <f>(G4-H4)/H4</f>
         <v>8.2712985938783272E-4</v>
       </c>
-      <c r="J4" s="143">
+      <c r="J4" s="140">
         <v>0.32540000000000002</v>
       </c>
-      <c r="K4" s="144">
+      <c r="K4" s="141">
         <v>0.32540000000000002</v>
       </c>
-      <c r="L4" s="142">
+      <c r="L4" s="139">
         <f>(J4-K4)/K4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="143">
+      <c r="M4" s="140">
         <v>0.10539999999999999</v>
       </c>
-      <c r="N4" s="144">
+      <c r="N4" s="141">
         <v>0.10539999999999999</v>
       </c>
-      <c r="O4" s="142">
+      <c r="O4" s="139">
         <f>(M4-N4)/N4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="16" thickBot="1">
-      <c r="B5" s="253"/>
-      <c r="C5" s="256"/>
-      <c r="D5" s="287"/>
+      <c r="B5" s="255"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="289"/>
       <c r="E5" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="275"/>
+      <c r="F5" s="277"/>
       <c r="G5" s="70">
         <v>0.34300000000000003</v>
       </c>
       <c r="H5" s="70">
         <v>0.34389999999999998</v>
       </c>
-      <c r="I5" s="123">
+      <c r="I5" s="120">
         <f t="shared" ref="I5:I7" si="0">(G5-H5)/H5</f>
         <v>-2.6170398371618388E-3</v>
       </c>
@@ -9589,7 +9834,7 @@
       <c r="K5" s="64">
         <v>0.2412</v>
       </c>
-      <c r="L5" s="123">
+      <c r="L5" s="120">
         <f t="shared" ref="L5:L11" si="1">(J5-K5)/K5</f>
         <v>0.17454394693200662</v>
       </c>
@@ -9599,69 +9844,69 @@
       <c r="N5" s="70">
         <v>1.78E-2</v>
       </c>
-      <c r="O5" s="123">
+      <c r="O5" s="120">
         <f t="shared" ref="O5:O11" si="2">(M5-N5)/N5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="19" customHeight="1" thickBot="1">
-      <c r="B6" s="253"/>
-      <c r="C6" s="256"/>
-      <c r="D6" s="288" t="s">
+      <c r="B6" s="255"/>
+      <c r="C6" s="258"/>
+      <c r="D6" s="290" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="140" t="s">
+      <c r="E6" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="276" t="s">
+      <c r="F6" s="278" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="141">
+      <c r="G6" s="138">
         <v>0.91600000000000004</v>
       </c>
-      <c r="H6" s="141">
+      <c r="H6" s="138">
         <v>0.91559999999999997</v>
       </c>
-      <c r="I6" s="142">
+      <c r="I6" s="139">
         <f t="shared" si="0"/>
         <v>4.3687199650509716E-4</v>
       </c>
-      <c r="J6" s="143">
+      <c r="J6" s="140">
         <v>0.13750000000000001</v>
       </c>
-      <c r="K6" s="143">
+      <c r="K6" s="140">
         <v>0.1376</v>
       </c>
-      <c r="L6" s="142">
+      <c r="L6" s="139">
         <f t="shared" si="1"/>
         <v>-7.267441860464316E-4</v>
       </c>
-      <c r="M6" s="143">
+      <c r="M6" s="140">
         <v>1.77E-2</v>
       </c>
-      <c r="N6" s="144">
+      <c r="N6" s="141">
         <v>1.7850000000000001E-2</v>
       </c>
-      <c r="O6" s="142">
+      <c r="O6" s="139">
         <f t="shared" si="2"/>
         <v>-8.4033613445378616E-3</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="16" thickBot="1">
-      <c r="B7" s="254"/>
-      <c r="C7" s="279"/>
-      <c r="D7" s="287"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="281"/>
+      <c r="D7" s="289"/>
       <c r="E7" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="277"/>
+      <c r="F7" s="279"/>
       <c r="G7" s="70">
         <v>0.90600000000000003</v>
       </c>
       <c r="H7" s="70">
         <v>0.9</v>
       </c>
-      <c r="I7" s="123">
+      <c r="I7" s="120">
         <f t="shared" si="0"/>
         <v>6.6666666666666723E-3</v>
       </c>
@@ -9671,7 +9916,7 @@
       <c r="K7" s="55">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="L7" s="123">
+      <c r="L7" s="120">
         <f t="shared" si="1"/>
         <v>-2.3861171366594439E-2</v>
       </c>
@@ -9681,169 +9926,169 @@
       <c r="N7" s="64">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="O7" s="123">
+      <c r="O7" s="120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="16" customHeight="1" thickBot="1">
-      <c r="B8" s="290" t="s">
+      <c r="B8" s="292" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="293" t="s">
+      <c r="C8" s="295" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="284" t="s">
+      <c r="D8" s="286" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="124" t="s">
+      <c r="E8" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="296" t="s">
+      <c r="F8" s="298" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="298" t="s">
+      <c r="G8" s="300" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="299"/>
-      <c r="I8" s="300"/>
-      <c r="J8" s="133">
+      <c r="H8" s="301"/>
+      <c r="I8" s="302"/>
+      <c r="J8" s="130">
         <v>0.32579999999999998</v>
       </c>
-      <c r="K8" s="127">
+      <c r="K8" s="124">
         <v>0.32540000000000002</v>
       </c>
-      <c r="L8" s="125">
+      <c r="L8" s="122">
         <f t="shared" si="1"/>
         <v>1.2292562999384018E-3</v>
       </c>
-      <c r="M8" s="126">
+      <c r="M8" s="123">
         <v>0.10539999999999999</v>
       </c>
-      <c r="N8" s="127">
+      <c r="N8" s="124">
         <v>0.10539999999999999</v>
       </c>
-      <c r="O8" s="125">
+      <c r="O8" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="16" thickBot="1">
-      <c r="B9" s="291"/>
-      <c r="C9" s="294"/>
-      <c r="D9" s="285"/>
-      <c r="E9" s="128" t="s">
+      <c r="B9" s="293"/>
+      <c r="C9" s="296"/>
+      <c r="D9" s="287"/>
+      <c r="E9" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="297"/>
-      <c r="G9" s="301"/>
-      <c r="H9" s="302"/>
-      <c r="I9" s="303"/>
-      <c r="J9" s="134">
+      <c r="F9" s="299"/>
+      <c r="G9" s="303"/>
+      <c r="H9" s="304"/>
+      <c r="I9" s="305"/>
+      <c r="J9" s="131">
         <v>0.24079999999999999</v>
       </c>
-      <c r="K9" s="132">
+      <c r="K9" s="129">
         <v>0.2412</v>
       </c>
-      <c r="L9" s="130">
+      <c r="L9" s="127">
         <f t="shared" si="1"/>
         <v>-1.6583747927031984E-3</v>
       </c>
-      <c r="M9" s="131">
+      <c r="M9" s="128">
         <v>1.77E-2</v>
       </c>
-      <c r="N9" s="129">
+      <c r="N9" s="126">
         <v>1.78E-2</v>
       </c>
-      <c r="O9" s="130">
+      <c r="O9" s="127">
         <f t="shared" si="2"/>
         <v>-5.6179775280898537E-3</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="16" thickBot="1">
-      <c r="B10" s="291"/>
-      <c r="C10" s="294"/>
-      <c r="D10" s="289" t="s">
+      <c r="B10" s="293"/>
+      <c r="C10" s="296"/>
+      <c r="D10" s="291" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="135" t="s">
+      <c r="E10" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="307" t="s">
+      <c r="F10" s="309" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="301"/>
-      <c r="H10" s="302"/>
-      <c r="I10" s="303"/>
-      <c r="J10" s="136">
+      <c r="G10" s="303"/>
+      <c r="H10" s="304"/>
+      <c r="I10" s="305"/>
+      <c r="J10" s="133">
         <v>0.13750000000000001</v>
       </c>
-      <c r="K10" s="136">
+      <c r="K10" s="133">
         <v>0.1376</v>
       </c>
-      <c r="L10" s="137">
+      <c r="L10" s="134">
         <f t="shared" si="1"/>
         <v>-7.267441860464316E-4</v>
       </c>
-      <c r="M10" s="136">
+      <c r="M10" s="133">
         <v>1.7749999999999998E-2</v>
       </c>
-      <c r="N10" s="138">
+      <c r="N10" s="135">
         <v>1.7850000000000001E-2</v>
       </c>
-      <c r="O10" s="137">
+      <c r="O10" s="134">
         <f t="shared" si="2"/>
         <v>-5.6022408963587031E-3</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="16" thickBot="1">
-      <c r="B11" s="292"/>
-      <c r="C11" s="295"/>
-      <c r="D11" s="285"/>
-      <c r="E11" s="128" t="s">
+      <c r="B11" s="294"/>
+      <c r="C11" s="297"/>
+      <c r="D11" s="287"/>
+      <c r="E11" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="308"/>
-      <c r="G11" s="304"/>
-      <c r="H11" s="305"/>
-      <c r="I11" s="306"/>
-      <c r="J11" s="139">
+      <c r="F11" s="310"/>
+      <c r="G11" s="306"/>
+      <c r="H11" s="307"/>
+      <c r="I11" s="308"/>
+      <c r="J11" s="136">
         <v>0.09</v>
       </c>
-      <c r="K11" s="131">
+      <c r="K11" s="128">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="L11" s="130">
+      <c r="L11" s="127">
         <f t="shared" si="1"/>
         <v>-2.3861171366594439E-2</v>
       </c>
-      <c r="M11" s="131">
+      <c r="M11" s="128">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="N11" s="132">
+      <c r="N11" s="129">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="O11" s="130">
+      <c r="O11" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="9:22" ht="16" thickBot="1"/>
     <row r="32" spans="9:22">
-      <c r="I32" s="280"/>
-      <c r="J32" s="281"/>
-      <c r="K32" s="281"/>
-      <c r="L32" s="281"/>
-      <c r="M32" s="281"/>
-      <c r="N32" s="281"/>
-      <c r="O32" s="281"/>
-      <c r="P32" s="281"/>
-      <c r="Q32" s="281"/>
-      <c r="R32" s="281"/>
-      <c r="S32" s="281"/>
-      <c r="T32" s="281"/>
-      <c r="U32" s="281"/>
-      <c r="V32" s="282"/>
+      <c r="I32" s="282"/>
+      <c r="J32" s="283"/>
+      <c r="K32" s="283"/>
+      <c r="L32" s="283"/>
+      <c r="M32" s="283"/>
+      <c r="N32" s="283"/>
+      <c r="O32" s="283"/>
+      <c r="P32" s="283"/>
+      <c r="Q32" s="283"/>
+      <c r="R32" s="283"/>
+      <c r="S32" s="283"/>
+      <c r="T32" s="283"/>
+      <c r="U32" s="283"/>
+      <c r="V32" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -9891,19 +10136,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="16" thickBot="1">
-      <c r="B2" s="314" t="s">
+      <c r="B2" s="316" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="314"/>
-      <c r="F2" s="314"/>
-      <c r="G2" s="314"/>
-      <c r="H2" s="314"/>
-      <c r="I2" s="314"/>
-      <c r="J2" s="314"/>
-      <c r="K2" s="314"/>
-      <c r="L2" s="314"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="316"/>
+      <c r="F2" s="316"/>
+      <c r="G2" s="316"/>
+      <c r="H2" s="316"/>
+      <c r="I2" s="316"/>
+      <c r="J2" s="316"/>
+      <c r="K2" s="316"/>
+      <c r="L2" s="316"/>
     </row>
     <row r="3" spans="2:12" ht="16" thickBot="1">
       <c r="B3" s="61" t="s">
@@ -9918,7 +10163,7 @@
       <c r="E3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="147" t="s">
+      <c r="F3" s="144" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="61" t="s">
@@ -9941,17 +10186,17 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="19" customHeight="1" thickBot="1">
-      <c r="B4" s="323" t="s">
+      <c r="B4" s="325" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="309"/>
-      <c r="D4" s="312" t="s">
+      <c r="C4" s="311"/>
+      <c r="D4" s="314" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="148" t="s">
+      <c r="E4" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="315" t="s">
+      <c r="F4" s="317" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="65">
@@ -9960,69 +10205,69 @@
       <c r="H4" s="66">
         <v>0.32540000000000002</v>
       </c>
-      <c r="I4" s="152">
+      <c r="I4" s="149">
         <f>(H4-G4)/G4</f>
         <v>-0.125268817204301</v>
       </c>
-      <c r="J4" s="145">
+      <c r="J4" s="142">
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="K4" s="16">
         <v>0.10539999999999999</v>
       </c>
-      <c r="L4" s="152">
+      <c r="L4" s="149">
         <f>(J4-K4)/K4</f>
         <v>-0.97058823529411764</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="19" customHeight="1" thickBot="1">
-      <c r="B5" s="321"/>
-      <c r="C5" s="310"/>
-      <c r="D5" s="313"/>
+      <c r="B5" s="323"/>
+      <c r="C5" s="312"/>
+      <c r="D5" s="315"/>
       <c r="E5" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="316"/>
+      <c r="F5" s="318"/>
       <c r="G5" s="82">
         <v>0.24160000000000001</v>
       </c>
       <c r="H5" s="59">
         <v>0.2412</v>
       </c>
-      <c r="I5" s="151">
+      <c r="I5" s="148">
         <f t="shared" ref="I5:I11" si="0">(H5-G5)/G5</f>
         <v>-1.655629139072895E-3</v>
       </c>
-      <c r="J5" s="146">
+      <c r="J5" s="143">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K5" s="21">
         <v>1.77E-2</v>
       </c>
-      <c r="L5" s="151">
+      <c r="L5" s="148">
         <f t="shared" ref="L5:L11" si="1">(J5-K5)/K5</f>
         <v>-0.152542372881356</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="19" customHeight="1" thickBot="1">
-      <c r="B6" s="321"/>
-      <c r="C6" s="310"/>
-      <c r="D6" s="312" t="s">
+      <c r="B6" s="323"/>
+      <c r="C6" s="312"/>
+      <c r="D6" s="314" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="148" t="s">
+      <c r="E6" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="317" t="s">
+      <c r="F6" s="319" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="145">
+      <c r="G6" s="142">
         <v>0.29970000000000002</v>
       </c>
       <c r="H6" s="15">
         <v>0.1376</v>
       </c>
-      <c r="I6" s="152">
+      <c r="I6" s="149">
         <f t="shared" si="0"/>
         <v>-0.54087420754087423</v>
       </c>
@@ -10032,26 +10277,26 @@
       <c r="K6" s="16">
         <v>1.77E-2</v>
       </c>
-      <c r="L6" s="152">
+      <c r="L6" s="149">
         <f t="shared" si="1"/>
         <v>-0.16384180790960451</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="19" customHeight="1" thickBot="1">
-      <c r="B7" s="324"/>
-      <c r="C7" s="310"/>
-      <c r="D7" s="313"/>
+      <c r="B7" s="326"/>
+      <c r="C7" s="312"/>
+      <c r="D7" s="315"/>
       <c r="E7" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="318"/>
+      <c r="F7" s="320"/>
       <c r="G7" s="82">
         <v>9.6100000000000005E-2</v>
       </c>
       <c r="H7" s="58">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="I7" s="151">
+      <c r="I7" s="148">
         <f t="shared" si="0"/>
         <v>-4.0582726326742979E-2</v>
       </c>
@@ -10061,20 +10306,20 @@
       <c r="K7" s="22">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="L7" s="151">
+      <c r="L7" s="148">
         <f t="shared" si="1"/>
         <v>1.1449275362318843</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="19" customHeight="1" thickBot="1">
-      <c r="B8" s="320" t="s">
+      <c r="B8" s="322" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="310"/>
-      <c r="D8" s="312" t="s">
+      <c r="C8" s="312"/>
+      <c r="D8" s="314" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="148" t="s">
+      <c r="E8" s="145" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="23"/>
@@ -10084,7 +10329,7 @@
       <c r="H8" s="16">
         <v>0.32540000000000002</v>
       </c>
-      <c r="I8" s="152">
+      <c r="I8" s="149">
         <f t="shared" si="0"/>
         <v>-0.12409152086137275</v>
       </c>
@@ -10094,15 +10339,15 @@
       <c r="K8" s="16">
         <v>0.10539999999999999</v>
       </c>
-      <c r="L8" s="152">
+      <c r="L8" s="149">
         <f t="shared" si="1"/>
         <v>-0.99146110056925996</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="19" customHeight="1" thickBot="1">
-      <c r="B9" s="321"/>
-      <c r="C9" s="310"/>
-      <c r="D9" s="313"/>
+      <c r="B9" s="323"/>
+      <c r="C9" s="312"/>
+      <c r="D9" s="315"/>
       <c r="E9" s="57" t="s">
         <v>39</v>
       </c>
@@ -10113,38 +10358,38 @@
       <c r="H9" s="22">
         <v>0.2412</v>
       </c>
-      <c r="I9" s="151">
+      <c r="I9" s="148">
         <f t="shared" si="0"/>
         <v>-1.2422360248446986E-3</v>
       </c>
-      <c r="J9" s="146">
+      <c r="J9" s="143">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="K9" s="21">
         <v>1.77E-2</v>
       </c>
-      <c r="L9" s="151">
+      <c r="L9" s="148">
         <f t="shared" si="1"/>
         <v>-0.96610169491525422</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="19" customHeight="1" thickBot="1">
-      <c r="B10" s="321"/>
-      <c r="C10" s="310"/>
-      <c r="D10" s="319" t="s">
+      <c r="B10" s="323"/>
+      <c r="C10" s="312"/>
+      <c r="D10" s="321" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="149" t="s">
+      <c r="E10" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="153"/>
+      <c r="F10" s="150"/>
       <c r="G10" s="19">
         <v>0.29499999999999998</v>
       </c>
       <c r="H10" s="17">
         <v>0.1376</v>
       </c>
-      <c r="I10" s="150">
+      <c r="I10" s="147">
         <f t="shared" si="0"/>
         <v>-0.53355932203389833</v>
       </c>
@@ -10154,15 +10399,15 @@
       <c r="K10" s="18">
         <v>1.77E-2</v>
       </c>
-      <c r="L10" s="150">
+      <c r="L10" s="147">
         <f t="shared" si="1"/>
         <v>-0.84180790960451979</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="19" customHeight="1" thickBot="1">
-      <c r="B11" s="322"/>
-      <c r="C11" s="311"/>
-      <c r="D11" s="313"/>
+      <c r="B11" s="324"/>
+      <c r="C11" s="313"/>
+      <c r="D11" s="315"/>
       <c r="E11" s="57" t="s">
         <v>39</v>
       </c>
@@ -10173,7 +10418,7 @@
       <c r="H11" s="58">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="I11" s="151">
+      <c r="I11" s="148">
         <f t="shared" si="0"/>
         <v>-3.1512605042016834E-2</v>
       </c>
@@ -10183,7 +10428,7 @@
       <c r="K11" s="22">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="L11" s="151">
+      <c r="L11" s="148">
         <f t="shared" si="1"/>
         <v>-0.94202898550724634</v>
       </c>
@@ -10215,7 +10460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -10234,30 +10479,30 @@
   <sheetData>
     <row r="1" spans="2:22" ht="16" thickBot="1"/>
     <row r="2" spans="2:22" ht="16" thickBot="1">
-      <c r="B2" s="325" t="s">
+      <c r="B2" s="327" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="326"/>
-      <c r="D2" s="326"/>
-      <c r="E2" s="326"/>
-      <c r="F2" s="326"/>
-      <c r="G2" s="326"/>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="326"/>
-      <c r="N2" s="326"/>
-      <c r="O2" s="327"/>
-      <c r="Q2" s="325" t="s">
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
+      <c r="H2" s="328"/>
+      <c r="I2" s="328"/>
+      <c r="J2" s="328"/>
+      <c r="K2" s="328"/>
+      <c r="L2" s="328"/>
+      <c r="M2" s="328"/>
+      <c r="N2" s="328"/>
+      <c r="O2" s="329"/>
+      <c r="Q2" s="327" t="s">
         <v>62</v>
       </c>
-      <c r="R2" s="326"/>
-      <c r="S2" s="326"/>
-      <c r="T2" s="326"/>
-      <c r="U2" s="326"/>
-      <c r="V2" s="327"/>
+      <c r="R2" s="328"/>
+      <c r="S2" s="328"/>
+      <c r="T2" s="328"/>
+      <c r="U2" s="328"/>
+      <c r="V2" s="329"/>
     </row>
     <row r="3" spans="2:22" ht="16" thickBot="1">
       <c r="B3" s="10" t="s">
@@ -10322,73 +10567,73 @@
       </c>
     </row>
     <row r="4" spans="2:22" ht="19" customHeight="1" thickBot="1">
-      <c r="B4" s="252" t="s">
+      <c r="B4" s="254" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="331" t="s">
+      <c r="C4" s="333" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="328" t="s">
+      <c r="D4" s="330" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="124" t="s">
+      <c r="E4" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="156">
+      <c r="F4" s="152"/>
+      <c r="G4" s="153">
         <v>0.33200000000000002</v>
       </c>
-      <c r="H4" s="157">
+      <c r="H4" s="154">
         <v>0.36270000000000002</v>
       </c>
-      <c r="I4" s="125">
+      <c r="I4" s="122">
         <f>(G4-H4)*H4</f>
         <v>-1.1134890000000003E-2</v>
       </c>
-      <c r="J4" s="133">
+      <c r="J4" s="130">
         <v>0.65080000000000005</v>
       </c>
-      <c r="K4" s="127">
+      <c r="K4" s="124">
         <v>0.32540000000000002</v>
       </c>
-      <c r="L4" s="125">
+      <c r="L4" s="122">
         <f>(J4-K4)/K4</f>
         <v>1</v>
       </c>
-      <c r="M4" s="126">
+      <c r="M4" s="123">
         <v>0.4239</v>
       </c>
-      <c r="N4" s="127">
+      <c r="N4" s="124">
         <v>0.10539999999999999</v>
       </c>
-      <c r="O4" s="125">
+      <c r="O4" s="122">
         <f>(M4-N4)/N4</f>
         <v>3.021821631878558</v>
       </c>
-      <c r="Q4" s="252" t="s">
+      <c r="Q4" s="254" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="328" t="s">
+      <c r="R4" s="330" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="124" t="s">
+      <c r="S4" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="156">
+      <c r="T4" s="153">
         <v>0.33200000000000002</v>
       </c>
-      <c r="U4" s="157">
+      <c r="U4" s="154">
         <v>0.36270000000000002</v>
       </c>
-      <c r="V4" s="125">
+      <c r="V4" s="122">
         <f>(T4-U4)*U4</f>
         <v>-1.1134890000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="19" customHeight="1" thickBot="1">
-      <c r="B5" s="253"/>
-      <c r="C5" s="332"/>
-      <c r="D5" s="329"/>
+      <c r="B5" s="255"/>
+      <c r="C5" s="334"/>
+      <c r="D5" s="331"/>
       <c r="E5" s="60" t="s">
         <v>39</v>
       </c>
@@ -10399,17 +10644,17 @@
       <c r="H5" s="5">
         <v>0.34389999999999998</v>
       </c>
-      <c r="I5" s="130">
+      <c r="I5" s="127">
         <f>(G5-H5)*H5</f>
         <v>4.0580200000000111E-3</v>
       </c>
-      <c r="J5" s="161">
+      <c r="J5" s="158">
         <v>0.2409</v>
       </c>
-      <c r="K5" s="154">
+      <c r="K5" s="151">
         <v>0.2412</v>
       </c>
-      <c r="L5" s="130">
+      <c r="L5" s="127">
         <f t="shared" ref="L5:L7" si="0">(J5-K5)/K5</f>
         <v>-1.2437810945273413E-3</v>
       </c>
@@ -10419,12 +10664,12 @@
       <c r="N5" s="5">
         <v>1.77E-2</v>
       </c>
-      <c r="O5" s="162">
+      <c r="O5" s="159">
         <f>(M5-N5)/N5</f>
         <v>327.30508474576271</v>
       </c>
-      <c r="Q5" s="253"/>
-      <c r="R5" s="329"/>
+      <c r="Q5" s="255"/>
+      <c r="R5" s="331"/>
       <c r="S5" s="60" t="s">
         <v>39</v>
       </c>
@@ -10434,73 +10679,73 @@
       <c r="U5" s="5">
         <v>0.34389999999999998</v>
       </c>
-      <c r="V5" s="130">
+      <c r="V5" s="127">
         <f>(T5-U5)*U5</f>
         <v>4.0580200000000111E-3</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="19" customHeight="1" thickBot="1">
-      <c r="B6" s="253"/>
-      <c r="C6" s="332"/>
-      <c r="D6" s="330" t="s">
+      <c r="B6" s="255"/>
+      <c r="C6" s="334"/>
+      <c r="D6" s="332" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="158"/>
-      <c r="G6" s="159">
+      <c r="F6" s="155"/>
+      <c r="G6" s="156">
         <v>0.88239999999999996</v>
       </c>
-      <c r="H6" s="160">
+      <c r="H6" s="157">
         <v>0.91559999999999997</v>
       </c>
-      <c r="I6" s="137">
+      <c r="I6" s="134">
         <f>(G6-H6)*H6</f>
         <v>-3.0397920000000005E-2</v>
       </c>
-      <c r="J6" s="136">
+      <c r="J6" s="133">
         <v>0.27229999999999999</v>
       </c>
-      <c r="K6" s="136">
+      <c r="K6" s="133">
         <v>0.1376</v>
       </c>
-      <c r="L6" s="137">
+      <c r="L6" s="134">
         <f t="shared" si="0"/>
         <v>0.97892441860465107</v>
       </c>
-      <c r="M6" s="136">
+      <c r="M6" s="133">
         <v>7.46E-2</v>
       </c>
-      <c r="N6" s="138">
+      <c r="N6" s="135">
         <v>1.7749999999999998E-2</v>
       </c>
-      <c r="O6" s="137">
+      <c r="O6" s="134">
         <f>(M6-N6)/N6</f>
         <v>3.2028169014084509</v>
       </c>
-      <c r="Q6" s="253"/>
-      <c r="R6" s="330" t="s">
+      <c r="Q6" s="255"/>
+      <c r="R6" s="332" t="s">
         <v>70</v>
       </c>
-      <c r="S6" s="135" t="s">
+      <c r="S6" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="T6" s="159">
+      <c r="T6" s="156">
         <v>0.88239999999999996</v>
       </c>
-      <c r="U6" s="160">
+      <c r="U6" s="157">
         <v>0.91559999999999997</v>
       </c>
-      <c r="V6" s="137">
+      <c r="V6" s="134">
         <f>(T6-U6)*U6</f>
         <v>-3.0397920000000005E-2</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="19" customHeight="1" thickBot="1">
-      <c r="B7" s="254"/>
-      <c r="C7" s="333"/>
-      <c r="D7" s="329"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="335"/>
+      <c r="D7" s="331"/>
       <c r="E7" s="60" t="s">
         <v>39</v>
       </c>
@@ -10511,7 +10756,7 @@
       <c r="H7" s="5">
         <v>0.9002</v>
       </c>
-      <c r="I7" s="130">
+      <c r="I7" s="127">
         <f>(G7-H7)*H7</f>
         <v>1.0082239999999989E-2</v>
       </c>
@@ -10521,22 +10766,22 @@
       <c r="K7" s="4">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="L7" s="130">
+      <c r="L7" s="127">
         <f t="shared" si="0"/>
         <v>-3.1453362255965289E-2</v>
       </c>
       <c r="M7" s="52">
         <v>0.79910000000000003</v>
       </c>
-      <c r="N7" s="154">
+      <c r="N7" s="151">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="O7" s="162">
+      <c r="O7" s="159">
         <f>(M7-N7)/N7</f>
         <v>114.81159420289856</v>
       </c>
-      <c r="Q7" s="254"/>
-      <c r="R7" s="329"/>
+      <c r="Q7" s="256"/>
+      <c r="R7" s="331"/>
       <c r="S7" s="60" t="s">
         <v>39</v>
       </c>
@@ -10546,7 +10791,7 @@
       <c r="U7" s="5">
         <v>0.9002</v>
       </c>
-      <c r="V7" s="130">
+      <c r="V7" s="127">
         <f>(T7-U7)*U7</f>
         <v>1.0082239999999989E-2</v>
       </c>
@@ -10582,338 +10827,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="3" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="3" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:18" ht="16" thickBot="1"/>
-    <row r="2" spans="2:18" ht="16" thickBot="1">
-      <c r="B2" s="249" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="250"/>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="250"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="250"/>
-      <c r="Q2" s="250"/>
-      <c r="R2" s="251"/>
-    </row>
-    <row r="3" spans="2:18" ht="16" thickBot="1">
-      <c r="B3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="35" customHeight="1" thickBot="1">
-      <c r="B4" s="252" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="255"/>
-      <c r="D4" s="259" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="261" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="71">
-        <v>0.438</v>
-      </c>
-      <c r="H4" s="100">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="I4" s="85">
-        <v>0.36270000000000002</v>
-      </c>
-      <c r="J4" s="95">
-        <f>(G4-I4)/I4</f>
-        <v>0.20760959470636883</v>
-      </c>
-      <c r="K4" s="101">
-        <v>0.31019999999999998</v>
-      </c>
-      <c r="L4" s="86">
-        <v>0.3165</v>
-      </c>
-      <c r="M4" s="73">
-        <v>0.32540000000000002</v>
-      </c>
-      <c r="N4" s="75">
-        <f>(M4-K4)/M4</f>
-        <v>4.6711739397664556E-2</v>
-      </c>
-      <c r="O4" s="102">
-        <v>9.6699999999999994E-2</v>
-      </c>
-      <c r="P4" s="88">
-        <v>0.10009999999999999</v>
-      </c>
-      <c r="Q4" s="73">
-        <v>0.10539999999999999</v>
-      </c>
-      <c r="R4" s="76">
-        <f>(Q4-O4)/Q4</f>
-        <v>8.2542694497153693E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="16" thickBot="1">
-      <c r="B5" s="253"/>
-      <c r="C5" s="256"/>
-      <c r="D5" s="260"/>
-      <c r="E5" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="262"/>
-      <c r="G5" s="77">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="H5" s="77">
-        <v>0.315</v>
-      </c>
-      <c r="I5" s="84">
-        <v>0.34389999999999998</v>
-      </c>
-      <c r="J5" s="96">
-        <f t="shared" ref="J5:J7" si="0">(G5-I5)/I5</f>
-        <v>0.23000872346612389</v>
-      </c>
-      <c r="K5" s="81">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="L5" s="78">
-        <v>0.24879999999999999</v>
-      </c>
-      <c r="M5" s="88">
-        <v>0.2412</v>
-      </c>
-      <c r="N5" s="75">
-        <f t="shared" ref="N5:N7" si="1">(M5-K5)/M5</f>
-        <v>5.8872305140961818E-2</v>
-      </c>
-      <c r="O5" s="81">
-        <v>5.357E-2</v>
-      </c>
-      <c r="P5" s="78">
-        <v>6.3799999999999996E-2</v>
-      </c>
-      <c r="Q5" s="84">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="R5" s="76">
-        <f t="shared" ref="R5:R7" si="2">(Q5-O5)/Q5</f>
-        <v>5.8523725834797882E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" ht="19" customHeight="1" thickBot="1">
-      <c r="B6" s="253"/>
-      <c r="C6" s="257"/>
-      <c r="D6" s="263" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="265" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="71">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="H6" s="77">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="I6" s="85">
-        <v>0.91559999999999997</v>
-      </c>
-      <c r="J6" s="95">
-        <f t="shared" si="0"/>
-        <v>4.3687199650509716E-4</v>
-      </c>
-      <c r="K6" s="79">
-        <v>0.13750000000000001</v>
-      </c>
-      <c r="L6" s="78">
-        <v>0.13750000000000001</v>
-      </c>
-      <c r="M6" s="72">
-        <v>0.1376</v>
-      </c>
-      <c r="N6" s="75">
-        <f t="shared" si="1"/>
-        <v>7.267441860464316E-4</v>
-      </c>
-      <c r="O6" s="74">
-        <v>1.78E-2</v>
-      </c>
-      <c r="P6" s="79">
-        <v>1.77E-2</v>
-      </c>
-      <c r="Q6" s="80">
-        <v>1.7850000000000001E-2</v>
-      </c>
-      <c r="R6" s="76">
-        <f t="shared" si="2"/>
-        <v>2.8011204481793515E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="19" customHeight="1" thickBot="1">
-      <c r="B7" s="254"/>
-      <c r="C7" s="258"/>
-      <c r="D7" s="264"/>
-      <c r="E7" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="266"/>
-      <c r="G7" s="77">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="H7" s="77">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="I7" s="85">
-        <v>0.9</v>
-      </c>
-      <c r="J7" s="95">
-        <f t="shared" si="0"/>
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="K7" s="81">
-        <v>0.09</v>
-      </c>
-      <c r="L7" s="81">
-        <v>9.3399999999999997E-2</v>
-      </c>
-      <c r="M7" s="89">
-        <v>9.2200000000000004E-2</v>
-      </c>
-      <c r="N7" s="75">
-        <f t="shared" si="1"/>
-        <v>2.3861171366594439E-2</v>
-      </c>
-      <c r="O7" s="81">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="P7" s="78">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="Q7" s="90">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="R7" s="76">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="D8" sqref="D8:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10931,52 +10848,52 @@
     <row r="6" spans="4:8" ht="19" customHeight="1"/>
     <row r="7" spans="4:8" ht="19" customHeight="1"/>
     <row r="8" spans="4:8">
-      <c r="D8" s="213" t="s">
+      <c r="D8" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="214" t="s">
+      <c r="E8" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="215" t="s">
+      <c r="F8" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="216" t="s">
+      <c r="G8" s="213" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="215" t="s">
+      <c r="H8" s="212" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="4:8">
-      <c r="D9" s="334" t="s">
+      <c r="D9" s="338" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="217" t="s">
+      <c r="E9" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="220">
+      <c r="F9" s="217">
         <v>0.40300000000000002</v>
       </c>
-      <c r="G9" s="212">
+      <c r="G9" s="209">
         <v>0.36199999999999999</v>
       </c>
-      <c r="H9" s="225">
+      <c r="H9" s="222">
         <f>(F9-G9)/G9</f>
         <v>0.11325966850828739</v>
       </c>
     </row>
     <row r="10" spans="4:8">
-      <c r="D10" s="335"/>
-      <c r="E10" s="218" t="s">
+      <c r="D10" s="337"/>
+      <c r="E10" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="209">
+      <c r="F10" s="206">
         <v>0.38400000000000001</v>
       </c>
-      <c r="G10" s="211">
+      <c r="G10" s="208">
         <v>0.34300000000000003</v>
       </c>
-      <c r="H10" s="226">
+      <c r="H10" s="223">
         <f>(F10-G10)/G10</f>
         <v>0.11953352769679294</v>
       </c>
@@ -10985,88 +10902,88 @@
       <c r="D11" s="336" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="219" t="s">
+      <c r="E11" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="221">
+      <c r="F11" s="218">
         <v>0.91500000000000004</v>
       </c>
-      <c r="G11" s="210">
+      <c r="G11" s="207">
         <v>0.91559999999999997</v>
       </c>
-      <c r="H11" s="230">
+      <c r="H11" s="227">
         <f t="shared" ref="H11:H12" si="0">(F11-G11)/G11</f>
         <v>-6.5530799475746384E-4</v>
       </c>
     </row>
     <row r="12" spans="4:8">
-      <c r="D12" s="335"/>
-      <c r="E12" s="218" t="s">
+      <c r="D12" s="337"/>
+      <c r="E12" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="209">
+      <c r="F12" s="206">
         <v>0.90500000000000003</v>
       </c>
-      <c r="G12" s="211">
+      <c r="G12" s="208">
         <v>0.9</v>
       </c>
-      <c r="H12" s="226">
+      <c r="H12" s="223">
         <f t="shared" si="0"/>
         <v>5.5555555555555601E-3</v>
       </c>
     </row>
     <row r="13" spans="4:8">
-      <c r="F13" s="222"/>
-      <c r="G13" s="222"/>
-      <c r="H13" s="228"/>
+      <c r="F13" s="219"/>
+      <c r="G13" s="219"/>
+      <c r="H13" s="225"/>
     </row>
     <row r="14" spans="4:8">
-      <c r="D14" s="213" t="s">
+      <c r="D14" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="214" t="s">
+      <c r="E14" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="223" t="s">
+      <c r="F14" s="220" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="224" t="s">
+      <c r="G14" s="221" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="229" t="s">
+      <c r="H14" s="226" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="4:8">
-      <c r="D15" s="334" t="s">
+      <c r="D15" s="338" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="217" t="s">
+      <c r="E15" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="220">
+      <c r="F15" s="217">
         <v>0.317</v>
       </c>
-      <c r="G15" s="212">
+      <c r="G15" s="209">
         <v>0.32540000000000002</v>
       </c>
-      <c r="H15" s="225">
+      <c r="H15" s="222">
         <f>(F15-G15)/G15</f>
         <v>-2.5814382298709335E-2</v>
       </c>
     </row>
     <row r="16" spans="4:8">
-      <c r="D16" s="335"/>
-      <c r="E16" s="218" t="s">
+      <c r="D16" s="337"/>
+      <c r="E16" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="209">
+      <c r="F16" s="206">
         <v>0.248</v>
       </c>
-      <c r="G16" s="211">
+      <c r="G16" s="208">
         <v>0.2412</v>
       </c>
-      <c r="H16" s="226">
+      <c r="H16" s="223">
         <f t="shared" ref="H16:H18" si="1">(F16-G16)/G16</f>
         <v>2.8192371475953569E-2</v>
       </c>
@@ -11075,88 +10992,88 @@
       <c r="D17" s="336" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="219" t="s">
+      <c r="E17" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="221">
+      <c r="F17" s="218">
         <v>0.13700000000000001</v>
       </c>
-      <c r="G17" s="210">
+      <c r="G17" s="207">
         <v>0.1376</v>
       </c>
-      <c r="H17" s="227">
+      <c r="H17" s="224">
         <f t="shared" si="1"/>
         <v>-4.3604651162789934E-3</v>
       </c>
     </row>
     <row r="18" spans="4:8">
-      <c r="D18" s="335"/>
-      <c r="E18" s="218" t="s">
+      <c r="D18" s="337"/>
+      <c r="E18" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="209">
+      <c r="F18" s="206">
         <v>0.09</v>
       </c>
-      <c r="G18" s="211">
+      <c r="G18" s="208">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="H18" s="226">
+      <c r="H18" s="223">
         <f t="shared" si="1"/>
         <v>-2.3861171366594439E-2</v>
       </c>
     </row>
     <row r="19" spans="4:8">
-      <c r="F19" s="222"/>
-      <c r="G19" s="222"/>
-      <c r="H19" s="228"/>
+      <c r="F19" s="219"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="225"/>
     </row>
     <row r="20" spans="4:8">
-      <c r="D20" s="213" t="s">
+      <c r="D20" s="210" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="214" t="s">
+      <c r="E20" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="223" t="s">
+      <c r="F20" s="220" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="224" t="s">
+      <c r="G20" s="221" t="s">
         <v>170</v>
       </c>
-      <c r="H20" s="229" t="s">
+      <c r="H20" s="226" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="21" spans="4:8">
-      <c r="D21" s="334" t="s">
+      <c r="D21" s="338" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="217" t="s">
+      <c r="E21" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="220">
+      <c r="F21" s="217">
         <v>0.1</v>
       </c>
-      <c r="G21" s="212">
+      <c r="G21" s="209">
         <v>0.10539999999999999</v>
       </c>
-      <c r="H21" s="225">
+      <c r="H21" s="222">
         <f>(F21-G21)/G21</f>
         <v>-5.1233396584440115E-2</v>
       </c>
     </row>
     <row r="22" spans="4:8">
-      <c r="D22" s="335"/>
-      <c r="E22" s="218" t="s">
+      <c r="D22" s="337"/>
+      <c r="E22" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="209">
+      <c r="F22" s="206">
         <v>6.3E-2</v>
       </c>
-      <c r="G22" s="211">
+      <c r="G22" s="208">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="H22" s="226">
+      <c r="H22" s="223">
         <f t="shared" ref="H22:H24" si="2">(F22-G22)/G22</f>
         <v>0.10720562390158174</v>
       </c>
@@ -11165,32 +11082,32 @@
       <c r="D23" s="336" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="219" t="s">
+      <c r="E23" s="216" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="221">
+      <c r="F23" s="218">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G23" s="210">
+      <c r="G23" s="207">
         <v>1.7850000000000001E-2</v>
       </c>
-      <c r="H23" s="227">
+      <c r="H23" s="224">
         <f t="shared" si="2"/>
         <v>-4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="24" spans="4:8">
-      <c r="D24" s="335"/>
-      <c r="E24" s="218" t="s">
+      <c r="D24" s="337"/>
+      <c r="E24" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="209">
+      <c r="F24" s="206">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G24" s="211">
+      <c r="G24" s="208">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="H24" s="226">
+      <c r="H24" s="223">
         <f t="shared" si="2"/>
         <v>1.4492753623188444E-2</v>
       </c>
@@ -11214,7 +11131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR56"/>
   <sheetViews>
@@ -11232,1080 +11149,1080 @@
     <col min="7" max="7" width="22.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="44" width="10.83203125" style="178"/>
+    <col min="10" max="44" width="10.83203125" style="175"/>
     <col min="45" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1" ht="16" thickBot="1">
-      <c r="A1" s="105"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
+      <c r="A1" s="102"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" ht="16" thickBot="1">
-      <c r="A2" s="105"/>
-      <c r="B2" s="164"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="338" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="343" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="338"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
+      <c r="F2" s="343"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1" ht="16" thickBot="1">
-      <c r="A3" s="105"/>
+      <c r="A3" s="102"/>
       <c r="B3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="166" t="s">
+      <c r="C3" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="166" t="s">
+      <c r="E3" s="163" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="166" t="s">
+      <c r="F3" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="166" t="s">
+      <c r="G3" s="163" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="163" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="167" t="s">
+      <c r="I3" s="164" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="16" thickBot="1">
-      <c r="A4" s="105"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="339"/>
-      <c r="C4" s="337" t="s">
+      <c r="C4" s="342" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="235">
+      <c r="E4" s="232">
         <v>0.46700000000000003</v>
       </c>
-      <c r="F4" s="234">
+      <c r="F4" s="231">
         <v>0.434</v>
       </c>
-      <c r="G4" s="169">
+      <c r="G4" s="166">
         <v>0.40300000000000002</v>
       </c>
-      <c r="H4" s="169">
+      <c r="H4" s="166">
         <v>0.36199999999999999</v>
       </c>
-      <c r="I4" s="170">
+      <c r="I4" s="167">
         <f>(E4-H4)/H4</f>
         <v>0.29005524861878462</v>
       </c>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:13" s="3" customFormat="1" ht="16" thickBot="1">
-      <c r="A5" s="105"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="340"/>
-      <c r="C5" s="337"/>
-      <c r="D5" s="171" t="s">
+      <c r="C5" s="342"/>
+      <c r="D5" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="236">
+      <c r="E5" s="233">
         <v>0.44900000000000001</v>
       </c>
-      <c r="F5" s="232">
+      <c r="F5" s="229">
         <v>0.42099999999999999</v>
       </c>
-      <c r="G5" s="173">
+      <c r="G5" s="170">
         <v>0.38400000000000001</v>
       </c>
-      <c r="H5" s="173">
+      <c r="H5" s="170">
         <v>0.34300000000000003</v>
       </c>
-      <c r="I5" s="170">
+      <c r="I5" s="167">
         <f t="shared" ref="I5:I7" si="0">(E5-H5)/H5</f>
         <v>0.30903790087463551</v>
       </c>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" spans="1:13" s="3" customFormat="1" ht="16" thickBot="1">
-      <c r="A6" s="105"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="340"/>
-      <c r="C6" s="337" t="s">
+      <c r="C6" s="342" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="168" t="s">
+      <c r="D6" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="237">
+      <c r="E6" s="234">
         <v>0.91500000000000004</v>
       </c>
-      <c r="F6" s="175">
+      <c r="F6" s="172">
         <v>0.91500000000000004</v>
       </c>
-      <c r="G6" s="169">
+      <c r="G6" s="166">
         <v>0.91500000000000004</v>
       </c>
-      <c r="H6" s="169">
+      <c r="H6" s="166">
         <v>0.91559999999999997</v>
       </c>
-      <c r="I6" s="170">
+      <c r="I6" s="167">
         <f t="shared" si="0"/>
         <v>-6.5530799475746384E-4</v>
       </c>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="105"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="16" thickBot="1">
-      <c r="A7" s="105"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="341"/>
-      <c r="C7" s="337"/>
-      <c r="D7" s="171" t="s">
+      <c r="C7" s="342"/>
+      <c r="D7" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="236">
+      <c r="E7" s="233">
         <v>0.90500000000000003</v>
       </c>
-      <c r="F7" s="232">
+      <c r="F7" s="229">
         <v>0.90500000000000003</v>
       </c>
-      <c r="G7" s="173">
+      <c r="G7" s="170">
         <v>0.90500000000000003</v>
       </c>
-      <c r="H7" s="173">
+      <c r="H7" s="170">
         <v>0.9</v>
       </c>
-      <c r="I7" s="170">
+      <c r="I7" s="167">
         <f t="shared" si="0"/>
         <v>5.5555555555555601E-3</v>
       </c>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="105"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1">
-      <c r="A8" s="105"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="105"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" s="3" customFormat="1">
-      <c r="A9" s="105"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="105"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1">
-      <c r="A11" s="105"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="338" t="s">
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="343" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="338"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
+      <c r="F11" s="343"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1">
-      <c r="A12" s="105"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="166" t="s">
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="166" t="s">
+      <c r="D12" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="166" t="s">
+      <c r="E12" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="166" t="s">
+      <c r="F12" s="163" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="166" t="s">
+      <c r="G12" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="166" t="s">
+      <c r="H12" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="166" t="s">
+      <c r="I12" s="163" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="105"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1">
-      <c r="A13" s="105"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="337" t="s">
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="342" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="168" t="s">
+      <c r="D13" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="237">
+      <c r="E13" s="234">
         <v>0.30299999999999999</v>
       </c>
-      <c r="F13" s="175">
+      <c r="F13" s="172">
         <v>0.311</v>
       </c>
-      <c r="G13" s="175">
+      <c r="G13" s="172">
         <v>0.317</v>
       </c>
-      <c r="H13" s="174">
+      <c r="H13" s="171">
         <v>0.32540000000000002</v>
       </c>
-      <c r="I13" s="170">
+      <c r="I13" s="167">
         <f>(E13-H13)/H13</f>
         <v>-6.8838352796558172E-2</v>
       </c>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="1:13" s="3" customFormat="1">
-      <c r="A14" s="105"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="337"/>
-      <c r="D14" s="171" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="342"/>
+      <c r="D14" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="236">
+      <c r="E14" s="233">
         <v>0.221</v>
       </c>
-      <c r="F14" s="232">
+      <c r="F14" s="229">
         <v>0.22700000000000001</v>
       </c>
-      <c r="G14" s="176">
+      <c r="G14" s="173">
         <v>0.23380000000000001</v>
       </c>
-      <c r="H14" s="172">
+      <c r="H14" s="169">
         <v>0.2412</v>
       </c>
-      <c r="I14" s="170">
+      <c r="I14" s="167">
         <f t="shared" ref="I14:I16" si="1">(E14-H14)/H14</f>
         <v>-8.3747927031509101E-2</v>
       </c>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
     </row>
     <row r="15" spans="1:13" s="3" customFormat="1">
-      <c r="A15" s="105"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="337" t="s">
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="342" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="168" t="s">
+      <c r="D15" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="237">
+      <c r="E15" s="234">
         <v>0.13700000000000001</v>
       </c>
-      <c r="F15" s="175">
+      <c r="F15" s="172">
         <v>0.13700000000000001</v>
       </c>
-      <c r="G15" s="231">
+      <c r="G15" s="228">
         <v>0.13700000000000001</v>
       </c>
-      <c r="H15" s="177">
+      <c r="H15" s="174">
         <v>0.1376</v>
       </c>
-      <c r="I15" s="170">
+      <c r="I15" s="167">
         <f t="shared" si="1"/>
         <v>-4.3604651162789934E-3</v>
       </c>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="105"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
     </row>
     <row r="16" spans="1:13" s="3" customFormat="1">
-      <c r="A16" s="105"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="337"/>
-      <c r="D16" s="171" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="342"/>
+      <c r="D16" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="236">
+      <c r="E16" s="233">
         <v>0.09</v>
       </c>
-      <c r="F16" s="232">
+      <c r="F16" s="229">
         <v>0.09</v>
       </c>
-      <c r="G16" s="231">
+      <c r="G16" s="228">
         <v>9.0200000000000002E-2</v>
       </c>
-      <c r="H16" s="176">
+      <c r="H16" s="173">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="I16" s="170">
+      <c r="I16" s="167">
         <f t="shared" si="1"/>
         <v>-2.3861171366594439E-2</v>
       </c>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="105"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1">
-      <c r="A17" s="105"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="105"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
     </row>
     <row r="18" spans="1:13" s="3" customFormat="1">
-      <c r="A18" s="105"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1">
-      <c r="A19" s="105"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="105"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
     </row>
     <row r="20" spans="1:13" s="3" customFormat="1">
-      <c r="A20" s="105"/>
-      <c r="B20" s="105"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="338" t="s">
+      <c r="A20" s="102"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="343" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="338"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="105"/>
+      <c r="F20" s="343"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
     </row>
     <row r="21" spans="1:13" s="3" customFormat="1">
-      <c r="A21" s="105"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="166" t="s">
+      <c r="A21" s="102"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="166" t="s">
+      <c r="D21" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="163" t="s">
         <v>124</v>
       </c>
-      <c r="F21" s="166" t="s">
+      <c r="F21" s="163" t="s">
         <v>125</v>
       </c>
-      <c r="G21" s="166" t="s">
+      <c r="G21" s="163" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="166" t="s">
+      <c r="H21" s="163" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="166" t="s">
+      <c r="I21" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
     </row>
     <row r="22" spans="1:13" s="3" customFormat="1">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="337" t="s">
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="342" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="168" t="s">
+      <c r="D22" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="237">
+      <c r="E22" s="234">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="F22" s="169">
+      <c r="F22" s="166">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G22" s="175">
+      <c r="G22" s="172">
         <v>0.1</v>
       </c>
-      <c r="H22" s="174">
+      <c r="H22" s="171">
         <v>0.10539999999999999</v>
       </c>
-      <c r="I22" s="170">
+      <c r="I22" s="167">
         <f>(E22-H22)/H22</f>
         <v>-0.13662239089184058</v>
       </c>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
     </row>
     <row r="23" spans="1:13" s="3" customFormat="1">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="337"/>
-      <c r="D23" s="171" t="s">
+      <c r="A23" s="102"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="342"/>
+      <c r="D23" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="236">
+      <c r="E23" s="233">
         <v>0.05</v>
       </c>
-      <c r="F23" s="173">
+      <c r="F23" s="170">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="G23" s="233">
+      <c r="G23" s="230">
         <v>6.3E-2</v>
       </c>
-      <c r="H23" s="173">
+      <c r="H23" s="170">
         <v>5.6300000000000003E-2</v>
       </c>
-      <c r="I23" s="170">
+      <c r="I23" s="167">
         <f t="shared" ref="I23:I25" si="2">(E23-H23)/H23</f>
         <v>-0.11190053285968028</v>
       </c>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1">
-      <c r="A24" s="105"/>
-      <c r="B24" s="105"/>
-      <c r="C24" s="337" t="s">
+      <c r="A24" s="102"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="342" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="168" t="s">
+      <c r="D24" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="237">
+      <c r="E24" s="234">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F24" s="169">
+      <c r="F24" s="166">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G24" s="177">
+      <c r="G24" s="174">
         <v>1.78E-2</v>
       </c>
-      <c r="H24" s="174">
+      <c r="H24" s="171">
         <v>1.78E-2</v>
       </c>
-      <c r="I24" s="170">
+      <c r="I24" s="167">
         <f t="shared" si="2"/>
         <v>-4.4943820224719024E-2</v>
       </c>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
     </row>
     <row r="25" spans="1:13" s="3" customFormat="1">
-      <c r="A25" s="105"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="337"/>
-      <c r="D25" s="171" t="s">
+      <c r="A25" s="102"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="342"/>
+      <c r="D25" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="236">
+      <c r="E25" s="233">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F25" s="173">
+      <c r="F25" s="170">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G25" s="232">
+      <c r="G25" s="229">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H25" s="172">
+      <c r="H25" s="169">
         <v>6.8999999999999999E-3</v>
       </c>
-      <c r="I25" s="170">
+      <c r="I25" s="167">
         <f t="shared" si="2"/>
         <v>1.4492753623188444E-2</v>
       </c>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
     </row>
     <row r="26" spans="1:13" s="3" customFormat="1">
-      <c r="A26" s="105"/>
-      <c r="B26" s="105"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="105"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
     </row>
     <row r="27" spans="1:13" s="3" customFormat="1">
-      <c r="A27" s="105"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="105"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
     </row>
     <row r="28" spans="1:13" s="3" customFormat="1">
-      <c r="A28" s="105"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="105"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
     </row>
     <row r="29" spans="1:13" s="3" customFormat="1">
-      <c r="A29" s="105"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
     </row>
     <row r="30" spans="1:13" s="3" customFormat="1">
-      <c r="A30" s="105"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="105"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
     </row>
     <row r="31" spans="1:13" s="3" customFormat="1">
-      <c r="A31" s="105"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
     </row>
     <row r="32" spans="1:13" s="3" customFormat="1">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
     </row>
     <row r="33" spans="1:13" s="3" customFormat="1">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
     </row>
     <row r="34" spans="1:13" s="3" customFormat="1">
-      <c r="A34" s="105"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
     </row>
     <row r="35" spans="1:13" s="3" customFormat="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
-      <c r="L35" s="105"/>
-      <c r="M35" s="105"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="102"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="102"/>
     </row>
     <row r="36" spans="1:13" s="3" customFormat="1">
-      <c r="A36" s="105"/>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
     </row>
     <row r="37" spans="1:13" s="3" customFormat="1">
-      <c r="A37" s="105"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="102"/>
     </row>
     <row r="38" spans="1:13" s="3" customFormat="1">
-      <c r="A38" s="105"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105"/>
-      <c r="L38" s="105"/>
-      <c r="M38" s="105"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="102"/>
     </row>
     <row r="39" spans="1:13" s="3" customFormat="1">
-      <c r="A39" s="105"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="102"/>
     </row>
     <row r="40" spans="1:13" s="3" customFormat="1">
-      <c r="A40" s="105"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="105"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
     </row>
     <row r="41" spans="1:13" s="3" customFormat="1">
-      <c r="A41" s="105"/>
-      <c r="B41" s="105"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="105"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="105"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="102"/>
+      <c r="L41" s="102"/>
+      <c r="M41" s="102"/>
     </row>
     <row r="42" spans="1:13" s="3" customFormat="1">
-      <c r="A42" s="105"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
-      <c r="H42" s="105"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
-      <c r="L42" s="105"/>
-      <c r="M42" s="105"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="102"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="102"/>
     </row>
     <row r="43" spans="1:13" s="3" customFormat="1">
-      <c r="A43" s="105"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-      <c r="G43" s="105"/>
-      <c r="H43" s="105"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
-      <c r="L43" s="105"/>
-      <c r="M43" s="105"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="102"/>
+      <c r="M43" s="102"/>
     </row>
     <row r="44" spans="1:13" s="3" customFormat="1">
-      <c r="A44" s="105"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
-      <c r="K44" s="105"/>
-      <c r="L44" s="105"/>
-      <c r="M44" s="105"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="102"/>
+      <c r="M44" s="102"/>
     </row>
     <row r="45" spans="1:13" s="3" customFormat="1">
-      <c r="A45" s="105"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
-      <c r="L45" s="105"/>
-      <c r="M45" s="105"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="102"/>
+      <c r="L45" s="102"/>
+      <c r="M45" s="102"/>
     </row>
     <row r="46" spans="1:13" s="3" customFormat="1">
-      <c r="A46" s="105"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="105"/>
-      <c r="K46" s="105"/>
-      <c r="L46" s="105"/>
-      <c r="M46" s="105"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="102"/>
+      <c r="M46" s="102"/>
     </row>
     <row r="47" spans="1:13" s="3" customFormat="1">
-      <c r="A47" s="105"/>
-      <c r="B47" s="105"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="105"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="102"/>
+      <c r="M47" s="102"/>
     </row>
     <row r="48" spans="1:13" s="3" customFormat="1">
-      <c r="A48" s="105"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
-      <c r="M48" s="105"/>
+      <c r="A48" s="102"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="102"/>
+      <c r="M48" s="102"/>
     </row>
     <row r="49" spans="1:13" s="3" customFormat="1">
-      <c r="A49" s="105"/>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="105"/>
-      <c r="K49" s="105"/>
-      <c r="L49" s="105"/>
-      <c r="M49" s="105"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="102"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="102"/>
     </row>
     <row r="50" spans="1:13" s="3" customFormat="1">
-      <c r="A50" s="105"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105"/>
-      <c r="L50" s="105"/>
-      <c r="M50" s="105"/>
+      <c r="A50" s="102"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="102"/>
+      <c r="M50" s="102"/>
     </row>
     <row r="51" spans="1:13" s="3" customFormat="1">
-      <c r="A51" s="105"/>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="105"/>
-      <c r="K51" s="105"/>
-      <c r="L51" s="105"/>
-      <c r="M51" s="105"/>
+      <c r="A51" s="102"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="102"/>
+      <c r="K51" s="102"/>
+      <c r="L51" s="102"/>
+      <c r="M51" s="102"/>
     </row>
     <row r="52" spans="1:13" s="3" customFormat="1">
-      <c r="A52" s="105"/>
-      <c r="B52" s="105"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="105"/>
-      <c r="K52" s="105"/>
-      <c r="L52" s="105"/>
-      <c r="M52" s="105"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="102"/>
+      <c r="M52" s="102"/>
     </row>
     <row r="53" spans="1:13" s="3" customFormat="1">
-      <c r="A53" s="105"/>
-      <c r="B53" s="105"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
-      <c r="K53" s="105"/>
-      <c r="L53" s="105"/>
-      <c r="M53" s="105"/>
+      <c r="A53" s="102"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="102"/>
+      <c r="L53" s="102"/>
+      <c r="M53" s="102"/>
     </row>
     <row r="54" spans="1:13" s="3" customFormat="1">
-      <c r="A54" s="105"/>
-      <c r="B54" s="105"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="105"/>
-      <c r="K54" s="105"/>
-      <c r="L54" s="105"/>
-      <c r="M54" s="105"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
+      <c r="K54" s="102"/>
+      <c r="L54" s="102"/>
+      <c r="M54" s="102"/>
     </row>
     <row r="55" spans="1:13" s="3" customFormat="1">
-      <c r="A55" s="105"/>
-      <c r="B55" s="105"/>
-      <c r="C55" s="105"/>
-      <c r="D55" s="105"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="105"/>
-      <c r="I55" s="105"/>
-      <c r="J55" s="105"/>
-      <c r="K55" s="105"/>
-      <c r="L55" s="105"/>
-      <c r="M55" s="105"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="102"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="102"/>
+      <c r="L55" s="102"/>
+      <c r="M55" s="102"/>
     </row>
     <row r="56" spans="1:13" s="3" customFormat="1">
-      <c r="A56" s="105"/>
-      <c r="B56" s="105"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="105"/>
-      <c r="K56" s="105"/>
-      <c r="L56" s="105"/>
-      <c r="M56" s="105"/>
+      <c r="A56" s="102"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="102"/>
+      <c r="I56" s="102"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="102"/>
+      <c r="L56" s="102"/>
+      <c r="M56" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -12317,7 +12234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:G17"/>
   <sheetViews>
@@ -12332,86 +12249,214 @@
   </cols>
   <sheetData>
     <row r="5" spans="6:7">
-      <c r="F5" s="189" t="s">
+      <c r="F5" s="186" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="190" t="s">
+      <c r="G5" s="187" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" spans="6:7">
-      <c r="F6" s="185"/>
-      <c r="G6" s="180" t="s">
+      <c r="F6" s="182"/>
+      <c r="G6" s="177" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="6:7">
-      <c r="F7" s="187" t="s">
+      <c r="F7" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="182" t="s">
+      <c r="G7" s="179" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="6:7">
-      <c r="F8" s="188"/>
-      <c r="G8" s="195"/>
+      <c r="F8" s="185"/>
+      <c r="G8" s="192"/>
     </row>
     <row r="9" spans="6:7">
-      <c r="F9" s="187" t="s">
+      <c r="F9" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="182" t="s">
+      <c r="G9" s="179" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="10" spans="6:7">
-      <c r="F10" s="187"/>
-      <c r="G10" s="182"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="179"/>
     </row>
     <row r="11" spans="6:7">
-      <c r="F11" s="187" t="s">
+      <c r="F11" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="182" t="s">
+      <c r="G11" s="179" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="187"/>
-      <c r="G12" s="182"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="179"/>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="187" t="s">
+      <c r="F13" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="182" t="s">
+      <c r="G13" s="179" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="14" spans="6:7">
-      <c r="F14" s="187"/>
-      <c r="G14" s="182"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="179"/>
     </row>
     <row r="15" spans="6:7">
-      <c r="F15" s="187" t="s">
+      <c r="F15" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="182" t="s">
+      <c r="G15" s="179" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="16" spans="6:7">
-      <c r="F16" s="187"/>
-      <c r="G16" s="182"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="179"/>
     </row>
     <row r="17" spans="6:7">
-      <c r="F17" s="186" t="s">
+      <c r="F17" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="181" t="s">
+      <c r="G17" s="178" t="s">
         <v>137</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F5:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="6:8">
+      <c r="F5" s="188" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="187" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="6:8">
+      <c r="F6" s="190"/>
+      <c r="G6" s="196"/>
+    </row>
+    <row r="7" spans="6:8">
+      <c r="F7" s="185" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="179" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8">
+      <c r="F8" s="185"/>
+      <c r="G8" s="179"/>
+    </row>
+    <row r="9" spans="6:8">
+      <c r="F9" s="185" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="179" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8">
+      <c r="F10" s="185"/>
+      <c r="G10" s="192"/>
+    </row>
+    <row r="11" spans="6:8">
+      <c r="F11" s="185" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="192" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="175"/>
+    </row>
+    <row r="12" spans="6:8">
+      <c r="F12" s="185"/>
+      <c r="G12" s="192" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="175"/>
+    </row>
+    <row r="13" spans="6:8">
+      <c r="F13" s="195"/>
+      <c r="G13" s="193"/>
+    </row>
+    <row r="14" spans="6:8">
+      <c r="F14" s="185" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="179" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8">
+      <c r="F15" s="185"/>
+      <c r="G15" s="179"/>
+    </row>
+    <row r="16" spans="6:8">
+      <c r="F16" s="185" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="179" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" s="185"/>
+      <c r="G17" s="193"/>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="185" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="179" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" s="185"/>
+      <c r="G19" s="179"/>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" s="189" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="194" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" s="191"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Modelos.xlsx
+++ b/Modelos.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="183">
   <si>
     <t>MODELS TRIALS</t>
   </si>
@@ -1035,7 +1035,13 @@
     <t>ARTIST SIMILARITY</t>
   </si>
   <si>
-    <t xml:space="preserve">R2 no Genre Clustering </t>
+    <t>R2 no Genre Clus.</t>
+  </si>
+  <si>
+    <t>RMSE no Genre Clust.</t>
+  </si>
+  <si>
+    <t>Var no Genre Clust.</t>
   </si>
 </sst>
 </file>
@@ -2181,7 +2187,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="356">
+  <cellStyleXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2276,6 +2282,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3536,7 +3550,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="356">
+  <cellStyles count="364">
     <cellStyle name="Encabezado 3" xfId="93" builtinId="18"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
@@ -3715,6 +3729,10 @@
     <cellStyle name="Hipervínculo" xfId="350" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="352" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="362" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -3892,6 +3910,10 @@
     <cellStyle name="Hipervínculo visitado" xfId="351" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="353" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="363" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8243,25 +8265,25 @@
   <dimension ref="B2:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="B2" sqref="B2:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="23.5" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -8308,7 +8330,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="350" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="K3" s="348" t="s">
         <v>48</v>
@@ -8317,7 +8339,7 @@
         <v>41</v>
       </c>
       <c r="M3" s="350" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="N3" s="348" t="s">
         <v>48</v>
